--- a/OPRA_Model.xlsx
+++ b/OPRA_Model.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\General\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Equity Research\Models\Communication Services\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECECB86-BF5C-4D76-86D1-A7F829781965}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E86722D-95A2-4208-9145-8491F19DAECA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30615" yWindow="1815" windowWidth="21600" windowHeight="11055" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -45,14 +45,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="246">
   <si>
     <t>Master</t>
   </si>
   <si>
-    <t>[Ticker]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Price </t>
   </si>
   <si>
@@ -77,39 +74,12 @@
     <t>Quarter</t>
   </si>
   <si>
-    <t>[Company Name]</t>
-  </si>
-  <si>
-    <t>Founded:</t>
-  </si>
-  <si>
-    <t>Headquarters:</t>
-  </si>
-  <si>
-    <t>Current CEO:</t>
-  </si>
-  <si>
-    <t>Employees:</t>
-  </si>
-  <si>
-    <t>Registered Exchange:</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
     <t>Investor Relations Contact:</t>
   </si>
   <si>
-    <t>Sources for model:</t>
-  </si>
-  <si>
     <t>SEC filings</t>
   </si>
   <si>
-    <t>Earnings calls</t>
-  </si>
-  <si>
     <t>Godel Terminal</t>
   </si>
   <si>
@@ -120,12 +90,6 @@
   </si>
   <si>
     <t>[description of business, markets, products, employees, initiatives etc.] (general)</t>
-  </si>
-  <si>
-    <t>Business Segements and Geographical Info:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Begin researching fundementals / core business … begin with SEC filings, but expand and use all public resources available] </t>
   </si>
   <si>
     <t>[Bold Title]</t>
@@ -808,9 +772,6 @@
     <t>3σ</t>
   </si>
   <si>
-    <t>Inevestors Relation Department</t>
-  </si>
-  <si>
     <t>Phone:</t>
   </si>
   <si>
@@ -821,16 +782,92 @@
   </si>
   <si>
     <t>&lt;- Sharpe Ratio (Risk Adjusted Return)</t>
+  </si>
+  <si>
+    <t>https://www.sec.gov/edgar/browse/?CIK=310764&amp;owner=exclude</t>
+  </si>
+  <si>
+    <t>Alphabet IR Page</t>
+  </si>
+  <si>
+    <t>https://abc.xyz/investor/</t>
+  </si>
+  <si>
+    <t>Earnings Calls</t>
+  </si>
+  <si>
+    <t>https://seekingalpha.com/symbol/GOOGL/earnings/transcripts</t>
+  </si>
+  <si>
+    <t>Equity Analysis</t>
+  </si>
+  <si>
+    <t>https://stockanalysis.com/stocks/googl/</t>
+  </si>
+  <si>
+    <t>https://app.godelterminal.com/</t>
+  </si>
+  <si>
+    <t>[Change for specific company]</t>
+  </si>
+  <si>
+    <t>OPRA</t>
+  </si>
+  <si>
+    <t>Founder: Jon Stephenson von Tetzchner and Geir Ivarsøy</t>
+  </si>
+  <si>
+    <t>Founded: 1995</t>
+  </si>
+  <si>
+    <t>Headquarters: Oslo, Norway</t>
+  </si>
+  <si>
+    <t>Current CEO: Zhou Yahui (CEO &amp; chairman)</t>
+  </si>
+  <si>
+    <t>Employees: 599</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sector: Web Browser Software </t>
+  </si>
+  <si>
+    <t>Industry: Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IPO: 2018 </t>
+  </si>
+  <si>
+    <t>Registered Exchange: NASDAQ</t>
+  </si>
+  <si>
+    <t>Opera, Ltd</t>
+  </si>
+  <si>
+    <t>Investors Relation Department</t>
+  </si>
+  <si>
+    <t>Business Segments and Geographical Info:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Begin researching fundamentals / core business … begin with SEC filings, but expand and use all public resources available] </t>
+  </si>
+  <si>
+    <t>Address: VITAMINVEIEN 4, OSLO, Q8, 0485</t>
+  </si>
+  <si>
+    <t>investor-relations@opera.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -919,6 +956,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibre"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
       <name val="Calibre"/>
     </font>
   </fonts>
@@ -1149,21 +1200,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1246,8 +1292,23 @@
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="5"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -2951,7 +3012,7 @@
             <c:numRef>
               <c:f>[1]Model!$AW$55:$BQ$55</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>590</c:v>
@@ -3041,7 +3102,7 @@
             <c:numRef>
               <c:f>[1]Model!$AW$103:$BQ$103</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>493</c:v>
@@ -3159,7 +3220,7 @@
             <c:numRef>
               <c:f>[1]Model!$AW$44:$BQ$44</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
                   <c:v>2.0477815699658786E-2</c:v>
@@ -4120,85 +4181,85 @@
                   <c:v>Bin</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-4.00%</c:v>
+                  <c:v>-0.04</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-3.90%</c:v>
+                  <c:v>-0.039</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-3.80%</c:v>
+                  <c:v>-0.038</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-3.70%</c:v>
+                  <c:v>-0.037</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-3.60%</c:v>
+                  <c:v>-0.036</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-3.50%</c:v>
+                  <c:v>-0.035</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-3.40%</c:v>
+                  <c:v>-0.034</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-3.30%</c:v>
+                  <c:v>-0.033</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-3.20%</c:v>
+                  <c:v>-0.032</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-3.10%</c:v>
+                  <c:v>-0.031</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-3.00%</c:v>
+                  <c:v>-0.03</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-2.90%</c:v>
+                  <c:v>-0.029</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-2.80%</c:v>
+                  <c:v>-0.028</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-2.70%</c:v>
+                  <c:v>-0.027</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-2.60%</c:v>
+                  <c:v>-0.026</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-2.50%</c:v>
+                  <c:v>-0.025</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-2.40%</c:v>
+                  <c:v>-0.024</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-2.30%</c:v>
+                  <c:v>-0.023</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-2.20%</c:v>
+                  <c:v>-0.022</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-2.10%</c:v>
+                  <c:v>-0.021</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-2.00%</c:v>
+                  <c:v>-0.02</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-1.90%</c:v>
+                  <c:v>-0.019</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-1.80%</c:v>
+                  <c:v>-0.018</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.70%</c:v>
+                  <c:v>-0.017</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-1.60%</c:v>
+                  <c:v>-0.016</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-1.50%</c:v>
+                  <c:v>-0.015</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.40%</c:v>
+                  <c:v>-0.014</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -4230,7 +4291,7 @@
                 <c:pt idx="48">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="51" formatCode="#,##0">
+                <c:pt idx="51">
                   <c:v>1014</c:v>
                 </c:pt>
                 <c:pt idx="53">
@@ -4362,91 +4423,91 @@
                   <c:v> (X) 1-Day Δ  </c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-4.10%</c:v>
+                  <c:v>-0.041</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-4.00%</c:v>
+                  <c:v>-0.04</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-3.90%</c:v>
+                  <c:v>-0.039</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-3.80%</c:v>
+                  <c:v>-0.038</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-3.70%</c:v>
+                  <c:v>-0.037</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-3.60%</c:v>
+                  <c:v>-0.036</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>-3.50%</c:v>
+                  <c:v>-0.035</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>-3.40%</c:v>
+                  <c:v>-0.034</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>-3.30%</c:v>
+                  <c:v>-0.033</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>-3.20%</c:v>
+                  <c:v>-0.032</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>-3.10%</c:v>
+                  <c:v>-0.031</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>-3.00%</c:v>
+                  <c:v>-0.03</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>-2.90%</c:v>
+                  <c:v>-0.029</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>-2.80%</c:v>
+                  <c:v>-0.028</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>-2.70%</c:v>
+                  <c:v>-0.027</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>-2.60%</c:v>
+                  <c:v>-0.026</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>-2.50%</c:v>
+                  <c:v>-0.025</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>-2.40%</c:v>
+                  <c:v>-0.024</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>-2.30%</c:v>
+                  <c:v>-0.023</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>-2.20%</c:v>
+                  <c:v>-0.022</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>-2.10%</c:v>
+                  <c:v>-0.021</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>-2.00%</c:v>
+                  <c:v>-0.02</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>-1.90%</c:v>
+                  <c:v>-0.019</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>-1.80%</c:v>
+                  <c:v>-0.018</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>-1.70%</c:v>
+                  <c:v>-0.017</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>-1.60%</c:v>
+                  <c:v>-0.016</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>-1.50%</c:v>
+                  <c:v>-0.015</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>-1.40%</c:v>
+                  <c:v>-0.014</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>-1.30%</c:v>
+                  <c:v>-0.013</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -7920,42 +7981,52 @@
           </cell>
         </row>
         <row r="224">
+          <cell r="I224"/>
           <cell r="J224" t="str">
             <v>Min</v>
           </cell>
         </row>
         <row r="225">
+          <cell r="I225"/>
           <cell r="J225" t="str">
             <v>Max</v>
           </cell>
         </row>
         <row r="226">
+          <cell r="I226"/>
           <cell r="J226" t="str">
             <v>Mean μ</v>
           </cell>
         </row>
         <row r="227">
+          <cell r="I227"/>
           <cell r="J227" t="str">
             <v>Median</v>
           </cell>
         </row>
         <row r="228">
+          <cell r="I228"/>
           <cell r="J228" t="str">
             <v>SD σ</v>
           </cell>
+          <cell r="M228"/>
         </row>
         <row r="229">
+          <cell r="I229"/>
           <cell r="J229" t="str">
             <v xml:space="preserve">  3σ 1-Day Δ: ±</v>
           </cell>
+          <cell r="L229"/>
           <cell r="M229" t="str">
             <v>&lt;- Sharpe Ratio (Risk Adjusted Return)</v>
           </cell>
         </row>
         <row r="230">
+          <cell r="I230"/>
           <cell r="J230" t="str">
             <v>β (1-year avg.)</v>
           </cell>
+          <cell r="L230"/>
           <cell r="M230" t="str">
             <v>&lt;- Sortino Ratio (Downside Risk Adjusted Return)</v>
           </cell>
@@ -9197,175 +9268,228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="3.42578125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="11.5703125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15">
+    <row r="2" spans="1:19" ht="15">
       <c r="B2" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="45">
+        <v>17.11</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C4" s="46">
+        <v>88.43</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="47">
+        <f>C3*C4</f>
+        <v>1513.0373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="48">
+        <v>127</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
+      <c r="B7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="48">
         <v>0</v>
       </c>
-      <c r="D3" s="47" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
+    <row r="8" spans="1:19">
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="48">
+        <f>C5-C6+C7</f>
+        <v>1386.0373</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="15">
+      <c r="B10" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="15">
+      <c r="B12" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="B13" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="S13" s="49" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
+      <c r="B14" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="S14" s="49" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="B15" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="4">
-        <f>C3*C4</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="4">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="4">
-        <f>C5-C6+C7</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="15">
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
-      <c r="B12" s="1" t="s">
+      <c r="P15" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="S15" s="49" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="B16" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="S16" s="49" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="B17" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L17" s="49" t="s">
+        <v>245</v>
+      </c>
+      <c r="P17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
-      <c r="B13" s="1" t="s">
+      <c r="S17" s="49" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="15">
+      <c r="B18" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="P18" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
-      <c r="B14" s="1" t="s">
+    </row>
+    <row r="19" spans="1:19" ht="15">
+      <c r="B19" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="21" spans="1:19" ht="15">
+      <c r="A21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
-      <c r="B15" s="1" t="s">
+    </row>
+    <row r="22" spans="1:19">
+      <c r="B22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="15">
-      <c r="F16" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="N16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="15">
-      <c r="A18" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" ht="15">
-      <c r="A29" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="B30" s="1" t="s">
-        <v>26</v>
+    </row>
+    <row r="32" spans="1:19" ht="15">
+      <c r="A32" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="S13" r:id="rId1" xr:uid="{739BC0F6-DDEA-409E-BAA0-CED0EC3FAC10}"/>
+    <hyperlink ref="S14" r:id="rId2" xr:uid="{3A32E811-E794-46FB-A010-EBB0450F323B}"/>
+    <hyperlink ref="S15" r:id="rId3" xr:uid="{E44B94DF-FE8A-4931-93F9-24899DFED42C}"/>
+    <hyperlink ref="S16" r:id="rId4" xr:uid="{02ECFE4E-0865-458E-9F04-951EDF61DD89}"/>
+    <hyperlink ref="S17" r:id="rId5" xr:uid="{14375537-5C3D-4253-9650-337AB6789785}"/>
+    <hyperlink ref="L17" r:id="rId6" xr:uid="{4F5B4222-D400-41D9-B701-7ED121A910C2}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -9387,269 +9511,269 @@
     <col min="2" max="2" width="36.42578125" style="1" customWidth="1"/>
     <col min="3" max="4" width="9.140625" style="1" customWidth="1"/>
     <col min="5" max="71" width="9.140625" style="1"/>
-    <col min="72" max="78" width="9.140625" style="39"/>
+    <col min="72" max="78" width="9.140625" style="36"/>
     <col min="79" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:166" ht="15">
       <c r="B1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AY1" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="AY1" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC1" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="BG1" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="BK1" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="BC1" s="37" t="s">
+      <c r="BO1" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="BG1" s="37" t="s">
+      <c r="BS1" s="34" t="s">
         <v>126</v>
-      </c>
-      <c r="BK1" s="37" t="s">
-        <v>130</v>
-      </c>
-      <c r="BO1" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="BS1" s="37" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="2" spans="2:166">
       <c r="B2" s="1" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="2:166" ht="15">
       <c r="B3" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>62</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="P3" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q3" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="R3" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="F3" s="37" t="s">
-        <v>151</v>
-      </c>
-      <c r="G3" s="37" t="s">
+      <c r="S3" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="T3" s="34" t="s">
         <v>75</v>
       </c>
-      <c r="I3" s="37" t="s">
+      <c r="U3" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="V3" s="34" t="s">
         <v>77</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="W3" s="34" t="s">
         <v>78</v>
       </c>
-      <c r="L3" s="37" t="s">
+      <c r="X3" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="M3" s="37" t="s">
+      <c r="Y3" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="N3" s="37" t="s">
+      <c r="Z3" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="37" t="s">
+      <c r="AA3" s="34" t="s">
         <v>82</v>
       </c>
-      <c r="P3" s="37" t="s">
+      <c r="AB3" s="34" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="37" t="s">
+      <c r="AC3" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="R3" s="37" t="s">
+      <c r="AD3" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="AE3" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="T3" s="37" t="s">
+      <c r="AF3" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="U3" s="37" t="s">
+      <c r="AG3" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="V3" s="37" t="s">
+      <c r="AH3" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="W3" s="37" t="s">
+      <c r="AI3" s="34" t="s">
         <v>90</v>
       </c>
-      <c r="X3" s="37" t="s">
+      <c r="AJ3" s="34" t="s">
         <v>91</v>
       </c>
-      <c r="Y3" s="37" t="s">
+      <c r="AK3" s="34" t="s">
         <v>92</v>
       </c>
-      <c r="Z3" s="37" t="s">
+      <c r="AL3" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="AA3" s="37" t="s">
+      <c r="AM3" s="34" t="s">
         <v>94</v>
       </c>
-      <c r="AB3" s="37" t="s">
+      <c r="AN3" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="AC3" s="37" t="s">
+      <c r="AO3" s="34" t="s">
         <v>96</v>
       </c>
-      <c r="AD3" s="37" t="s">
+      <c r="AP3" s="34" t="s">
         <v>97</v>
       </c>
-      <c r="AE3" s="37" t="s">
+      <c r="AQ3" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="AF3" s="37" t="s">
+      <c r="AR3" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="AG3" s="37" t="s">
+      <c r="AS3" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="AH3" s="37" t="s">
+      <c r="AT3" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="AI3" s="37" t="s">
+      <c r="AU3" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="AJ3" s="37" t="s">
+      <c r="AV3" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="AK3" s="37" t="s">
+      <c r="AW3" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="AL3" s="37" t="s">
+      <c r="AX3" s="34" t="s">
         <v>105</v>
       </c>
-      <c r="AM3" s="37" t="s">
+      <c r="AY3" s="34" t="s">
         <v>106</v>
       </c>
-      <c r="AN3" s="37" t="s">
+      <c r="AZ3" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="AO3" s="37" t="s">
+      <c r="BA3" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="AP3" s="37" t="s">
+      <c r="BB3" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="AQ3" s="37" t="s">
+      <c r="BC3" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="AR3" s="37" t="s">
+      <c r="BD3" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="AS3" s="37" t="s">
+      <c r="BE3" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="AT3" s="37" t="s">
+      <c r="BF3" s="34" t="s">
         <v>113</v>
       </c>
-      <c r="AU3" s="37" t="s">
+      <c r="BG3" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="AV3" s="37" t="s">
+      <c r="BH3" s="34" t="s">
         <v>115</v>
       </c>
-      <c r="AW3" s="37" t="s">
+      <c r="BI3" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="AX3" s="37" t="s">
+      <c r="BJ3" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="AY3" s="37" t="s">
+      <c r="BK3" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="AZ3" s="37" t="s">
+      <c r="BL3" s="34" t="s">
         <v>119</v>
       </c>
-      <c r="BA3" s="37" t="s">
+      <c r="BM3" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="BB3" s="37" t="s">
+      <c r="BN3" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="BC3" s="37" t="s">
+      <c r="BO3" s="34" t="s">
         <v>122</v>
       </c>
-      <c r="BD3" s="37" t="s">
+      <c r="BP3" s="34" t="s">
         <v>123</v>
       </c>
-      <c r="BE3" s="37" t="s">
+      <c r="BQ3" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="BF3" s="37" t="s">
+      <c r="BR3" s="34" t="s">
         <v>125</v>
       </c>
-      <c r="BG3" s="37" t="s">
+      <c r="BS3" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="BH3" s="37" t="s">
+      <c r="BT3" s="35" t="s">
         <v>127</v>
       </c>
-      <c r="BI3" s="37" t="s">
+      <c r="BU3" s="35" t="s">
         <v>128</v>
       </c>
-      <c r="BJ3" s="37" t="s">
+      <c r="BV3" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="BK3" s="37" t="s">
+      <c r="BW3" s="35" t="s">
         <v>130</v>
       </c>
-      <c r="BL3" s="37" t="s">
+      <c r="BX3" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="BM3" s="37" t="s">
+      <c r="BY3" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="BN3" s="37" t="s">
+      <c r="BZ3" s="35" t="s">
         <v>133</v>
-      </c>
-      <c r="BO3" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="BP3" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="BQ3" s="37" t="s">
-        <v>136</v>
-      </c>
-      <c r="BR3" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="BS3" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="BT3" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="BU3" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="BV3" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="BW3" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="BX3" s="38" t="s">
-        <v>143</v>
-      </c>
-      <c r="BY3" s="38" t="s">
-        <v>144</v>
-      </c>
-      <c r="BZ3" s="38" t="s">
-        <v>145</v>
       </c>
       <c r="CI3" s="2">
         <v>2008</v>
@@ -9963,326 +10087,326 @@
       <c r="FJ3" s="2"/>
     </row>
     <row r="4" spans="2:166">
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="2:166">
+      <c r="B5" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="2:166">
+      <c r="B6" s="37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="2:166">
+      <c r="B7" s="37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="2:166">
+      <c r="B8" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="2:166" ht="15">
+      <c r="B9" s="34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="2:166">
+      <c r="B10" s="37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="11" spans="2:166">
+      <c r="B11" s="37" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="12" spans="2:166">
+      <c r="B12" s="37" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="2:166">
+      <c r="B13" s="37" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="37"/>
+    </row>
+    <row r="14" spans="2:166">
+      <c r="B14" s="37" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="37"/>
+    </row>
+    <row r="15" spans="2:166" ht="15">
+      <c r="B15" s="34" t="s">
+        <v>142</v>
+      </c>
+      <c r="C15" s="37"/>
+    </row>
+    <row r="16" spans="2:166" ht="15">
+      <c r="B16" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="37"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="38" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="38" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="5" spans="2:166">
-      <c r="B5" s="40" t="s">
+    <row r="20" spans="2:3">
+      <c r="B20" s="38" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="6" spans="2:166">
-      <c r="B6" s="40" t="s">
+    <row r="21" spans="2:3">
+      <c r="B21" s="38" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="7" spans="2:166">
-      <c r="B7" s="40" t="s">
+    <row r="22" spans="2:3">
+      <c r="B22" s="38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="38" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" ht="15">
+      <c r="B29" s="34" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" ht="15">
+      <c r="B30" s="34" t="s">
         <v>153</v>
-      </c>
-    </row>
-    <row r="8" spans="2:166">
-      <c r="B8" s="40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="2:166" ht="15">
-      <c r="B9" s="37" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="2:166">
-      <c r="B10" s="40" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="11" spans="2:166">
-      <c r="B11" s="40" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="2:166">
-      <c r="B12" s="40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="2:166">
-      <c r="B13" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" s="40"/>
-    </row>
-    <row r="14" spans="2:166">
-      <c r="B14" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="C14" s="40"/>
-    </row>
-    <row r="15" spans="2:166" ht="15">
-      <c r="B15" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="C15" s="40"/>
-    </row>
-    <row r="16" spans="2:166" ht="15">
-      <c r="B16" s="37" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="40"/>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="40"/>
-      <c r="C17" s="40"/>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" s="41" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3">
-      <c r="B19" s="41" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
-      <c r="B20" s="41" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="41" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="B22" s="41" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="B23" s="41" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="B24" s="41" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="25" spans="2:3">
-      <c r="B25" s="41" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" s="41" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" s="41" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="29" spans="2:3" ht="15">
-      <c r="B29" s="37" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="30" spans="2:3" ht="15">
-      <c r="B30" s="37" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="32" spans="2:3">
       <c r="B32" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" s="1" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" s="1" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" s="1" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" s="1" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" spans="2:2">
       <c r="B40" s="1" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="2:2">
-      <c r="B42" s="42" t="s">
-        <v>180</v>
+      <c r="B42" s="39" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="2:2">
       <c r="B43" s="1" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" spans="2:2">
       <c r="B44" s="1" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="1" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="2:2" ht="15">
       <c r="B47" s="2" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" s="1" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" spans="2:2">
       <c r="B49" s="1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="2:2">
-      <c r="B67" s="41" t="s">
-        <v>190</v>
+      <c r="B67" s="38" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="68" spans="2:2">
-      <c r="B68" s="41" t="s">
-        <v>191</v>
+      <c r="B68" s="38" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="2:2">
-      <c r="B69" s="41" t="s">
-        <v>192</v>
+      <c r="B69" s="38" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="70" spans="2:2">
-      <c r="B70" s="41" t="s">
-        <v>193</v>
+      <c r="B70" s="38" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="71" spans="2:2">
-      <c r="B71" s="41" t="s">
-        <v>194</v>
+      <c r="B71" s="38" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="72" spans="2:2">
-      <c r="B72" s="41" t="s">
-        <v>195</v>
+      <c r="B72" s="38" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="73" spans="2:2">
-      <c r="B73" s="41" t="s">
-        <v>232</v>
+      <c r="B73" s="38" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="75" spans="2:2">
       <c r="B75" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="76" spans="2:2">
       <c r="B76" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="77" spans="2:2">
       <c r="B77" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="2:2">
       <c r="B109" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="110" spans="2:2">
       <c r="B110" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="111" spans="2:2">
       <c r="B111" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="112" spans="2:2">
       <c r="B112" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="113" spans="2:2">
       <c r="B113" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="114" spans="2:2">
       <c r="B114" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="115" spans="2:2">
       <c r="B115" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="118" spans="2:2">
       <c r="B118" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="119" spans="2:2">
       <c r="B119" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="120" spans="2:2">
       <c r="B120" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="121" spans="2:2">
       <c r="B121" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="122" spans="2:2">
       <c r="B122" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="123" spans="2:2">
       <c r="B123" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -10295,8 +10419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{714FD4A5-C172-4508-BDD9-9132B91E029B}">
   <dimension ref="A1:CA1618"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A180" workbookViewId="0">
-      <selection activeCell="M210" sqref="M210"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="S216" sqref="S216:S229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -10315,4583 +10439,4639 @@
     </row>
     <row r="2" spans="8:79" ht="15">
       <c r="H2" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="3" spans="8:79">
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="8:30" ht="15">
       <c r="H35" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36" spans="8:30">
       <c r="I36" s="1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="8:30" ht="15">
       <c r="AD37" s="2" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="8:30" ht="15">
       <c r="AD38" s="2" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="8:30">
       <c r="AD39" s="1" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="42" spans="8:30">
       <c r="I42" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="9:9">
       <c r="I58" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="75" spans="9:9">
       <c r="I75" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="96" spans="8:8" ht="15">
       <c r="H96" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="128" spans="9:10">
       <c r="I128" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="129" spans="8:30">
       <c r="J129" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="130" spans="8:30">
       <c r="J130" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="132" spans="8:30" ht="15">
       <c r="H132" s="2" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
     </row>
     <row r="137" spans="8:30" ht="15">
       <c r="AD137" s="2" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="138" spans="8:30">
       <c r="AD138" s="1" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="161" spans="8:10">
       <c r="I161" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="J161" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="162" spans="8:10">
       <c r="J162" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="163" spans="8:10">
       <c r="J163" s="1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
     </row>
     <row r="165" spans="8:10" ht="15">
       <c r="H165" s="2" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="183" spans="1:7">
       <c r="A183" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="184" spans="1:7">
-      <c r="A184" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B184" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="C184" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D184" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="E184" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="F184" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="G184" s="27" t="s">
-        <v>50</v>
+      <c r="A184" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B184" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C184" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D184" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E184" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F184" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="G184" s="24" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="185" spans="1:7">
-      <c r="G185" s="28" t="e">
+      <c r="G185" s="25" t="e">
         <f>A185/D185-1</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="186" spans="1:7">
-      <c r="G186" s="28"/>
+      <c r="G186" s="25"/>
     </row>
     <row r="187" spans="1:7">
-      <c r="G187" s="28"/>
+      <c r="G187" s="25"/>
     </row>
     <row r="188" spans="1:7">
-      <c r="G188" s="28"/>
+      <c r="G188" s="25"/>
     </row>
     <row r="189" spans="1:7">
-      <c r="G189" s="28"/>
+      <c r="G189" s="25"/>
     </row>
     <row r="190" spans="1:7">
-      <c r="G190" s="28"/>
+      <c r="G190" s="25"/>
     </row>
     <row r="191" spans="1:7">
-      <c r="G191" s="28"/>
+      <c r="G191" s="25"/>
     </row>
     <row r="192" spans="1:7">
-      <c r="G192" s="28"/>
+      <c r="G192" s="25"/>
     </row>
     <row r="193" spans="7:13">
-      <c r="G193" s="28"/>
+      <c r="G193" s="25"/>
     </row>
     <row r="194" spans="7:13">
-      <c r="G194" s="28"/>
+      <c r="G194" s="25"/>
     </row>
     <row r="195" spans="7:13">
-      <c r="G195" s="28"/>
+      <c r="G195" s="25"/>
     </row>
     <row r="196" spans="7:13">
-      <c r="G196" s="28"/>
+      <c r="G196" s="25"/>
     </row>
     <row r="197" spans="7:13">
-      <c r="G197" s="28"/>
+      <c r="G197" s="25"/>
     </row>
     <row r="198" spans="7:13">
-      <c r="G198" s="28"/>
+      <c r="G198" s="25"/>
     </row>
     <row r="199" spans="7:13">
-      <c r="G199" s="28"/>
+      <c r="G199" s="25"/>
     </row>
     <row r="200" spans="7:13">
-      <c r="G200" s="28"/>
+      <c r="G200" s="25"/>
     </row>
     <row r="201" spans="7:13">
-      <c r="G201" s="28"/>
+      <c r="G201" s="25"/>
     </row>
     <row r="202" spans="7:13">
-      <c r="G202" s="28"/>
+      <c r="G202" s="25"/>
     </row>
     <row r="203" spans="7:13">
-      <c r="G203" s="28"/>
+      <c r="G203" s="25"/>
     </row>
     <row r="204" spans="7:13">
-      <c r="G204" s="28"/>
-      <c r="I204" s="29"/>
-      <c r="J204" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="K204" s="30" t="e">
+      <c r="G204" s="25"/>
+      <c r="I204" s="26"/>
+      <c r="J204" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K204" s="27" t="e">
         <f>MIN(G179:G1204)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="205" spans="7:13">
-      <c r="G205" s="28"/>
-      <c r="I205" s="29"/>
-      <c r="J205" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="K205" s="30" t="e">
+      <c r="G205" s="25"/>
+      <c r="I205" s="26"/>
+      <c r="J205" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K205" s="27" t="e">
         <f>MAX(G179:G1204)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="206" spans="7:13">
-      <c r="G206" s="28"/>
-      <c r="I206" s="29"/>
-      <c r="J206" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="K206" s="30" t="e">
+      <c r="G206" s="25"/>
+      <c r="I206" s="26"/>
+      <c r="J206" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K206" s="27" t="e">
         <f>AVERAGE(G179:G1204)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="207" spans="7:13">
-      <c r="G207" s="28"/>
-      <c r="I207" s="29"/>
-      <c r="J207" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="K207" s="30" t="e">
+      <c r="G207" s="25"/>
+      <c r="I207" s="26"/>
+      <c r="J207" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="K207" s="27" t="e">
         <f>MEDIAN(G179:G1204)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="208" spans="7:13" ht="15">
-      <c r="G208" s="28"/>
-      <c r="I208" s="29"/>
-      <c r="J208" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="K208" s="30" t="e">
+      <c r="G208" s="25"/>
+      <c r="I208" s="26"/>
+      <c r="J208" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="K208" s="27" t="e">
         <f>_xlfn.STDEV.P(G179:G1204)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="M208" s="2"/>
     </row>
     <row r="209" spans="7:20" ht="15">
-      <c r="G209" s="28"/>
-      <c r="I209" s="29"/>
-      <c r="J209" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="K209" s="30" t="e">
+      <c r="G209" s="25"/>
+      <c r="I209" s="26"/>
+      <c r="J209" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K209" s="27" t="e">
         <f>3*K208</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L209" s="29"/>
+      <c r="L209" s="26"/>
       <c r="M209" s="2" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
     </row>
     <row r="210" spans="7:20" ht="15">
-      <c r="G210" s="28"/>
-      <c r="I210" s="29"/>
-      <c r="J210" s="31" t="s">
+      <c r="G210" s="25"/>
+      <c r="I210" s="26"/>
+      <c r="J210" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="K210" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="L210" s="26"/>
+      <c r="M210" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="211" spans="7:20">
+      <c r="G211" s="25"/>
+    </row>
+    <row r="212" spans="7:20">
+      <c r="G212" s="25"/>
+    </row>
+    <row r="213" spans="7:20">
+      <c r="G213" s="25"/>
+      <c r="L213" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="M213" s="30">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="214" spans="7:20" ht="15" thickBot="1">
+      <c r="G214" s="25"/>
+      <c r="L214" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="O214" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S214" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="215" spans="7:20" ht="15" customHeight="1">
+      <c r="G215" s="25"/>
+      <c r="L215" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="M215" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="O215" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="P215" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="S215" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="T215" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="K210" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="L210" s="29"/>
-      <c r="M210" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="211" spans="7:20">
-      <c r="G211" s="28"/>
-    </row>
-    <row r="212" spans="7:20">
-      <c r="G212" s="28"/>
-    </row>
-    <row r="213" spans="7:20">
-      <c r="G213" s="28"/>
-      <c r="L213" s="32" t="s">
-        <v>62</v>
-      </c>
-      <c r="M213" s="33">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="214" spans="7:20" ht="15" thickBot="1">
-      <c r="G214" s="28"/>
-      <c r="L214" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O214" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S214" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="215" spans="7:20" ht="15" customHeight="1">
-      <c r="G215" s="28"/>
-      <c r="L215" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="M215" s="34" t="s">
-        <v>67</v>
-      </c>
-      <c r="O215" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="P215" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="S215" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="T215" s="36" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row r="216" spans="7:20">
-      <c r="G216" s="28"/>
+      <c r="G216" s="25"/>
       <c r="R216" s="1" t="s">
-        <v>222</v>
+        <v>210</v>
+      </c>
+      <c r="S216" s="25" t="e">
+        <f>K206</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="217" spans="7:20">
-      <c r="G217" s="28"/>
+      <c r="G217" s="25"/>
+      <c r="S217" s="25" t="e">
+        <f>K206</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="218" spans="7:20">
-      <c r="G218" s="28"/>
-      <c r="R218" s="43" t="s">
-        <v>223</v>
+      <c r="G218" s="25"/>
+      <c r="R218" s="40" t="s">
+        <v>211</v>
+      </c>
+      <c r="S218" s="1" t="e">
+        <f>($K$208*-3)+$K$206</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="219" spans="7:20">
-      <c r="G219" s="28"/>
-      <c r="R219" s="44"/>
+      <c r="G219" s="25"/>
+      <c r="R219" s="41"/>
+      <c r="S219" s="1" t="e">
+        <f t="shared" ref="S219" si="0">($K$208*-3)+$K$206</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="220" spans="7:20">
-      <c r="G220" s="28"/>
-      <c r="R220" s="43" t="s">
-        <v>224</v>
+      <c r="G220" s="25"/>
+      <c r="R220" s="40" t="s">
+        <v>212</v>
+      </c>
+      <c r="S220" s="1" t="e">
+        <f>($K$208*-2)+$K$206</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="221" spans="7:20">
-      <c r="G221" s="28"/>
-      <c r="R221" s="44"/>
+      <c r="G221" s="25"/>
+      <c r="R221" s="41"/>
+      <c r="S221" s="1" t="e">
+        <f>($K$208*-2)+$K$206</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="222" spans="7:20">
-      <c r="G222" s="28"/>
-      <c r="R222" s="45" t="s">
-        <v>225</v>
+      <c r="G222" s="25"/>
+      <c r="R222" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="S222" s="1" t="e">
+        <f>($K$208*-1)+$K$206</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="223" spans="7:20">
-      <c r="G223" s="28"/>
+      <c r="G223" s="25"/>
+      <c r="S223" s="1" t="e">
+        <f>($K$208*-1)+$K$206</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="224" spans="7:20">
-      <c r="G224" s="28"/>
+      <c r="G224" s="25"/>
       <c r="R224" s="1" t="s">
-        <v>226</v>
+        <v>214</v>
+      </c>
+      <c r="S224" s="1" t="e">
+        <f>($K$208*1)+$K$206</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="225" spans="7:30">
-      <c r="G225" s="28"/>
+      <c r="G225" s="25"/>
+      <c r="S225" s="1" t="e">
+        <f>($K$208*1)+$K$206</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="226" spans="7:30">
-      <c r="G226" s="28"/>
-      <c r="R226" s="46" t="s">
-        <v>227</v>
+      <c r="G226" s="25"/>
+      <c r="R226" s="43" t="s">
+        <v>215</v>
+      </c>
+      <c r="S226" s="1" t="e">
+        <f>($K$208*2)+$K$206</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="227" spans="7:30">
-      <c r="G227" s="28"/>
+      <c r="G227" s="25"/>
+      <c r="S227" s="1" t="e">
+        <f>($K$208*2)+$K$206</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="228" spans="7:30">
-      <c r="G228" s="28"/>
-      <c r="R228" s="46" t="s">
-        <v>228</v>
+      <c r="G228" s="25"/>
+      <c r="R228" s="43" t="s">
+        <v>216</v>
+      </c>
+      <c r="S228" s="1" t="e">
+        <f>($K$208*3)+$K$206</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="229" spans="7:30">
-      <c r="G229" s="28"/>
-      <c r="R229" s="46"/>
+      <c r="G229" s="25"/>
+      <c r="R229" s="43"/>
+      <c r="S229" s="1" t="e">
+        <f>($K$208*3)+$K$206</f>
+        <v>#DIV/0!</v>
+      </c>
     </row>
     <row r="230" spans="7:30">
-      <c r="G230" s="28"/>
+      <c r="G230" s="25"/>
     </row>
     <row r="231" spans="7:30">
-      <c r="G231" s="28"/>
+      <c r="G231" s="25"/>
     </row>
     <row r="232" spans="7:30" ht="15">
-      <c r="G232" s="28"/>
+      <c r="G232" s="25"/>
       <c r="AD232" s="2" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="233" spans="7:30">
-      <c r="G233" s="28"/>
+      <c r="G233" s="25"/>
       <c r="AD233" s="1" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="234" spans="7:30">
-      <c r="G234" s="28"/>
+      <c r="G234" s="25"/>
     </row>
     <row r="235" spans="7:30">
-      <c r="G235" s="28"/>
+      <c r="G235" s="25"/>
     </row>
     <row r="236" spans="7:30">
-      <c r="G236" s="28"/>
+      <c r="G236" s="25"/>
     </row>
     <row r="237" spans="7:30">
-      <c r="G237" s="28"/>
+      <c r="G237" s="25"/>
     </row>
     <row r="238" spans="7:30">
-      <c r="G238" s="28"/>
+      <c r="G238" s="25"/>
     </row>
     <row r="239" spans="7:30">
-      <c r="G239" s="28"/>
+      <c r="G239" s="25"/>
     </row>
     <row r="240" spans="7:30">
-      <c r="G240" s="28"/>
+      <c r="G240" s="25"/>
     </row>
     <row r="241" spans="7:7">
-      <c r="G241" s="28"/>
+      <c r="G241" s="25"/>
     </row>
     <row r="242" spans="7:7">
-      <c r="G242" s="28"/>
+      <c r="G242" s="25"/>
     </row>
     <row r="243" spans="7:7">
-      <c r="G243" s="28"/>
+      <c r="G243" s="25"/>
     </row>
     <row r="244" spans="7:7">
-      <c r="G244" s="28"/>
+      <c r="G244" s="25"/>
     </row>
     <row r="245" spans="7:7">
-      <c r="G245" s="28"/>
+      <c r="G245" s="25"/>
     </row>
     <row r="246" spans="7:7">
-      <c r="G246" s="28"/>
+      <c r="G246" s="25"/>
     </row>
     <row r="247" spans="7:7">
-      <c r="G247" s="28"/>
+      <c r="G247" s="25"/>
     </row>
     <row r="248" spans="7:7">
-      <c r="G248" s="28"/>
+      <c r="G248" s="25"/>
     </row>
     <row r="249" spans="7:7">
-      <c r="G249" s="28"/>
+      <c r="G249" s="25"/>
     </row>
     <row r="250" spans="7:7">
-      <c r="G250" s="28"/>
+      <c r="G250" s="25"/>
     </row>
     <row r="251" spans="7:7">
-      <c r="G251" s="28"/>
+      <c r="G251" s="25"/>
     </row>
     <row r="252" spans="7:7">
-      <c r="G252" s="28"/>
+      <c r="G252" s="25"/>
     </row>
     <row r="253" spans="7:7">
-      <c r="G253" s="28"/>
+      <c r="G253" s="25"/>
     </row>
     <row r="254" spans="7:7">
-      <c r="G254" s="28"/>
+      <c r="G254" s="25"/>
     </row>
     <row r="255" spans="7:7">
-      <c r="G255" s="28"/>
+      <c r="G255" s="25"/>
     </row>
     <row r="256" spans="7:7">
-      <c r="G256" s="28"/>
+      <c r="G256" s="25"/>
     </row>
     <row r="257" spans="7:7">
-      <c r="G257" s="28"/>
+      <c r="G257" s="25"/>
     </row>
     <row r="258" spans="7:7">
-      <c r="G258" s="28"/>
+      <c r="G258" s="25"/>
     </row>
     <row r="259" spans="7:7">
-      <c r="G259" s="28"/>
+      <c r="G259" s="25"/>
     </row>
     <row r="260" spans="7:7">
-      <c r="G260" s="28"/>
+      <c r="G260" s="25"/>
     </row>
     <row r="261" spans="7:7">
-      <c r="G261" s="28"/>
+      <c r="G261" s="25"/>
     </row>
     <row r="262" spans="7:7">
-      <c r="G262" s="28"/>
+      <c r="G262" s="25"/>
     </row>
     <row r="263" spans="7:7">
-      <c r="G263" s="28"/>
+      <c r="G263" s="25"/>
     </row>
     <row r="264" spans="7:7">
-      <c r="G264" s="28"/>
+      <c r="G264" s="25"/>
     </row>
     <row r="265" spans="7:7">
-      <c r="G265" s="28"/>
+      <c r="G265" s="25"/>
     </row>
     <row r="266" spans="7:7">
-      <c r="G266" s="28"/>
+      <c r="G266" s="25"/>
     </row>
     <row r="267" spans="7:7">
-      <c r="G267" s="28"/>
+      <c r="G267" s="25"/>
     </row>
     <row r="268" spans="7:7">
-      <c r="G268" s="28"/>
+      <c r="G268" s="25"/>
     </row>
     <row r="269" spans="7:7">
-      <c r="G269" s="28"/>
+      <c r="G269" s="25"/>
     </row>
     <row r="270" spans="7:7">
-      <c r="G270" s="28"/>
+      <c r="G270" s="25"/>
     </row>
     <row r="271" spans="7:7">
-      <c r="G271" s="28"/>
+      <c r="G271" s="25"/>
     </row>
     <row r="272" spans="7:7">
-      <c r="G272" s="28"/>
+      <c r="G272" s="25"/>
     </row>
     <row r="273" spans="7:7">
-      <c r="G273" s="28"/>
+      <c r="G273" s="25"/>
     </row>
     <row r="274" spans="7:7">
-      <c r="G274" s="28"/>
+      <c r="G274" s="25"/>
     </row>
     <row r="275" spans="7:7">
-      <c r="G275" s="28"/>
+      <c r="G275" s="25"/>
     </row>
     <row r="276" spans="7:7">
-      <c r="G276" s="28"/>
+      <c r="G276" s="25"/>
     </row>
     <row r="277" spans="7:7">
-      <c r="G277" s="28"/>
+      <c r="G277" s="25"/>
     </row>
     <row r="278" spans="7:7">
-      <c r="G278" s="28"/>
+      <c r="G278" s="25"/>
     </row>
     <row r="279" spans="7:7">
-      <c r="G279" s="28"/>
+      <c r="G279" s="25"/>
     </row>
     <row r="280" spans="7:7">
-      <c r="G280" s="28"/>
+      <c r="G280" s="25"/>
     </row>
     <row r="281" spans="7:7">
-      <c r="G281" s="28"/>
+      <c r="G281" s="25"/>
     </row>
     <row r="282" spans="7:7">
-      <c r="G282" s="28"/>
+      <c r="G282" s="25"/>
     </row>
     <row r="283" spans="7:7">
-      <c r="G283" s="28"/>
+      <c r="G283" s="25"/>
     </row>
     <row r="284" spans="7:7">
-      <c r="G284" s="28"/>
+      <c r="G284" s="25"/>
     </row>
     <row r="285" spans="7:7">
-      <c r="G285" s="28"/>
+      <c r="G285" s="25"/>
     </row>
     <row r="286" spans="7:7">
-      <c r="G286" s="28"/>
+      <c r="G286" s="25"/>
     </row>
     <row r="287" spans="7:7">
-      <c r="G287" s="28"/>
+      <c r="G287" s="25"/>
     </row>
     <row r="288" spans="7:7">
-      <c r="G288" s="28"/>
+      <c r="G288" s="25"/>
     </row>
     <row r="289" spans="7:7">
-      <c r="G289" s="28"/>
+      <c r="G289" s="25"/>
     </row>
     <row r="290" spans="7:7">
-      <c r="G290" s="28"/>
+      <c r="G290" s="25"/>
     </row>
     <row r="291" spans="7:7">
-      <c r="G291" s="28"/>
+      <c r="G291" s="25"/>
     </row>
     <row r="292" spans="7:7">
-      <c r="G292" s="28"/>
+      <c r="G292" s="25"/>
     </row>
     <row r="293" spans="7:7">
-      <c r="G293" s="28"/>
+      <c r="G293" s="25"/>
     </row>
     <row r="294" spans="7:7">
-      <c r="G294" s="28"/>
+      <c r="G294" s="25"/>
     </row>
     <row r="295" spans="7:7">
-      <c r="G295" s="28"/>
+      <c r="G295" s="25"/>
     </row>
     <row r="296" spans="7:7">
-      <c r="G296" s="28"/>
+      <c r="G296" s="25"/>
     </row>
     <row r="297" spans="7:7">
-      <c r="G297" s="28"/>
+      <c r="G297" s="25"/>
     </row>
     <row r="298" spans="7:7">
-      <c r="G298" s="28"/>
+      <c r="G298" s="25"/>
     </row>
     <row r="299" spans="7:7">
-      <c r="G299" s="28"/>
+      <c r="G299" s="25"/>
     </row>
     <row r="300" spans="7:7">
-      <c r="G300" s="28"/>
+      <c r="G300" s="25"/>
     </row>
     <row r="301" spans="7:7">
-      <c r="G301" s="28"/>
+      <c r="G301" s="25"/>
     </row>
     <row r="302" spans="7:7">
-      <c r="G302" s="28"/>
+      <c r="G302" s="25"/>
     </row>
     <row r="303" spans="7:7">
-      <c r="G303" s="28"/>
+      <c r="G303" s="25"/>
     </row>
     <row r="304" spans="7:7">
-      <c r="G304" s="28"/>
+      <c r="G304" s="25"/>
     </row>
     <row r="305" spans="7:30">
-      <c r="G305" s="28"/>
+      <c r="G305" s="25"/>
     </row>
     <row r="306" spans="7:30">
-      <c r="G306" s="28"/>
+      <c r="G306" s="25"/>
     </row>
     <row r="307" spans="7:30">
-      <c r="G307" s="28"/>
+      <c r="G307" s="25"/>
     </row>
     <row r="308" spans="7:30">
-      <c r="G308" s="28"/>
+      <c r="G308" s="25"/>
     </row>
     <row r="309" spans="7:30">
-      <c r="G309" s="28"/>
+      <c r="G309" s="25"/>
     </row>
     <row r="310" spans="7:30">
-      <c r="G310" s="28"/>
+      <c r="G310" s="25"/>
     </row>
     <row r="311" spans="7:30">
-      <c r="G311" s="28"/>
+      <c r="G311" s="25"/>
     </row>
     <row r="312" spans="7:30">
-      <c r="G312" s="28"/>
+      <c r="G312" s="25"/>
     </row>
     <row r="313" spans="7:30">
-      <c r="G313" s="28"/>
+      <c r="G313" s="25"/>
     </row>
     <row r="314" spans="7:30">
-      <c r="G314" s="28"/>
+      <c r="G314" s="25"/>
     </row>
     <row r="315" spans="7:30">
-      <c r="G315" s="28"/>
+      <c r="G315" s="25"/>
     </row>
     <row r="316" spans="7:30">
-      <c r="G316" s="28"/>
+      <c r="G316" s="25"/>
     </row>
     <row r="317" spans="7:30">
-      <c r="G317" s="28"/>
+      <c r="G317" s="25"/>
     </row>
     <row r="318" spans="7:30" ht="15">
-      <c r="G318" s="28"/>
+      <c r="G318" s="25"/>
       <c r="AD318" s="2" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="319" spans="7:30">
-      <c r="G319" s="28"/>
+      <c r="G319" s="25"/>
       <c r="AD319" s="1" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="320" spans="7:30">
-      <c r="G320" s="28"/>
+      <c r="G320" s="25"/>
     </row>
     <row r="321" spans="7:7">
-      <c r="G321" s="28"/>
+      <c r="G321" s="25"/>
     </row>
     <row r="322" spans="7:7">
-      <c r="G322" s="28"/>
+      <c r="G322" s="25"/>
     </row>
     <row r="323" spans="7:7">
-      <c r="G323" s="28"/>
+      <c r="G323" s="25"/>
     </row>
     <row r="324" spans="7:7">
-      <c r="G324" s="28"/>
+      <c r="G324" s="25"/>
     </row>
     <row r="325" spans="7:7">
-      <c r="G325" s="28"/>
+      <c r="G325" s="25"/>
     </row>
     <row r="326" spans="7:7">
-      <c r="G326" s="28"/>
+      <c r="G326" s="25"/>
     </row>
     <row r="327" spans="7:7">
-      <c r="G327" s="28"/>
+      <c r="G327" s="25"/>
     </row>
     <row r="328" spans="7:7">
-      <c r="G328" s="28"/>
+      <c r="G328" s="25"/>
     </row>
     <row r="329" spans="7:7">
-      <c r="G329" s="28"/>
+      <c r="G329" s="25"/>
     </row>
     <row r="330" spans="7:7">
-      <c r="G330" s="28"/>
+      <c r="G330" s="25"/>
     </row>
     <row r="331" spans="7:7">
-      <c r="G331" s="28"/>
+      <c r="G331" s="25"/>
     </row>
     <row r="332" spans="7:7">
-      <c r="G332" s="28"/>
+      <c r="G332" s="25"/>
     </row>
     <row r="333" spans="7:7">
-      <c r="G333" s="28"/>
+      <c r="G333" s="25"/>
     </row>
     <row r="334" spans="7:7">
-      <c r="G334" s="28"/>
+      <c r="G334" s="25"/>
     </row>
     <row r="335" spans="7:7">
-      <c r="G335" s="28"/>
+      <c r="G335" s="25"/>
     </row>
     <row r="336" spans="7:7">
-      <c r="G336" s="28"/>
+      <c r="G336" s="25"/>
     </row>
     <row r="337" spans="7:7">
-      <c r="G337" s="28"/>
+      <c r="G337" s="25"/>
     </row>
     <row r="338" spans="7:7">
-      <c r="G338" s="28"/>
+      <c r="G338" s="25"/>
     </row>
     <row r="339" spans="7:7">
-      <c r="G339" s="28"/>
+      <c r="G339" s="25"/>
     </row>
     <row r="340" spans="7:7">
-      <c r="G340" s="28"/>
+      <c r="G340" s="25"/>
     </row>
     <row r="341" spans="7:7">
-      <c r="G341" s="28"/>
+      <c r="G341" s="25"/>
     </row>
     <row r="342" spans="7:7">
-      <c r="G342" s="28"/>
+      <c r="G342" s="25"/>
     </row>
     <row r="343" spans="7:7">
-      <c r="G343" s="28"/>
+      <c r="G343" s="25"/>
     </row>
     <row r="344" spans="7:7">
-      <c r="G344" s="28"/>
+      <c r="G344" s="25"/>
     </row>
     <row r="345" spans="7:7">
-      <c r="G345" s="28"/>
+      <c r="G345" s="25"/>
     </row>
     <row r="346" spans="7:7">
-      <c r="G346" s="28"/>
+      <c r="G346" s="25"/>
     </row>
     <row r="347" spans="7:7">
-      <c r="G347" s="28"/>
+      <c r="G347" s="25"/>
     </row>
     <row r="348" spans="7:7">
-      <c r="G348" s="28"/>
+      <c r="G348" s="25"/>
     </row>
     <row r="349" spans="7:7">
-      <c r="G349" s="28"/>
+      <c r="G349" s="25"/>
     </row>
     <row r="350" spans="7:7">
-      <c r="G350" s="28"/>
+      <c r="G350" s="25"/>
     </row>
     <row r="351" spans="7:7">
-      <c r="G351" s="28"/>
+      <c r="G351" s="25"/>
     </row>
     <row r="352" spans="7:7">
-      <c r="G352" s="28"/>
+      <c r="G352" s="25"/>
     </row>
     <row r="353" spans="7:7">
-      <c r="G353" s="28"/>
+      <c r="G353" s="25"/>
     </row>
     <row r="354" spans="7:7">
-      <c r="G354" s="28"/>
+      <c r="G354" s="25"/>
     </row>
     <row r="355" spans="7:7">
-      <c r="G355" s="28"/>
+      <c r="G355" s="25"/>
     </row>
     <row r="356" spans="7:7">
-      <c r="G356" s="28"/>
+      <c r="G356" s="25"/>
     </row>
     <row r="357" spans="7:7">
-      <c r="G357" s="28"/>
+      <c r="G357" s="25"/>
     </row>
     <row r="358" spans="7:7">
-      <c r="G358" s="28"/>
+      <c r="G358" s="25"/>
     </row>
     <row r="359" spans="7:7">
-      <c r="G359" s="28"/>
+      <c r="G359" s="25"/>
     </row>
     <row r="360" spans="7:7">
-      <c r="G360" s="28"/>
+      <c r="G360" s="25"/>
     </row>
     <row r="361" spans="7:7">
-      <c r="G361" s="28"/>
+      <c r="G361" s="25"/>
     </row>
     <row r="362" spans="7:7">
-      <c r="G362" s="28"/>
+      <c r="G362" s="25"/>
     </row>
     <row r="363" spans="7:7">
-      <c r="G363" s="28"/>
+      <c r="G363" s="25"/>
     </row>
     <row r="364" spans="7:7">
-      <c r="G364" s="28"/>
+      <c r="G364" s="25"/>
     </row>
     <row r="365" spans="7:7">
-      <c r="G365" s="28"/>
+      <c r="G365" s="25"/>
     </row>
     <row r="366" spans="7:7">
-      <c r="G366" s="28"/>
+      <c r="G366" s="25"/>
     </row>
     <row r="367" spans="7:7">
-      <c r="G367" s="28"/>
+      <c r="G367" s="25"/>
     </row>
     <row r="368" spans="7:7">
-      <c r="G368" s="28"/>
+      <c r="G368" s="25"/>
     </row>
     <row r="369" spans="7:7">
-      <c r="G369" s="28"/>
+      <c r="G369" s="25"/>
     </row>
     <row r="370" spans="7:7">
-      <c r="G370" s="28"/>
+      <c r="G370" s="25"/>
     </row>
     <row r="371" spans="7:7">
-      <c r="G371" s="28"/>
+      <c r="G371" s="25"/>
     </row>
     <row r="372" spans="7:7">
-      <c r="G372" s="28"/>
+      <c r="G372" s="25"/>
     </row>
     <row r="373" spans="7:7">
-      <c r="G373" s="28"/>
+      <c r="G373" s="25"/>
     </row>
     <row r="374" spans="7:7">
-      <c r="G374" s="28"/>
+      <c r="G374" s="25"/>
     </row>
     <row r="375" spans="7:7">
-      <c r="G375" s="28"/>
+      <c r="G375" s="25"/>
     </row>
     <row r="376" spans="7:7">
-      <c r="G376" s="28"/>
+      <c r="G376" s="25"/>
     </row>
     <row r="377" spans="7:7">
-      <c r="G377" s="28"/>
+      <c r="G377" s="25"/>
     </row>
     <row r="378" spans="7:7">
-      <c r="G378" s="28"/>
+      <c r="G378" s="25"/>
     </row>
     <row r="379" spans="7:7">
-      <c r="G379" s="28"/>
+      <c r="G379" s="25"/>
     </row>
     <row r="380" spans="7:7">
-      <c r="G380" s="28"/>
+      <c r="G380" s="25"/>
     </row>
     <row r="381" spans="7:7">
-      <c r="G381" s="28"/>
+      <c r="G381" s="25"/>
     </row>
     <row r="382" spans="7:7">
-      <c r="G382" s="28"/>
+      <c r="G382" s="25"/>
     </row>
     <row r="383" spans="7:7">
-      <c r="G383" s="28"/>
+      <c r="G383" s="25"/>
     </row>
     <row r="384" spans="7:7">
-      <c r="G384" s="28"/>
+      <c r="G384" s="25"/>
     </row>
     <row r="385" spans="7:7">
-      <c r="G385" s="28"/>
+      <c r="G385" s="25"/>
     </row>
     <row r="386" spans="7:7">
-      <c r="G386" s="28"/>
+      <c r="G386" s="25"/>
     </row>
     <row r="387" spans="7:7">
-      <c r="G387" s="28"/>
+      <c r="G387" s="25"/>
     </row>
     <row r="388" spans="7:7">
-      <c r="G388" s="28"/>
+      <c r="G388" s="25"/>
     </row>
     <row r="389" spans="7:7">
-      <c r="G389" s="28"/>
+      <c r="G389" s="25"/>
     </row>
     <row r="390" spans="7:7">
-      <c r="G390" s="28"/>
+      <c r="G390" s="25"/>
     </row>
     <row r="391" spans="7:7">
-      <c r="G391" s="28"/>
+      <c r="G391" s="25"/>
     </row>
     <row r="392" spans="7:7">
-      <c r="G392" s="28"/>
+      <c r="G392" s="25"/>
     </row>
     <row r="393" spans="7:7">
-      <c r="G393" s="28"/>
+      <c r="G393" s="25"/>
     </row>
     <row r="394" spans="7:7">
-      <c r="G394" s="28"/>
+      <c r="G394" s="25"/>
     </row>
     <row r="395" spans="7:7">
-      <c r="G395" s="28"/>
+      <c r="G395" s="25"/>
     </row>
     <row r="396" spans="7:7">
-      <c r="G396" s="28"/>
+      <c r="G396" s="25"/>
     </row>
     <row r="397" spans="7:7">
-      <c r="G397" s="28"/>
+      <c r="G397" s="25"/>
     </row>
     <row r="398" spans="7:7">
-      <c r="G398" s="28"/>
+      <c r="G398" s="25"/>
     </row>
     <row r="399" spans="7:7">
-      <c r="G399" s="28"/>
+      <c r="G399" s="25"/>
     </row>
     <row r="400" spans="7:7">
-      <c r="G400" s="28"/>
+      <c r="G400" s="25"/>
     </row>
     <row r="401" spans="7:7">
-      <c r="G401" s="28"/>
+      <c r="G401" s="25"/>
     </row>
     <row r="402" spans="7:7">
-      <c r="G402" s="28"/>
+      <c r="G402" s="25"/>
     </row>
     <row r="403" spans="7:7">
-      <c r="G403" s="28"/>
+      <c r="G403" s="25"/>
     </row>
     <row r="404" spans="7:7">
-      <c r="G404" s="28"/>
+      <c r="G404" s="25"/>
     </row>
     <row r="405" spans="7:7">
-      <c r="G405" s="28"/>
+      <c r="G405" s="25"/>
     </row>
     <row r="406" spans="7:7">
-      <c r="G406" s="28"/>
+      <c r="G406" s="25"/>
     </row>
     <row r="407" spans="7:7">
-      <c r="G407" s="28"/>
+      <c r="G407" s="25"/>
     </row>
     <row r="408" spans="7:7">
-      <c r="G408" s="28"/>
+      <c r="G408" s="25"/>
     </row>
     <row r="409" spans="7:7">
-      <c r="G409" s="28"/>
+      <c r="G409" s="25"/>
     </row>
     <row r="410" spans="7:7">
-      <c r="G410" s="28"/>
+      <c r="G410" s="25"/>
     </row>
     <row r="411" spans="7:7">
-      <c r="G411" s="28"/>
+      <c r="G411" s="25"/>
     </row>
     <row r="412" spans="7:7">
-      <c r="G412" s="28"/>
+      <c r="G412" s="25"/>
     </row>
     <row r="413" spans="7:7">
-      <c r="G413" s="28"/>
+      <c r="G413" s="25"/>
     </row>
     <row r="414" spans="7:7">
-      <c r="G414" s="28"/>
+      <c r="G414" s="25"/>
     </row>
     <row r="415" spans="7:7">
-      <c r="G415" s="28"/>
+      <c r="G415" s="25"/>
     </row>
     <row r="416" spans="7:7">
-      <c r="G416" s="28"/>
+      <c r="G416" s="25"/>
     </row>
     <row r="417" spans="7:7">
-      <c r="G417" s="28"/>
+      <c r="G417" s="25"/>
     </row>
     <row r="418" spans="7:7">
-      <c r="G418" s="28"/>
+      <c r="G418" s="25"/>
     </row>
     <row r="419" spans="7:7">
-      <c r="G419" s="28"/>
+      <c r="G419" s="25"/>
     </row>
     <row r="420" spans="7:7">
-      <c r="G420" s="28"/>
+      <c r="G420" s="25"/>
     </row>
     <row r="421" spans="7:7">
-      <c r="G421" s="28"/>
+      <c r="G421" s="25"/>
     </row>
     <row r="422" spans="7:7">
-      <c r="G422" s="28"/>
+      <c r="G422" s="25"/>
     </row>
     <row r="423" spans="7:7">
-      <c r="G423" s="28"/>
+      <c r="G423" s="25"/>
     </row>
     <row r="424" spans="7:7">
-      <c r="G424" s="28"/>
+      <c r="G424" s="25"/>
     </row>
     <row r="425" spans="7:7">
-      <c r="G425" s="28"/>
+      <c r="G425" s="25"/>
     </row>
     <row r="426" spans="7:7">
-      <c r="G426" s="28"/>
+      <c r="G426" s="25"/>
     </row>
     <row r="427" spans="7:7">
-      <c r="G427" s="28"/>
+      <c r="G427" s="25"/>
     </row>
     <row r="428" spans="7:7">
-      <c r="G428" s="28"/>
+      <c r="G428" s="25"/>
     </row>
     <row r="429" spans="7:7">
-      <c r="G429" s="28"/>
+      <c r="G429" s="25"/>
     </row>
     <row r="430" spans="7:7">
-      <c r="G430" s="28"/>
+      <c r="G430" s="25"/>
     </row>
     <row r="431" spans="7:7">
-      <c r="G431" s="28"/>
+      <c r="G431" s="25"/>
     </row>
     <row r="432" spans="7:7">
-      <c r="G432" s="28"/>
+      <c r="G432" s="25"/>
     </row>
     <row r="433" spans="7:7">
-      <c r="G433" s="28"/>
+      <c r="G433" s="25"/>
     </row>
     <row r="434" spans="7:7">
-      <c r="G434" s="28"/>
+      <c r="G434" s="25"/>
     </row>
     <row r="435" spans="7:7">
-      <c r="G435" s="28"/>
+      <c r="G435" s="25"/>
     </row>
     <row r="436" spans="7:7">
-      <c r="G436" s="28"/>
+      <c r="G436" s="25"/>
     </row>
     <row r="437" spans="7:7">
-      <c r="G437" s="28"/>
+      <c r="G437" s="25"/>
     </row>
     <row r="438" spans="7:7">
-      <c r="G438" s="28"/>
+      <c r="G438" s="25"/>
     </row>
     <row r="439" spans="7:7">
-      <c r="G439" s="28"/>
+      <c r="G439" s="25"/>
     </row>
     <row r="440" spans="7:7">
-      <c r="G440" s="28"/>
+      <c r="G440" s="25"/>
     </row>
     <row r="441" spans="7:7">
-      <c r="G441" s="28"/>
+      <c r="G441" s="25"/>
     </row>
     <row r="442" spans="7:7">
-      <c r="G442" s="28"/>
+      <c r="G442" s="25"/>
     </row>
     <row r="443" spans="7:7">
-      <c r="G443" s="28"/>
+      <c r="G443" s="25"/>
     </row>
     <row r="444" spans="7:7">
-      <c r="G444" s="28"/>
+      <c r="G444" s="25"/>
     </row>
     <row r="445" spans="7:7">
-      <c r="G445" s="28"/>
+      <c r="G445" s="25"/>
     </row>
     <row r="446" spans="7:7">
-      <c r="G446" s="28"/>
+      <c r="G446" s="25"/>
     </row>
     <row r="447" spans="7:7">
-      <c r="G447" s="28"/>
+      <c r="G447" s="25"/>
     </row>
     <row r="448" spans="7:7">
-      <c r="G448" s="28"/>
+      <c r="G448" s="25"/>
     </row>
     <row r="449" spans="7:7">
-      <c r="G449" s="28"/>
+      <c r="G449" s="25"/>
     </row>
     <row r="450" spans="7:7">
-      <c r="G450" s="28"/>
+      <c r="G450" s="25"/>
     </row>
     <row r="451" spans="7:7">
-      <c r="G451" s="28"/>
+      <c r="G451" s="25"/>
     </row>
     <row r="452" spans="7:7">
-      <c r="G452" s="28"/>
+      <c r="G452" s="25"/>
     </row>
     <row r="453" spans="7:7">
-      <c r="G453" s="28"/>
+      <c r="G453" s="25"/>
     </row>
     <row r="454" spans="7:7">
-      <c r="G454" s="28"/>
+      <c r="G454" s="25"/>
     </row>
     <row r="455" spans="7:7">
-      <c r="G455" s="28"/>
+      <c r="G455" s="25"/>
     </row>
     <row r="456" spans="7:7">
-      <c r="G456" s="28"/>
+      <c r="G456" s="25"/>
     </row>
     <row r="457" spans="7:7">
-      <c r="G457" s="28"/>
+      <c r="G457" s="25"/>
     </row>
     <row r="458" spans="7:7">
-      <c r="G458" s="28"/>
+      <c r="G458" s="25"/>
     </row>
     <row r="459" spans="7:7">
-      <c r="G459" s="28"/>
+      <c r="G459" s="25"/>
     </row>
     <row r="460" spans="7:7">
-      <c r="G460" s="28"/>
+      <c r="G460" s="25"/>
     </row>
     <row r="461" spans="7:7">
-      <c r="G461" s="28"/>
+      <c r="G461" s="25"/>
     </row>
     <row r="462" spans="7:7">
-      <c r="G462" s="28"/>
+      <c r="G462" s="25"/>
     </row>
     <row r="463" spans="7:7">
-      <c r="G463" s="28"/>
+      <c r="G463" s="25"/>
     </row>
     <row r="464" spans="7:7">
-      <c r="G464" s="28"/>
+      <c r="G464" s="25"/>
     </row>
     <row r="465" spans="7:7">
-      <c r="G465" s="28"/>
+      <c r="G465" s="25"/>
     </row>
     <row r="466" spans="7:7">
-      <c r="G466" s="28"/>
+      <c r="G466" s="25"/>
     </row>
     <row r="467" spans="7:7">
-      <c r="G467" s="28"/>
+      <c r="G467" s="25"/>
     </row>
     <row r="468" spans="7:7">
-      <c r="G468" s="28"/>
+      <c r="G468" s="25"/>
     </row>
     <row r="469" spans="7:7">
-      <c r="G469" s="28"/>
+      <c r="G469" s="25"/>
     </row>
     <row r="470" spans="7:7">
-      <c r="G470" s="28"/>
+      <c r="G470" s="25"/>
     </row>
     <row r="471" spans="7:7">
-      <c r="G471" s="28"/>
+      <c r="G471" s="25"/>
     </row>
     <row r="472" spans="7:7">
-      <c r="G472" s="28"/>
+      <c r="G472" s="25"/>
     </row>
     <row r="473" spans="7:7">
-      <c r="G473" s="28"/>
+      <c r="G473" s="25"/>
     </row>
     <row r="474" spans="7:7">
-      <c r="G474" s="28"/>
+      <c r="G474" s="25"/>
     </row>
     <row r="475" spans="7:7">
-      <c r="G475" s="28"/>
+      <c r="G475" s="25"/>
     </row>
     <row r="476" spans="7:7">
-      <c r="G476" s="28"/>
+      <c r="G476" s="25"/>
     </row>
     <row r="477" spans="7:7">
-      <c r="G477" s="28"/>
+      <c r="G477" s="25"/>
     </row>
     <row r="478" spans="7:7">
-      <c r="G478" s="28"/>
+      <c r="G478" s="25"/>
     </row>
     <row r="479" spans="7:7">
-      <c r="G479" s="28"/>
+      <c r="G479" s="25"/>
     </row>
     <row r="480" spans="7:7">
-      <c r="G480" s="28"/>
+      <c r="G480" s="25"/>
     </row>
     <row r="481" spans="7:7">
-      <c r="G481" s="28"/>
+      <c r="G481" s="25"/>
     </row>
     <row r="482" spans="7:7">
-      <c r="G482" s="28"/>
+      <c r="G482" s="25"/>
     </row>
     <row r="483" spans="7:7">
-      <c r="G483" s="28"/>
+      <c r="G483" s="25"/>
     </row>
     <row r="484" spans="7:7">
-      <c r="G484" s="28"/>
+      <c r="G484" s="25"/>
     </row>
     <row r="485" spans="7:7">
-      <c r="G485" s="28"/>
+      <c r="G485" s="25"/>
     </row>
     <row r="486" spans="7:7">
-      <c r="G486" s="28"/>
+      <c r="G486" s="25"/>
     </row>
     <row r="487" spans="7:7">
-      <c r="G487" s="28"/>
+      <c r="G487" s="25"/>
     </row>
     <row r="488" spans="7:7">
-      <c r="G488" s="28"/>
+      <c r="G488" s="25"/>
     </row>
     <row r="489" spans="7:7">
-      <c r="G489" s="28"/>
+      <c r="G489" s="25"/>
     </row>
     <row r="490" spans="7:7">
-      <c r="G490" s="28"/>
+      <c r="G490" s="25"/>
     </row>
     <row r="491" spans="7:7">
-      <c r="G491" s="28"/>
+      <c r="G491" s="25"/>
     </row>
     <row r="492" spans="7:7">
-      <c r="G492" s="28"/>
+      <c r="G492" s="25"/>
     </row>
     <row r="493" spans="7:7">
-      <c r="G493" s="28"/>
+      <c r="G493" s="25"/>
     </row>
     <row r="494" spans="7:7">
-      <c r="G494" s="28"/>
+      <c r="G494" s="25"/>
     </row>
     <row r="495" spans="7:7">
-      <c r="G495" s="28"/>
+      <c r="G495" s="25"/>
     </row>
     <row r="496" spans="7:7">
-      <c r="G496" s="28"/>
+      <c r="G496" s="25"/>
     </row>
     <row r="497" spans="7:7">
-      <c r="G497" s="28"/>
+      <c r="G497" s="25"/>
     </row>
     <row r="498" spans="7:7">
-      <c r="G498" s="28"/>
+      <c r="G498" s="25"/>
     </row>
     <row r="499" spans="7:7">
-      <c r="G499" s="28"/>
+      <c r="G499" s="25"/>
     </row>
     <row r="500" spans="7:7">
-      <c r="G500" s="28"/>
+      <c r="G500" s="25"/>
     </row>
     <row r="501" spans="7:7">
-      <c r="G501" s="28"/>
+      <c r="G501" s="25"/>
     </row>
     <row r="502" spans="7:7">
-      <c r="G502" s="28"/>
+      <c r="G502" s="25"/>
     </row>
     <row r="503" spans="7:7">
-      <c r="G503" s="28"/>
+      <c r="G503" s="25"/>
     </row>
     <row r="504" spans="7:7">
-      <c r="G504" s="28"/>
+      <c r="G504" s="25"/>
     </row>
     <row r="505" spans="7:7">
-      <c r="G505" s="28"/>
+      <c r="G505" s="25"/>
     </row>
     <row r="506" spans="7:7">
-      <c r="G506" s="28"/>
+      <c r="G506" s="25"/>
     </row>
     <row r="507" spans="7:7">
-      <c r="G507" s="28"/>
+      <c r="G507" s="25"/>
     </row>
     <row r="508" spans="7:7">
-      <c r="G508" s="28"/>
+      <c r="G508" s="25"/>
     </row>
     <row r="509" spans="7:7">
-      <c r="G509" s="28"/>
+      <c r="G509" s="25"/>
     </row>
     <row r="510" spans="7:7">
-      <c r="G510" s="28"/>
+      <c r="G510" s="25"/>
     </row>
     <row r="511" spans="7:7">
-      <c r="G511" s="28"/>
+      <c r="G511" s="25"/>
     </row>
     <row r="512" spans="7:7">
-      <c r="G512" s="28"/>
+      <c r="G512" s="25"/>
     </row>
     <row r="513" spans="7:7">
-      <c r="G513" s="28"/>
+      <c r="G513" s="25"/>
     </row>
     <row r="514" spans="7:7">
-      <c r="G514" s="28"/>
+      <c r="G514" s="25"/>
     </row>
     <row r="515" spans="7:7">
-      <c r="G515" s="28"/>
+      <c r="G515" s="25"/>
     </row>
     <row r="516" spans="7:7">
-      <c r="G516" s="28"/>
+      <c r="G516" s="25"/>
     </row>
     <row r="517" spans="7:7">
-      <c r="G517" s="28"/>
+      <c r="G517" s="25"/>
     </row>
     <row r="518" spans="7:7">
-      <c r="G518" s="28"/>
+      <c r="G518" s="25"/>
     </row>
     <row r="519" spans="7:7">
-      <c r="G519" s="28"/>
+      <c r="G519" s="25"/>
     </row>
     <row r="520" spans="7:7">
-      <c r="G520" s="28"/>
+      <c r="G520" s="25"/>
     </row>
     <row r="521" spans="7:7">
-      <c r="G521" s="28"/>
+      <c r="G521" s="25"/>
     </row>
     <row r="522" spans="7:7">
-      <c r="G522" s="28"/>
+      <c r="G522" s="25"/>
     </row>
     <row r="523" spans="7:7">
-      <c r="G523" s="28"/>
+      <c r="G523" s="25"/>
     </row>
     <row r="524" spans="7:7">
-      <c r="G524" s="28"/>
+      <c r="G524" s="25"/>
     </row>
     <row r="525" spans="7:7">
-      <c r="G525" s="28"/>
+      <c r="G525" s="25"/>
     </row>
     <row r="526" spans="7:7">
-      <c r="G526" s="28"/>
+      <c r="G526" s="25"/>
     </row>
     <row r="527" spans="7:7">
-      <c r="G527" s="28"/>
+      <c r="G527" s="25"/>
     </row>
     <row r="528" spans="7:7">
-      <c r="G528" s="28"/>
+      <c r="G528" s="25"/>
     </row>
     <row r="529" spans="7:7">
-      <c r="G529" s="28"/>
+      <c r="G529" s="25"/>
     </row>
     <row r="530" spans="7:7">
-      <c r="G530" s="28"/>
+      <c r="G530" s="25"/>
     </row>
     <row r="531" spans="7:7">
-      <c r="G531" s="28"/>
+      <c r="G531" s="25"/>
     </row>
     <row r="532" spans="7:7">
-      <c r="G532" s="28"/>
+      <c r="G532" s="25"/>
     </row>
     <row r="533" spans="7:7">
-      <c r="G533" s="28"/>
+      <c r="G533" s="25"/>
     </row>
     <row r="534" spans="7:7">
-      <c r="G534" s="28"/>
+      <c r="G534" s="25"/>
     </row>
     <row r="535" spans="7:7">
-      <c r="G535" s="28"/>
+      <c r="G535" s="25"/>
     </row>
     <row r="536" spans="7:7">
-      <c r="G536" s="28"/>
+      <c r="G536" s="25"/>
     </row>
     <row r="537" spans="7:7">
-      <c r="G537" s="28"/>
+      <c r="G537" s="25"/>
     </row>
     <row r="538" spans="7:7">
-      <c r="G538" s="28"/>
+      <c r="G538" s="25"/>
     </row>
     <row r="539" spans="7:7">
-      <c r="G539" s="28"/>
+      <c r="G539" s="25"/>
     </row>
     <row r="540" spans="7:7">
-      <c r="G540" s="28"/>
+      <c r="G540" s="25"/>
     </row>
     <row r="541" spans="7:7">
-      <c r="G541" s="28"/>
+      <c r="G541" s="25"/>
     </row>
     <row r="542" spans="7:7">
-      <c r="G542" s="28"/>
+      <c r="G542" s="25"/>
     </row>
     <row r="543" spans="7:7">
-      <c r="G543" s="28"/>
+      <c r="G543" s="25"/>
     </row>
     <row r="544" spans="7:7">
-      <c r="G544" s="28"/>
+      <c r="G544" s="25"/>
     </row>
     <row r="545" spans="7:7">
-      <c r="G545" s="28"/>
+      <c r="G545" s="25"/>
     </row>
     <row r="546" spans="7:7">
-      <c r="G546" s="28"/>
+      <c r="G546" s="25"/>
     </row>
     <row r="547" spans="7:7">
-      <c r="G547" s="28"/>
+      <c r="G547" s="25"/>
     </row>
     <row r="548" spans="7:7">
-      <c r="G548" s="28"/>
+      <c r="G548" s="25"/>
     </row>
     <row r="549" spans="7:7">
-      <c r="G549" s="28"/>
+      <c r="G549" s="25"/>
     </row>
     <row r="550" spans="7:7">
-      <c r="G550" s="28"/>
+      <c r="G550" s="25"/>
     </row>
     <row r="551" spans="7:7">
-      <c r="G551" s="28"/>
+      <c r="G551" s="25"/>
     </row>
     <row r="552" spans="7:7">
-      <c r="G552" s="28"/>
+      <c r="G552" s="25"/>
     </row>
     <row r="553" spans="7:7">
-      <c r="G553" s="28"/>
+      <c r="G553" s="25"/>
     </row>
     <row r="554" spans="7:7">
-      <c r="G554" s="28"/>
+      <c r="G554" s="25"/>
     </row>
     <row r="555" spans="7:7">
-      <c r="G555" s="28"/>
+      <c r="G555" s="25"/>
     </row>
     <row r="556" spans="7:7">
-      <c r="G556" s="28"/>
+      <c r="G556" s="25"/>
     </row>
     <row r="557" spans="7:7">
-      <c r="G557" s="28"/>
+      <c r="G557" s="25"/>
     </row>
     <row r="558" spans="7:7">
-      <c r="G558" s="28"/>
+      <c r="G558" s="25"/>
     </row>
     <row r="559" spans="7:7">
-      <c r="G559" s="28"/>
+      <c r="G559" s="25"/>
     </row>
     <row r="560" spans="7:7">
-      <c r="G560" s="28"/>
+      <c r="G560" s="25"/>
     </row>
     <row r="561" spans="7:7">
-      <c r="G561" s="28"/>
+      <c r="G561" s="25"/>
     </row>
     <row r="562" spans="7:7">
-      <c r="G562" s="28"/>
+      <c r="G562" s="25"/>
     </row>
     <row r="563" spans="7:7">
-      <c r="G563" s="28"/>
+      <c r="G563" s="25"/>
     </row>
     <row r="564" spans="7:7">
-      <c r="G564" s="28"/>
+      <c r="G564" s="25"/>
     </row>
     <row r="565" spans="7:7">
-      <c r="G565" s="28"/>
+      <c r="G565" s="25"/>
     </row>
     <row r="566" spans="7:7">
-      <c r="G566" s="28"/>
+      <c r="G566" s="25"/>
     </row>
     <row r="567" spans="7:7">
-      <c r="G567" s="28"/>
+      <c r="G567" s="25"/>
     </row>
     <row r="568" spans="7:7">
-      <c r="G568" s="28"/>
+      <c r="G568" s="25"/>
     </row>
     <row r="569" spans="7:7">
-      <c r="G569" s="28"/>
+      <c r="G569" s="25"/>
     </row>
     <row r="570" spans="7:7">
-      <c r="G570" s="28"/>
+      <c r="G570" s="25"/>
     </row>
     <row r="571" spans="7:7">
-      <c r="G571" s="28"/>
+      <c r="G571" s="25"/>
     </row>
     <row r="572" spans="7:7">
-      <c r="G572" s="28"/>
+      <c r="G572" s="25"/>
     </row>
     <row r="573" spans="7:7">
-      <c r="G573" s="28"/>
+      <c r="G573" s="25"/>
     </row>
     <row r="574" spans="7:7">
-      <c r="G574" s="28"/>
+      <c r="G574" s="25"/>
     </row>
     <row r="575" spans="7:7">
-      <c r="G575" s="28"/>
+      <c r="G575" s="25"/>
     </row>
     <row r="576" spans="7:7">
-      <c r="G576" s="28"/>
+      <c r="G576" s="25"/>
     </row>
     <row r="577" spans="7:7">
-      <c r="G577" s="28"/>
+      <c r="G577" s="25"/>
     </row>
     <row r="578" spans="7:7">
-      <c r="G578" s="28"/>
+      <c r="G578" s="25"/>
     </row>
     <row r="579" spans="7:7">
-      <c r="G579" s="28"/>
+      <c r="G579" s="25"/>
     </row>
     <row r="580" spans="7:7">
-      <c r="G580" s="28"/>
+      <c r="G580" s="25"/>
     </row>
     <row r="581" spans="7:7">
-      <c r="G581" s="28"/>
+      <c r="G581" s="25"/>
     </row>
     <row r="582" spans="7:7">
-      <c r="G582" s="28"/>
+      <c r="G582" s="25"/>
     </row>
     <row r="583" spans="7:7">
-      <c r="G583" s="28"/>
+      <c r="G583" s="25"/>
     </row>
     <row r="584" spans="7:7">
-      <c r="G584" s="28"/>
+      <c r="G584" s="25"/>
     </row>
     <row r="585" spans="7:7">
-      <c r="G585" s="28"/>
+      <c r="G585" s="25"/>
     </row>
     <row r="586" spans="7:7">
-      <c r="G586" s="28"/>
+      <c r="G586" s="25"/>
     </row>
     <row r="587" spans="7:7">
-      <c r="G587" s="28"/>
+      <c r="G587" s="25"/>
     </row>
     <row r="588" spans="7:7">
-      <c r="G588" s="28"/>
+      <c r="G588" s="25"/>
     </row>
     <row r="589" spans="7:7">
-      <c r="G589" s="28"/>
+      <c r="G589" s="25"/>
     </row>
     <row r="590" spans="7:7">
-      <c r="G590" s="28"/>
+      <c r="G590" s="25"/>
     </row>
     <row r="591" spans="7:7">
-      <c r="G591" s="28"/>
+      <c r="G591" s="25"/>
     </row>
     <row r="592" spans="7:7">
-      <c r="G592" s="28"/>
+      <c r="G592" s="25"/>
     </row>
     <row r="593" spans="7:7">
-      <c r="G593" s="28"/>
+      <c r="G593" s="25"/>
     </row>
     <row r="594" spans="7:7">
-      <c r="G594" s="28"/>
+      <c r="G594" s="25"/>
     </row>
     <row r="595" spans="7:7">
-      <c r="G595" s="28"/>
+      <c r="G595" s="25"/>
     </row>
     <row r="596" spans="7:7">
-      <c r="G596" s="28"/>
+      <c r="G596" s="25"/>
     </row>
     <row r="597" spans="7:7">
-      <c r="G597" s="28"/>
+      <c r="G597" s="25"/>
     </row>
     <row r="598" spans="7:7">
-      <c r="G598" s="28"/>
+      <c r="G598" s="25"/>
     </row>
     <row r="599" spans="7:7">
-      <c r="G599" s="28"/>
+      <c r="G599" s="25"/>
     </row>
     <row r="600" spans="7:7">
-      <c r="G600" s="28"/>
+      <c r="G600" s="25"/>
     </row>
     <row r="601" spans="7:7">
-      <c r="G601" s="28"/>
+      <c r="G601" s="25"/>
     </row>
     <row r="602" spans="7:7">
-      <c r="G602" s="28"/>
+      <c r="G602" s="25"/>
     </row>
     <row r="603" spans="7:7">
-      <c r="G603" s="28"/>
+      <c r="G603" s="25"/>
     </row>
     <row r="604" spans="7:7">
-      <c r="G604" s="28"/>
+      <c r="G604" s="25"/>
     </row>
     <row r="605" spans="7:7">
-      <c r="G605" s="28"/>
+      <c r="G605" s="25"/>
     </row>
     <row r="606" spans="7:7">
-      <c r="G606" s="28"/>
+      <c r="G606" s="25"/>
     </row>
     <row r="607" spans="7:7">
-      <c r="G607" s="28"/>
+      <c r="G607" s="25"/>
     </row>
     <row r="608" spans="7:7">
-      <c r="G608" s="28"/>
+      <c r="G608" s="25"/>
     </row>
     <row r="609" spans="7:7">
-      <c r="G609" s="28"/>
+      <c r="G609" s="25"/>
     </row>
     <row r="610" spans="7:7">
-      <c r="G610" s="28"/>
+      <c r="G610" s="25"/>
     </row>
     <row r="611" spans="7:7">
-      <c r="G611" s="28"/>
+      <c r="G611" s="25"/>
     </row>
     <row r="612" spans="7:7">
-      <c r="G612" s="28"/>
+      <c r="G612" s="25"/>
     </row>
     <row r="613" spans="7:7">
-      <c r="G613" s="28"/>
+      <c r="G613" s="25"/>
     </row>
     <row r="614" spans="7:7">
-      <c r="G614" s="28"/>
+      <c r="G614" s="25"/>
     </row>
     <row r="615" spans="7:7">
-      <c r="G615" s="28"/>
+      <c r="G615" s="25"/>
     </row>
     <row r="616" spans="7:7">
-      <c r="G616" s="28"/>
+      <c r="G616" s="25"/>
     </row>
     <row r="617" spans="7:7">
-      <c r="G617" s="28"/>
+      <c r="G617" s="25"/>
     </row>
     <row r="618" spans="7:7">
-      <c r="G618" s="28"/>
+      <c r="G618" s="25"/>
     </row>
     <row r="619" spans="7:7">
-      <c r="G619" s="28"/>
+      <c r="G619" s="25"/>
     </row>
     <row r="620" spans="7:7">
-      <c r="G620" s="28"/>
+      <c r="G620" s="25"/>
     </row>
     <row r="621" spans="7:7">
-      <c r="G621" s="28"/>
+      <c r="G621" s="25"/>
     </row>
     <row r="622" spans="7:7">
-      <c r="G622" s="28"/>
+      <c r="G622" s="25"/>
     </row>
     <row r="623" spans="7:7">
-      <c r="G623" s="28"/>
+      <c r="G623" s="25"/>
     </row>
     <row r="624" spans="7:7">
-      <c r="G624" s="28"/>
+      <c r="G624" s="25"/>
     </row>
     <row r="625" spans="7:7">
-      <c r="G625" s="28"/>
+      <c r="G625" s="25"/>
     </row>
     <row r="626" spans="7:7">
-      <c r="G626" s="28"/>
+      <c r="G626" s="25"/>
     </row>
     <row r="627" spans="7:7">
-      <c r="G627" s="28"/>
+      <c r="G627" s="25"/>
     </row>
     <row r="628" spans="7:7">
-      <c r="G628" s="28"/>
+      <c r="G628" s="25"/>
     </row>
     <row r="629" spans="7:7">
-      <c r="G629" s="28"/>
+      <c r="G629" s="25"/>
     </row>
     <row r="630" spans="7:7">
-      <c r="G630" s="28"/>
+      <c r="G630" s="25"/>
     </row>
     <row r="631" spans="7:7">
-      <c r="G631" s="28"/>
+      <c r="G631" s="25"/>
     </row>
     <row r="632" spans="7:7">
-      <c r="G632" s="28"/>
+      <c r="G632" s="25"/>
     </row>
     <row r="633" spans="7:7">
-      <c r="G633" s="28"/>
+      <c r="G633" s="25"/>
     </row>
     <row r="634" spans="7:7">
-      <c r="G634" s="28"/>
+      <c r="G634" s="25"/>
     </row>
     <row r="635" spans="7:7">
-      <c r="G635" s="28"/>
+      <c r="G635" s="25"/>
     </row>
     <row r="636" spans="7:7">
-      <c r="G636" s="28"/>
+      <c r="G636" s="25"/>
     </row>
     <row r="637" spans="7:7">
-      <c r="G637" s="28"/>
+      <c r="G637" s="25"/>
     </row>
     <row r="638" spans="7:7">
-      <c r="G638" s="28"/>
+      <c r="G638" s="25"/>
     </row>
     <row r="639" spans="7:7">
-      <c r="G639" s="28"/>
+      <c r="G639" s="25"/>
     </row>
     <row r="640" spans="7:7">
-      <c r="G640" s="28"/>
+      <c r="G640" s="25"/>
     </row>
     <row r="641" spans="7:7">
-      <c r="G641" s="28"/>
+      <c r="G641" s="25"/>
     </row>
     <row r="642" spans="7:7">
-      <c r="G642" s="28"/>
+      <c r="G642" s="25"/>
     </row>
     <row r="643" spans="7:7">
-      <c r="G643" s="28"/>
+      <c r="G643" s="25"/>
     </row>
     <row r="644" spans="7:7">
-      <c r="G644" s="28"/>
+      <c r="G644" s="25"/>
     </row>
     <row r="645" spans="7:7">
-      <c r="G645" s="28"/>
+      <c r="G645" s="25"/>
     </row>
     <row r="646" spans="7:7">
-      <c r="G646" s="28"/>
+      <c r="G646" s="25"/>
     </row>
     <row r="647" spans="7:7">
-      <c r="G647" s="28"/>
+      <c r="G647" s="25"/>
     </row>
     <row r="648" spans="7:7">
-      <c r="G648" s="28"/>
+      <c r="G648" s="25"/>
     </row>
     <row r="649" spans="7:7">
-      <c r="G649" s="28"/>
+      <c r="G649" s="25"/>
     </row>
     <row r="650" spans="7:7">
-      <c r="G650" s="28"/>
+      <c r="G650" s="25"/>
     </row>
     <row r="651" spans="7:7">
-      <c r="G651" s="28"/>
+      <c r="G651" s="25"/>
     </row>
     <row r="652" spans="7:7">
-      <c r="G652" s="28"/>
+      <c r="G652" s="25"/>
     </row>
     <row r="653" spans="7:7">
-      <c r="G653" s="28"/>
+      <c r="G653" s="25"/>
     </row>
     <row r="654" spans="7:7">
-      <c r="G654" s="28"/>
+      <c r="G654" s="25"/>
     </row>
     <row r="655" spans="7:7">
-      <c r="G655" s="28"/>
+      <c r="G655" s="25"/>
     </row>
     <row r="656" spans="7:7">
-      <c r="G656" s="28"/>
+      <c r="G656" s="25"/>
     </row>
     <row r="657" spans="7:7">
-      <c r="G657" s="28"/>
+      <c r="G657" s="25"/>
     </row>
     <row r="658" spans="7:7">
-      <c r="G658" s="28"/>
+      <c r="G658" s="25"/>
     </row>
     <row r="659" spans="7:7">
-      <c r="G659" s="28"/>
+      <c r="G659" s="25"/>
     </row>
     <row r="660" spans="7:7">
-      <c r="G660" s="28"/>
+      <c r="G660" s="25"/>
     </row>
     <row r="661" spans="7:7">
-      <c r="G661" s="28"/>
+      <c r="G661" s="25"/>
     </row>
     <row r="662" spans="7:7">
-      <c r="G662" s="28"/>
+      <c r="G662" s="25"/>
     </row>
     <row r="663" spans="7:7">
-      <c r="G663" s="28"/>
+      <c r="G663" s="25"/>
     </row>
     <row r="664" spans="7:7">
-      <c r="G664" s="28"/>
+      <c r="G664" s="25"/>
     </row>
     <row r="665" spans="7:7">
-      <c r="G665" s="28"/>
+      <c r="G665" s="25"/>
     </row>
     <row r="666" spans="7:7">
-      <c r="G666" s="28"/>
+      <c r="G666" s="25"/>
     </row>
     <row r="667" spans="7:7">
-      <c r="G667" s="28"/>
+      <c r="G667" s="25"/>
     </row>
     <row r="668" spans="7:7">
-      <c r="G668" s="28"/>
+      <c r="G668" s="25"/>
     </row>
     <row r="669" spans="7:7">
-      <c r="G669" s="28"/>
+      <c r="G669" s="25"/>
     </row>
     <row r="670" spans="7:7">
-      <c r="G670" s="28"/>
+      <c r="G670" s="25"/>
     </row>
     <row r="671" spans="7:7">
-      <c r="G671" s="28"/>
+      <c r="G671" s="25"/>
     </row>
     <row r="672" spans="7:7">
-      <c r="G672" s="28"/>
+      <c r="G672" s="25"/>
     </row>
     <row r="673" spans="7:7">
-      <c r="G673" s="28"/>
+      <c r="G673" s="25"/>
     </row>
     <row r="674" spans="7:7">
-      <c r="G674" s="28"/>
+      <c r="G674" s="25"/>
     </row>
     <row r="675" spans="7:7">
-      <c r="G675" s="28"/>
+      <c r="G675" s="25"/>
     </row>
     <row r="676" spans="7:7">
-      <c r="G676" s="28"/>
+      <c r="G676" s="25"/>
     </row>
     <row r="677" spans="7:7">
-      <c r="G677" s="28"/>
+      <c r="G677" s="25"/>
     </row>
     <row r="678" spans="7:7">
-      <c r="G678" s="28"/>
+      <c r="G678" s="25"/>
     </row>
     <row r="679" spans="7:7">
-      <c r="G679" s="28"/>
+      <c r="G679" s="25"/>
     </row>
     <row r="680" spans="7:7">
-      <c r="G680" s="28"/>
+      <c r="G680" s="25"/>
     </row>
     <row r="681" spans="7:7">
-      <c r="G681" s="28"/>
+      <c r="G681" s="25"/>
     </row>
     <row r="682" spans="7:7">
-      <c r="G682" s="28"/>
+      <c r="G682" s="25"/>
     </row>
     <row r="683" spans="7:7">
-      <c r="G683" s="28"/>
+      <c r="G683" s="25"/>
     </row>
     <row r="684" spans="7:7">
-      <c r="G684" s="28"/>
+      <c r="G684" s="25"/>
     </row>
     <row r="685" spans="7:7">
-      <c r="G685" s="28"/>
+      <c r="G685" s="25"/>
     </row>
     <row r="686" spans="7:7">
-      <c r="G686" s="28"/>
+      <c r="G686" s="25"/>
     </row>
     <row r="687" spans="7:7">
-      <c r="G687" s="28"/>
+      <c r="G687" s="25"/>
     </row>
     <row r="688" spans="7:7">
-      <c r="G688" s="28"/>
+      <c r="G688" s="25"/>
     </row>
     <row r="689" spans="7:7">
-      <c r="G689" s="28"/>
+      <c r="G689" s="25"/>
     </row>
     <row r="690" spans="7:7">
-      <c r="G690" s="28"/>
+      <c r="G690" s="25"/>
     </row>
     <row r="691" spans="7:7">
-      <c r="G691" s="28"/>
+      <c r="G691" s="25"/>
     </row>
     <row r="692" spans="7:7">
-      <c r="G692" s="28"/>
+      <c r="G692" s="25"/>
     </row>
     <row r="693" spans="7:7">
-      <c r="G693" s="28"/>
+      <c r="G693" s="25"/>
     </row>
     <row r="694" spans="7:7">
-      <c r="G694" s="28"/>
+      <c r="G694" s="25"/>
     </row>
     <row r="695" spans="7:7">
-      <c r="G695" s="28"/>
+      <c r="G695" s="25"/>
     </row>
     <row r="696" spans="7:7">
-      <c r="G696" s="28"/>
+      <c r="G696" s="25"/>
     </row>
     <row r="697" spans="7:7">
-      <c r="G697" s="28"/>
+      <c r="G697" s="25"/>
     </row>
     <row r="698" spans="7:7">
-      <c r="G698" s="28"/>
+      <c r="G698" s="25"/>
     </row>
     <row r="699" spans="7:7">
-      <c r="G699" s="28"/>
+      <c r="G699" s="25"/>
     </row>
     <row r="700" spans="7:7">
-      <c r="G700" s="28"/>
+      <c r="G700" s="25"/>
     </row>
     <row r="701" spans="7:7">
-      <c r="G701" s="28"/>
+      <c r="G701" s="25"/>
     </row>
     <row r="702" spans="7:7">
-      <c r="G702" s="28"/>
+      <c r="G702" s="25"/>
     </row>
     <row r="703" spans="7:7">
-      <c r="G703" s="28"/>
+      <c r="G703" s="25"/>
     </row>
     <row r="704" spans="7:7">
-      <c r="G704" s="28"/>
+      <c r="G704" s="25"/>
     </row>
     <row r="705" spans="7:7">
-      <c r="G705" s="28"/>
+      <c r="G705" s="25"/>
     </row>
     <row r="706" spans="7:7">
-      <c r="G706" s="28"/>
+      <c r="G706" s="25"/>
     </row>
     <row r="707" spans="7:7">
-      <c r="G707" s="28"/>
+      <c r="G707" s="25"/>
     </row>
     <row r="708" spans="7:7">
-      <c r="G708" s="28"/>
+      <c r="G708" s="25"/>
     </row>
     <row r="709" spans="7:7">
-      <c r="G709" s="28"/>
+      <c r="G709" s="25"/>
     </row>
     <row r="710" spans="7:7">
-      <c r="G710" s="28"/>
+      <c r="G710" s="25"/>
     </row>
     <row r="711" spans="7:7">
-      <c r="G711" s="28"/>
+      <c r="G711" s="25"/>
     </row>
     <row r="712" spans="7:7">
-      <c r="G712" s="28"/>
+      <c r="G712" s="25"/>
     </row>
     <row r="713" spans="7:7">
-      <c r="G713" s="28"/>
+      <c r="G713" s="25"/>
     </row>
     <row r="714" spans="7:7">
-      <c r="G714" s="28"/>
+      <c r="G714" s="25"/>
     </row>
     <row r="715" spans="7:7">
-      <c r="G715" s="28"/>
+      <c r="G715" s="25"/>
     </row>
     <row r="716" spans="7:7">
-      <c r="G716" s="28"/>
+      <c r="G716" s="25"/>
     </row>
     <row r="717" spans="7:7">
-      <c r="G717" s="28"/>
+      <c r="G717" s="25"/>
     </row>
     <row r="718" spans="7:7">
-      <c r="G718" s="28"/>
+      <c r="G718" s="25"/>
     </row>
     <row r="719" spans="7:7">
-      <c r="G719" s="28"/>
+      <c r="G719" s="25"/>
     </row>
     <row r="720" spans="7:7">
-      <c r="G720" s="28"/>
+      <c r="G720" s="25"/>
     </row>
     <row r="721" spans="7:7">
-      <c r="G721" s="28"/>
+      <c r="G721" s="25"/>
     </row>
     <row r="722" spans="7:7">
-      <c r="G722" s="28"/>
+      <c r="G722" s="25"/>
     </row>
     <row r="723" spans="7:7">
-      <c r="G723" s="28"/>
+      <c r="G723" s="25"/>
     </row>
     <row r="724" spans="7:7">
-      <c r="G724" s="28"/>
+      <c r="G724" s="25"/>
     </row>
     <row r="725" spans="7:7">
-      <c r="G725" s="28"/>
+      <c r="G725" s="25"/>
     </row>
     <row r="726" spans="7:7">
-      <c r="G726" s="28"/>
+      <c r="G726" s="25"/>
     </row>
     <row r="727" spans="7:7">
-      <c r="G727" s="28"/>
+      <c r="G727" s="25"/>
     </row>
     <row r="728" spans="7:7">
-      <c r="G728" s="28"/>
+      <c r="G728" s="25"/>
     </row>
     <row r="729" spans="7:7">
-      <c r="G729" s="28"/>
+      <c r="G729" s="25"/>
     </row>
     <row r="730" spans="7:7">
-      <c r="G730" s="28"/>
+      <c r="G730" s="25"/>
     </row>
     <row r="731" spans="7:7">
-      <c r="G731" s="28"/>
+      <c r="G731" s="25"/>
     </row>
     <row r="732" spans="7:7">
-      <c r="G732" s="28"/>
+      <c r="G732" s="25"/>
     </row>
     <row r="733" spans="7:7">
-      <c r="G733" s="28"/>
+      <c r="G733" s="25"/>
     </row>
     <row r="734" spans="7:7">
-      <c r="G734" s="28"/>
+      <c r="G734" s="25"/>
     </row>
     <row r="735" spans="7:7">
-      <c r="G735" s="28"/>
+      <c r="G735" s="25"/>
     </row>
     <row r="736" spans="7:7">
-      <c r="G736" s="28"/>
+      <c r="G736" s="25"/>
     </row>
     <row r="737" spans="7:7">
-      <c r="G737" s="28"/>
+      <c r="G737" s="25"/>
     </row>
     <row r="738" spans="7:7">
-      <c r="G738" s="28"/>
+      <c r="G738" s="25"/>
     </row>
     <row r="739" spans="7:7">
-      <c r="G739" s="28"/>
+      <c r="G739" s="25"/>
     </row>
     <row r="740" spans="7:7">
-      <c r="G740" s="28"/>
+      <c r="G740" s="25"/>
     </row>
     <row r="741" spans="7:7">
-      <c r="G741" s="28"/>
+      <c r="G741" s="25"/>
     </row>
     <row r="742" spans="7:7">
-      <c r="G742" s="28"/>
+      <c r="G742" s="25"/>
     </row>
     <row r="743" spans="7:7">
-      <c r="G743" s="28"/>
+      <c r="G743" s="25"/>
     </row>
     <row r="744" spans="7:7">
-      <c r="G744" s="28"/>
+      <c r="G744" s="25"/>
     </row>
     <row r="745" spans="7:7">
-      <c r="G745" s="28"/>
+      <c r="G745" s="25"/>
     </row>
     <row r="746" spans="7:7">
-      <c r="G746" s="28"/>
+      <c r="G746" s="25"/>
     </row>
     <row r="747" spans="7:7">
-      <c r="G747" s="28"/>
+      <c r="G747" s="25"/>
     </row>
     <row r="748" spans="7:7">
-      <c r="G748" s="28"/>
+      <c r="G748" s="25"/>
     </row>
     <row r="749" spans="7:7">
-      <c r="G749" s="28"/>
+      <c r="G749" s="25"/>
     </row>
     <row r="750" spans="7:7">
-      <c r="G750" s="28"/>
+      <c r="G750" s="25"/>
     </row>
     <row r="751" spans="7:7">
-      <c r="G751" s="28"/>
+      <c r="G751" s="25"/>
     </row>
     <row r="752" spans="7:7">
-      <c r="G752" s="28"/>
+      <c r="G752" s="25"/>
     </row>
     <row r="753" spans="7:7">
-      <c r="G753" s="28"/>
+      <c r="G753" s="25"/>
     </row>
     <row r="754" spans="7:7">
-      <c r="G754" s="28"/>
+      <c r="G754" s="25"/>
     </row>
     <row r="755" spans="7:7">
-      <c r="G755" s="28"/>
+      <c r="G755" s="25"/>
     </row>
     <row r="756" spans="7:7">
-      <c r="G756" s="28"/>
+      <c r="G756" s="25"/>
     </row>
     <row r="757" spans="7:7">
-      <c r="G757" s="28"/>
+      <c r="G757" s="25"/>
     </row>
     <row r="758" spans="7:7">
-      <c r="G758" s="28"/>
+      <c r="G758" s="25"/>
     </row>
     <row r="759" spans="7:7">
-      <c r="G759" s="28"/>
+      <c r="G759" s="25"/>
     </row>
     <row r="760" spans="7:7">
-      <c r="G760" s="28"/>
+      <c r="G760" s="25"/>
     </row>
     <row r="761" spans="7:7">
-      <c r="G761" s="28"/>
+      <c r="G761" s="25"/>
     </row>
     <row r="762" spans="7:7">
-      <c r="G762" s="28"/>
+      <c r="G762" s="25"/>
     </row>
     <row r="763" spans="7:7">
-      <c r="G763" s="28"/>
+      <c r="G763" s="25"/>
     </row>
     <row r="764" spans="7:7">
-      <c r="G764" s="28"/>
+      <c r="G764" s="25"/>
     </row>
     <row r="765" spans="7:7">
-      <c r="G765" s="28"/>
+      <c r="G765" s="25"/>
     </row>
     <row r="766" spans="7:7">
-      <c r="G766" s="28"/>
+      <c r="G766" s="25"/>
     </row>
     <row r="767" spans="7:7">
-      <c r="G767" s="28"/>
+      <c r="G767" s="25"/>
     </row>
     <row r="768" spans="7:7">
-      <c r="G768" s="28"/>
+      <c r="G768" s="25"/>
     </row>
     <row r="769" spans="7:7">
-      <c r="G769" s="28"/>
+      <c r="G769" s="25"/>
     </row>
     <row r="770" spans="7:7">
-      <c r="G770" s="28"/>
+      <c r="G770" s="25"/>
     </row>
     <row r="771" spans="7:7">
-      <c r="G771" s="28"/>
+      <c r="G771" s="25"/>
     </row>
     <row r="772" spans="7:7">
-      <c r="G772" s="28"/>
+      <c r="G772" s="25"/>
     </row>
     <row r="773" spans="7:7">
-      <c r="G773" s="28"/>
+      <c r="G773" s="25"/>
     </row>
     <row r="774" spans="7:7">
-      <c r="G774" s="28"/>
+      <c r="G774" s="25"/>
     </row>
     <row r="775" spans="7:7">
-      <c r="G775" s="28"/>
+      <c r="G775" s="25"/>
     </row>
     <row r="776" spans="7:7">
-      <c r="G776" s="28"/>
+      <c r="G776" s="25"/>
     </row>
     <row r="777" spans="7:7">
-      <c r="G777" s="28"/>
+      <c r="G777" s="25"/>
     </row>
     <row r="778" spans="7:7">
-      <c r="G778" s="28"/>
+      <c r="G778" s="25"/>
     </row>
     <row r="779" spans="7:7">
-      <c r="G779" s="28"/>
+      <c r="G779" s="25"/>
     </row>
     <row r="780" spans="7:7">
-      <c r="G780" s="28"/>
+      <c r="G780" s="25"/>
     </row>
     <row r="781" spans="7:7">
-      <c r="G781" s="28"/>
+      <c r="G781" s="25"/>
     </row>
     <row r="782" spans="7:7">
-      <c r="G782" s="28"/>
+      <c r="G782" s="25"/>
     </row>
     <row r="783" spans="7:7">
-      <c r="G783" s="28"/>
+      <c r="G783" s="25"/>
     </row>
     <row r="784" spans="7:7">
-      <c r="G784" s="28"/>
+      <c r="G784" s="25"/>
     </row>
     <row r="785" spans="7:7">
-      <c r="G785" s="28"/>
+      <c r="G785" s="25"/>
     </row>
     <row r="786" spans="7:7">
-      <c r="G786" s="28"/>
+      <c r="G786" s="25"/>
     </row>
     <row r="787" spans="7:7">
-      <c r="G787" s="28"/>
+      <c r="G787" s="25"/>
     </row>
     <row r="788" spans="7:7">
-      <c r="G788" s="28"/>
+      <c r="G788" s="25"/>
     </row>
     <row r="789" spans="7:7">
-      <c r="G789" s="28"/>
+      <c r="G789" s="25"/>
     </row>
     <row r="790" spans="7:7">
-      <c r="G790" s="28"/>
+      <c r="G790" s="25"/>
     </row>
     <row r="791" spans="7:7">
-      <c r="G791" s="28"/>
+      <c r="G791" s="25"/>
     </row>
     <row r="792" spans="7:7">
-      <c r="G792" s="28"/>
+      <c r="G792" s="25"/>
     </row>
     <row r="793" spans="7:7">
-      <c r="G793" s="28"/>
+      <c r="G793" s="25"/>
     </row>
     <row r="794" spans="7:7">
-      <c r="G794" s="28"/>
+      <c r="G794" s="25"/>
     </row>
     <row r="795" spans="7:7">
-      <c r="G795" s="28"/>
+      <c r="G795" s="25"/>
     </row>
     <row r="796" spans="7:7">
-      <c r="G796" s="28"/>
+      <c r="G796" s="25"/>
     </row>
     <row r="797" spans="7:7">
-      <c r="G797" s="28"/>
+      <c r="G797" s="25"/>
     </row>
     <row r="798" spans="7:7">
-      <c r="G798" s="28"/>
+      <c r="G798" s="25"/>
     </row>
     <row r="799" spans="7:7">
-      <c r="G799" s="28"/>
+      <c r="G799" s="25"/>
     </row>
     <row r="800" spans="7:7">
-      <c r="G800" s="28"/>
+      <c r="G800" s="25"/>
     </row>
     <row r="801" spans="7:7">
-      <c r="G801" s="28"/>
+      <c r="G801" s="25"/>
     </row>
     <row r="802" spans="7:7">
-      <c r="G802" s="28"/>
+      <c r="G802" s="25"/>
     </row>
     <row r="803" spans="7:7">
-      <c r="G803" s="28"/>
+      <c r="G803" s="25"/>
     </row>
     <row r="804" spans="7:7">
-      <c r="G804" s="28"/>
+      <c r="G804" s="25"/>
     </row>
     <row r="805" spans="7:7">
-      <c r="G805" s="28"/>
+      <c r="G805" s="25"/>
     </row>
     <row r="806" spans="7:7">
-      <c r="G806" s="28"/>
+      <c r="G806" s="25"/>
     </row>
     <row r="807" spans="7:7">
-      <c r="G807" s="28"/>
+      <c r="G807" s="25"/>
     </row>
     <row r="808" spans="7:7">
-      <c r="G808" s="28"/>
+      <c r="G808" s="25"/>
     </row>
     <row r="809" spans="7:7">
-      <c r="G809" s="28"/>
+      <c r="G809" s="25"/>
     </row>
     <row r="810" spans="7:7">
-      <c r="G810" s="28"/>
+      <c r="G810" s="25"/>
     </row>
     <row r="811" spans="7:7">
-      <c r="G811" s="28"/>
+      <c r="G811" s="25"/>
     </row>
     <row r="812" spans="7:7">
-      <c r="G812" s="28"/>
+      <c r="G812" s="25"/>
     </row>
     <row r="813" spans="7:7">
-      <c r="G813" s="28"/>
+      <c r="G813" s="25"/>
     </row>
     <row r="814" spans="7:7">
-      <c r="G814" s="28"/>
+      <c r="G814" s="25"/>
     </row>
     <row r="815" spans="7:7">
-      <c r="G815" s="28"/>
+      <c r="G815" s="25"/>
     </row>
     <row r="816" spans="7:7">
-      <c r="G816" s="28"/>
+      <c r="G816" s="25"/>
     </row>
     <row r="817" spans="7:7">
-      <c r="G817" s="28"/>
+      <c r="G817" s="25"/>
     </row>
     <row r="818" spans="7:7">
-      <c r="G818" s="28"/>
+      <c r="G818" s="25"/>
     </row>
     <row r="819" spans="7:7">
-      <c r="G819" s="28"/>
+      <c r="G819" s="25"/>
     </row>
     <row r="820" spans="7:7">
-      <c r="G820" s="28"/>
+      <c r="G820" s="25"/>
     </row>
     <row r="821" spans="7:7">
-      <c r="G821" s="28"/>
+      <c r="G821" s="25"/>
     </row>
     <row r="822" spans="7:7">
-      <c r="G822" s="28"/>
+      <c r="G822" s="25"/>
     </row>
     <row r="823" spans="7:7">
-      <c r="G823" s="28"/>
+      <c r="G823" s="25"/>
     </row>
     <row r="824" spans="7:7">
-      <c r="G824" s="28"/>
+      <c r="G824" s="25"/>
     </row>
     <row r="825" spans="7:7">
-      <c r="G825" s="28"/>
+      <c r="G825" s="25"/>
     </row>
     <row r="826" spans="7:7">
-      <c r="G826" s="28"/>
+      <c r="G826" s="25"/>
     </row>
     <row r="827" spans="7:7">
-      <c r="G827" s="28"/>
+      <c r="G827" s="25"/>
     </row>
     <row r="828" spans="7:7">
-      <c r="G828" s="28"/>
+      <c r="G828" s="25"/>
     </row>
     <row r="829" spans="7:7">
-      <c r="G829" s="28"/>
+      <c r="G829" s="25"/>
     </row>
     <row r="830" spans="7:7">
-      <c r="G830" s="28"/>
+      <c r="G830" s="25"/>
     </row>
     <row r="831" spans="7:7">
-      <c r="G831" s="28"/>
+      <c r="G831" s="25"/>
     </row>
     <row r="832" spans="7:7">
-      <c r="G832" s="28"/>
+      <c r="G832" s="25"/>
     </row>
     <row r="833" spans="7:7">
-      <c r="G833" s="28"/>
+      <c r="G833" s="25"/>
     </row>
     <row r="834" spans="7:7">
-      <c r="G834" s="28"/>
+      <c r="G834" s="25"/>
     </row>
     <row r="835" spans="7:7">
-      <c r="G835" s="28"/>
+      <c r="G835" s="25"/>
     </row>
     <row r="836" spans="7:7">
-      <c r="G836" s="28"/>
+      <c r="G836" s="25"/>
     </row>
     <row r="837" spans="7:7">
-      <c r="G837" s="28"/>
+      <c r="G837" s="25"/>
     </row>
     <row r="838" spans="7:7">
-      <c r="G838" s="28"/>
+      <c r="G838" s="25"/>
     </row>
     <row r="839" spans="7:7">
-      <c r="G839" s="28"/>
+      <c r="G839" s="25"/>
     </row>
     <row r="840" spans="7:7">
-      <c r="G840" s="28"/>
+      <c r="G840" s="25"/>
     </row>
     <row r="841" spans="7:7">
-      <c r="G841" s="28"/>
+      <c r="G841" s="25"/>
     </row>
     <row r="842" spans="7:7">
-      <c r="G842" s="28"/>
+      <c r="G842" s="25"/>
     </row>
     <row r="843" spans="7:7">
-      <c r="G843" s="28"/>
+      <c r="G843" s="25"/>
     </row>
     <row r="844" spans="7:7">
-      <c r="G844" s="28"/>
+      <c r="G844" s="25"/>
     </row>
     <row r="845" spans="7:7">
-      <c r="G845" s="28"/>
+      <c r="G845" s="25"/>
     </row>
     <row r="846" spans="7:7">
-      <c r="G846" s="28"/>
+      <c r="G846" s="25"/>
     </row>
     <row r="847" spans="7:7">
-      <c r="G847" s="28"/>
+      <c r="G847" s="25"/>
     </row>
     <row r="848" spans="7:7">
-      <c r="G848" s="28"/>
+      <c r="G848" s="25"/>
     </row>
     <row r="849" spans="7:7">
-      <c r="G849" s="28"/>
+      <c r="G849" s="25"/>
     </row>
     <row r="850" spans="7:7">
-      <c r="G850" s="28"/>
+      <c r="G850" s="25"/>
     </row>
     <row r="851" spans="7:7">
-      <c r="G851" s="28"/>
+      <c r="G851" s="25"/>
     </row>
     <row r="852" spans="7:7">
-      <c r="G852" s="28"/>
+      <c r="G852" s="25"/>
     </row>
     <row r="853" spans="7:7">
-      <c r="G853" s="28"/>
+      <c r="G853" s="25"/>
     </row>
     <row r="854" spans="7:7">
-      <c r="G854" s="28"/>
+      <c r="G854" s="25"/>
     </row>
     <row r="855" spans="7:7">
-      <c r="G855" s="28"/>
+      <c r="G855" s="25"/>
     </row>
     <row r="856" spans="7:7">
-      <c r="G856" s="28"/>
+      <c r="G856" s="25"/>
     </row>
     <row r="857" spans="7:7">
-      <c r="G857" s="28"/>
+      <c r="G857" s="25"/>
     </row>
     <row r="858" spans="7:7">
-      <c r="G858" s="28"/>
+      <c r="G858" s="25"/>
     </row>
     <row r="859" spans="7:7">
-      <c r="G859" s="28"/>
+      <c r="G859" s="25"/>
     </row>
     <row r="860" spans="7:7">
-      <c r="G860" s="28"/>
+      <c r="G860" s="25"/>
     </row>
     <row r="861" spans="7:7">
-      <c r="G861" s="28"/>
+      <c r="G861" s="25"/>
     </row>
     <row r="862" spans="7:7">
-      <c r="G862" s="28"/>
+      <c r="G862" s="25"/>
     </row>
     <row r="863" spans="7:7">
-      <c r="G863" s="28"/>
+      <c r="G863" s="25"/>
     </row>
     <row r="864" spans="7:7">
-      <c r="G864" s="28"/>
+      <c r="G864" s="25"/>
     </row>
     <row r="865" spans="7:7">
-      <c r="G865" s="28"/>
+      <c r="G865" s="25"/>
     </row>
     <row r="866" spans="7:7">
-      <c r="G866" s="28"/>
+      <c r="G866" s="25"/>
     </row>
     <row r="867" spans="7:7">
-      <c r="G867" s="28"/>
+      <c r="G867" s="25"/>
     </row>
     <row r="868" spans="7:7">
-      <c r="G868" s="28"/>
+      <c r="G868" s="25"/>
     </row>
     <row r="869" spans="7:7">
-      <c r="G869" s="28"/>
+      <c r="G869" s="25"/>
     </row>
     <row r="870" spans="7:7">
-      <c r="G870" s="28"/>
+      <c r="G870" s="25"/>
     </row>
     <row r="871" spans="7:7">
-      <c r="G871" s="28"/>
+      <c r="G871" s="25"/>
     </row>
     <row r="872" spans="7:7">
-      <c r="G872" s="28"/>
+      <c r="G872" s="25"/>
     </row>
     <row r="873" spans="7:7">
-      <c r="G873" s="28"/>
+      <c r="G873" s="25"/>
     </row>
     <row r="874" spans="7:7">
-      <c r="G874" s="28"/>
+      <c r="G874" s="25"/>
     </row>
     <row r="875" spans="7:7">
-      <c r="G875" s="28"/>
+      <c r="G875" s="25"/>
     </row>
     <row r="876" spans="7:7">
-      <c r="G876" s="28"/>
+      <c r="G876" s="25"/>
     </row>
     <row r="877" spans="7:7">
-      <c r="G877" s="28"/>
+      <c r="G877" s="25"/>
     </row>
     <row r="878" spans="7:7">
-      <c r="G878" s="28"/>
+      <c r="G878" s="25"/>
     </row>
     <row r="879" spans="7:7">
-      <c r="G879" s="28"/>
+      <c r="G879" s="25"/>
     </row>
     <row r="880" spans="7:7">
-      <c r="G880" s="28"/>
+      <c r="G880" s="25"/>
     </row>
     <row r="881" spans="7:7">
-      <c r="G881" s="28"/>
+      <c r="G881" s="25"/>
     </row>
     <row r="882" spans="7:7">
-      <c r="G882" s="28"/>
+      <c r="G882" s="25"/>
     </row>
     <row r="883" spans="7:7">
-      <c r="G883" s="28"/>
+      <c r="G883" s="25"/>
     </row>
     <row r="884" spans="7:7">
-      <c r="G884" s="28"/>
+      <c r="G884" s="25"/>
     </row>
     <row r="885" spans="7:7">
-      <c r="G885" s="28"/>
+      <c r="G885" s="25"/>
     </row>
     <row r="886" spans="7:7">
-      <c r="G886" s="28"/>
+      <c r="G886" s="25"/>
     </row>
     <row r="887" spans="7:7">
-      <c r="G887" s="28"/>
+      <c r="G887" s="25"/>
     </row>
     <row r="888" spans="7:7">
-      <c r="G888" s="28"/>
+      <c r="G888" s="25"/>
     </row>
     <row r="889" spans="7:7">
-      <c r="G889" s="28"/>
+      <c r="G889" s="25"/>
     </row>
     <row r="890" spans="7:7">
-      <c r="G890" s="28"/>
+      <c r="G890" s="25"/>
     </row>
     <row r="891" spans="7:7">
-      <c r="G891" s="28"/>
+      <c r="G891" s="25"/>
     </row>
     <row r="892" spans="7:7">
-      <c r="G892" s="28"/>
+      <c r="G892" s="25"/>
     </row>
     <row r="893" spans="7:7">
-      <c r="G893" s="28"/>
+      <c r="G893" s="25"/>
     </row>
     <row r="894" spans="7:7">
-      <c r="G894" s="28"/>
+      <c r="G894" s="25"/>
     </row>
     <row r="895" spans="7:7">
-      <c r="G895" s="28"/>
+      <c r="G895" s="25"/>
     </row>
     <row r="896" spans="7:7">
-      <c r="G896" s="28"/>
+      <c r="G896" s="25"/>
     </row>
     <row r="897" spans="7:7">
-      <c r="G897" s="28"/>
+      <c r="G897" s="25"/>
     </row>
     <row r="898" spans="7:7">
-      <c r="G898" s="28"/>
+      <c r="G898" s="25"/>
     </row>
     <row r="899" spans="7:7">
-      <c r="G899" s="28"/>
+      <c r="G899" s="25"/>
     </row>
     <row r="900" spans="7:7">
-      <c r="G900" s="28"/>
+      <c r="G900" s="25"/>
     </row>
     <row r="901" spans="7:7">
-      <c r="G901" s="28"/>
+      <c r="G901" s="25"/>
     </row>
     <row r="902" spans="7:7">
-      <c r="G902" s="28"/>
+      <c r="G902" s="25"/>
     </row>
     <row r="903" spans="7:7">
-      <c r="G903" s="28"/>
+      <c r="G903" s="25"/>
     </row>
     <row r="904" spans="7:7">
-      <c r="G904" s="28"/>
+      <c r="G904" s="25"/>
     </row>
     <row r="905" spans="7:7">
-      <c r="G905" s="28"/>
+      <c r="G905" s="25"/>
     </row>
     <row r="906" spans="7:7">
-      <c r="G906" s="28"/>
+      <c r="G906" s="25"/>
     </row>
     <row r="907" spans="7:7">
-      <c r="G907" s="28"/>
+      <c r="G907" s="25"/>
     </row>
     <row r="908" spans="7:7">
-      <c r="G908" s="28"/>
+      <c r="G908" s="25"/>
     </row>
     <row r="909" spans="7:7">
-      <c r="G909" s="28"/>
+      <c r="G909" s="25"/>
     </row>
     <row r="910" spans="7:7">
-      <c r="G910" s="28"/>
+      <c r="G910" s="25"/>
     </row>
     <row r="911" spans="7:7">
-      <c r="G911" s="28"/>
+      <c r="G911" s="25"/>
     </row>
     <row r="912" spans="7:7">
-      <c r="G912" s="28"/>
+      <c r="G912" s="25"/>
     </row>
     <row r="913" spans="7:7">
-      <c r="G913" s="28"/>
+      <c r="G913" s="25"/>
     </row>
     <row r="914" spans="7:7">
-      <c r="G914" s="28"/>
+      <c r="G914" s="25"/>
     </row>
     <row r="915" spans="7:7">
-      <c r="G915" s="28"/>
+      <c r="G915" s="25"/>
     </row>
     <row r="916" spans="7:7">
-      <c r="G916" s="28"/>
+      <c r="G916" s="25"/>
     </row>
     <row r="917" spans="7:7">
-      <c r="G917" s="28"/>
+      <c r="G917" s="25"/>
     </row>
     <row r="918" spans="7:7">
-      <c r="G918" s="28"/>
+      <c r="G918" s="25"/>
     </row>
     <row r="919" spans="7:7">
-      <c r="G919" s="28"/>
+      <c r="G919" s="25"/>
     </row>
     <row r="920" spans="7:7">
-      <c r="G920" s="28"/>
+      <c r="G920" s="25"/>
     </row>
     <row r="921" spans="7:7">
-      <c r="G921" s="28"/>
+      <c r="G921" s="25"/>
     </row>
     <row r="922" spans="7:7">
-      <c r="G922" s="28"/>
+      <c r="G922" s="25"/>
     </row>
     <row r="923" spans="7:7">
-      <c r="G923" s="28"/>
+      <c r="G923" s="25"/>
     </row>
     <row r="924" spans="7:7">
-      <c r="G924" s="28"/>
+      <c r="G924" s="25"/>
     </row>
     <row r="925" spans="7:7">
-      <c r="G925" s="28"/>
+      <c r="G925" s="25"/>
     </row>
     <row r="926" spans="7:7">
-      <c r="G926" s="28"/>
+      <c r="G926" s="25"/>
     </row>
     <row r="927" spans="7:7">
-      <c r="G927" s="28"/>
+      <c r="G927" s="25"/>
     </row>
     <row r="928" spans="7:7">
-      <c r="G928" s="28"/>
+      <c r="G928" s="25"/>
     </row>
     <row r="929" spans="7:7">
-      <c r="G929" s="28"/>
+      <c r="G929" s="25"/>
     </row>
     <row r="930" spans="7:7">
-      <c r="G930" s="28"/>
+      <c r="G930" s="25"/>
     </row>
     <row r="931" spans="7:7">
-      <c r="G931" s="28"/>
+      <c r="G931" s="25"/>
     </row>
     <row r="932" spans="7:7">
-      <c r="G932" s="28"/>
+      <c r="G932" s="25"/>
     </row>
     <row r="933" spans="7:7">
-      <c r="G933" s="28"/>
+      <c r="G933" s="25"/>
     </row>
     <row r="934" spans="7:7">
-      <c r="G934" s="28"/>
+      <c r="G934" s="25"/>
     </row>
     <row r="935" spans="7:7">
-      <c r="G935" s="28"/>
+      <c r="G935" s="25"/>
     </row>
     <row r="936" spans="7:7">
-      <c r="G936" s="28"/>
+      <c r="G936" s="25"/>
     </row>
     <row r="937" spans="7:7">
-      <c r="G937" s="28"/>
+      <c r="G937" s="25"/>
     </row>
     <row r="938" spans="7:7">
-      <c r="G938" s="28"/>
+      <c r="G938" s="25"/>
     </row>
     <row r="939" spans="7:7">
-      <c r="G939" s="28"/>
+      <c r="G939" s="25"/>
     </row>
     <row r="940" spans="7:7">
-      <c r="G940" s="28"/>
+      <c r="G940" s="25"/>
     </row>
     <row r="941" spans="7:7">
-      <c r="G941" s="28"/>
+      <c r="G941" s="25"/>
     </row>
     <row r="942" spans="7:7">
-      <c r="G942" s="28"/>
+      <c r="G942" s="25"/>
     </row>
     <row r="943" spans="7:7">
-      <c r="G943" s="28"/>
+      <c r="G943" s="25"/>
     </row>
     <row r="944" spans="7:7">
-      <c r="G944" s="28"/>
+      <c r="G944" s="25"/>
     </row>
     <row r="945" spans="7:7">
-      <c r="G945" s="28"/>
+      <c r="G945" s="25"/>
     </row>
     <row r="946" spans="7:7">
-      <c r="G946" s="28"/>
+      <c r="G946" s="25"/>
     </row>
     <row r="947" spans="7:7">
-      <c r="G947" s="28"/>
+      <c r="G947" s="25"/>
     </row>
     <row r="948" spans="7:7">
-      <c r="G948" s="28"/>
+      <c r="G948" s="25"/>
     </row>
     <row r="949" spans="7:7">
-      <c r="G949" s="28"/>
+      <c r="G949" s="25"/>
     </row>
     <row r="950" spans="7:7">
-      <c r="G950" s="28"/>
+      <c r="G950" s="25"/>
     </row>
     <row r="951" spans="7:7">
-      <c r="G951" s="28"/>
+      <c r="G951" s="25"/>
     </row>
     <row r="952" spans="7:7">
-      <c r="G952" s="28"/>
+      <c r="G952" s="25"/>
     </row>
     <row r="953" spans="7:7">
-      <c r="G953" s="28"/>
+      <c r="G953" s="25"/>
     </row>
     <row r="954" spans="7:7">
-      <c r="G954" s="28"/>
+      <c r="G954" s="25"/>
     </row>
     <row r="955" spans="7:7">
-      <c r="G955" s="28"/>
+      <c r="G955" s="25"/>
     </row>
     <row r="956" spans="7:7">
-      <c r="G956" s="28"/>
+      <c r="G956" s="25"/>
     </row>
     <row r="957" spans="7:7">
-      <c r="G957" s="28"/>
+      <c r="G957" s="25"/>
     </row>
     <row r="958" spans="7:7">
-      <c r="G958" s="28"/>
+      <c r="G958" s="25"/>
     </row>
     <row r="959" spans="7:7">
-      <c r="G959" s="28"/>
+      <c r="G959" s="25"/>
     </row>
     <row r="960" spans="7:7">
-      <c r="G960" s="28"/>
+      <c r="G960" s="25"/>
     </row>
     <row r="961" spans="7:7">
-      <c r="G961" s="28"/>
+      <c r="G961" s="25"/>
     </row>
     <row r="962" spans="7:7">
-      <c r="G962" s="28"/>
+      <c r="G962" s="25"/>
     </row>
     <row r="963" spans="7:7">
-      <c r="G963" s="28"/>
+      <c r="G963" s="25"/>
     </row>
     <row r="964" spans="7:7">
-      <c r="G964" s="28"/>
+      <c r="G964" s="25"/>
     </row>
     <row r="965" spans="7:7">
-      <c r="G965" s="28"/>
+      <c r="G965" s="25"/>
     </row>
     <row r="966" spans="7:7">
-      <c r="G966" s="28"/>
+      <c r="G966" s="25"/>
     </row>
     <row r="967" spans="7:7">
-      <c r="G967" s="28"/>
+      <c r="G967" s="25"/>
     </row>
     <row r="968" spans="7:7">
-      <c r="G968" s="28"/>
+      <c r="G968" s="25"/>
     </row>
     <row r="969" spans="7:7">
-      <c r="G969" s="28"/>
+      <c r="G969" s="25"/>
     </row>
     <row r="970" spans="7:7">
-      <c r="G970" s="28"/>
+      <c r="G970" s="25"/>
     </row>
     <row r="971" spans="7:7">
-      <c r="G971" s="28"/>
+      <c r="G971" s="25"/>
     </row>
     <row r="972" spans="7:7">
-      <c r="G972" s="28"/>
+      <c r="G972" s="25"/>
     </row>
     <row r="973" spans="7:7">
-      <c r="G973" s="28"/>
+      <c r="G973" s="25"/>
     </row>
     <row r="974" spans="7:7">
-      <c r="G974" s="28"/>
+      <c r="G974" s="25"/>
     </row>
     <row r="975" spans="7:7">
-      <c r="G975" s="28"/>
+      <c r="G975" s="25"/>
     </row>
     <row r="976" spans="7:7">
-      <c r="G976" s="28"/>
+      <c r="G976" s="25"/>
     </row>
     <row r="977" spans="7:7">
-      <c r="G977" s="28"/>
+      <c r="G977" s="25"/>
     </row>
     <row r="978" spans="7:7">
-      <c r="G978" s="28"/>
+      <c r="G978" s="25"/>
     </row>
     <row r="979" spans="7:7">
-      <c r="G979" s="28"/>
+      <c r="G979" s="25"/>
     </row>
     <row r="980" spans="7:7">
-      <c r="G980" s="28"/>
+      <c r="G980" s="25"/>
     </row>
     <row r="981" spans="7:7">
-      <c r="G981" s="28"/>
+      <c r="G981" s="25"/>
     </row>
     <row r="982" spans="7:7">
-      <c r="G982" s="28"/>
+      <c r="G982" s="25"/>
     </row>
     <row r="983" spans="7:7">
-      <c r="G983" s="28"/>
+      <c r="G983" s="25"/>
     </row>
     <row r="984" spans="7:7">
-      <c r="G984" s="28"/>
+      <c r="G984" s="25"/>
     </row>
     <row r="985" spans="7:7">
-      <c r="G985" s="28"/>
+      <c r="G985" s="25"/>
     </row>
     <row r="986" spans="7:7">
-      <c r="G986" s="28"/>
+      <c r="G986" s="25"/>
     </row>
     <row r="987" spans="7:7">
-      <c r="G987" s="28"/>
+      <c r="G987" s="25"/>
     </row>
     <row r="988" spans="7:7">
-      <c r="G988" s="28"/>
+      <c r="G988" s="25"/>
     </row>
     <row r="989" spans="7:7">
-      <c r="G989" s="28"/>
+      <c r="G989" s="25"/>
     </row>
     <row r="990" spans="7:7">
-      <c r="G990" s="28"/>
+      <c r="G990" s="25"/>
     </row>
     <row r="991" spans="7:7">
-      <c r="G991" s="28"/>
+      <c r="G991" s="25"/>
     </row>
     <row r="992" spans="7:7">
-      <c r="G992" s="28"/>
+      <c r="G992" s="25"/>
     </row>
     <row r="993" spans="7:7">
-      <c r="G993" s="28"/>
+      <c r="G993" s="25"/>
     </row>
     <row r="994" spans="7:7">
-      <c r="G994" s="28"/>
+      <c r="G994" s="25"/>
     </row>
     <row r="995" spans="7:7">
-      <c r="G995" s="28"/>
+      <c r="G995" s="25"/>
     </row>
     <row r="996" spans="7:7">
-      <c r="G996" s="28"/>
+      <c r="G996" s="25"/>
     </row>
     <row r="997" spans="7:7">
-      <c r="G997" s="28"/>
+      <c r="G997" s="25"/>
     </row>
     <row r="998" spans="7:7">
-      <c r="G998" s="28"/>
+      <c r="G998" s="25"/>
     </row>
     <row r="999" spans="7:7">
-      <c r="G999" s="28"/>
+      <c r="G999" s="25"/>
     </row>
     <row r="1000" spans="7:7">
-      <c r="G1000" s="28"/>
+      <c r="G1000" s="25"/>
     </row>
     <row r="1001" spans="7:7">
-      <c r="G1001" s="28"/>
+      <c r="G1001" s="25"/>
     </row>
     <row r="1002" spans="7:7">
-      <c r="G1002" s="28"/>
+      <c r="G1002" s="25"/>
     </row>
     <row r="1003" spans="7:7">
-      <c r="G1003" s="28"/>
+      <c r="G1003" s="25"/>
     </row>
     <row r="1004" spans="7:7">
-      <c r="G1004" s="28"/>
+      <c r="G1004" s="25"/>
     </row>
     <row r="1005" spans="7:7">
-      <c r="G1005" s="28"/>
+      <c r="G1005" s="25"/>
     </row>
     <row r="1006" spans="7:7">
-      <c r="G1006" s="28"/>
+      <c r="G1006" s="25"/>
     </row>
     <row r="1007" spans="7:7">
-      <c r="G1007" s="28"/>
+      <c r="G1007" s="25"/>
     </row>
     <row r="1008" spans="7:7">
-      <c r="G1008" s="28"/>
+      <c r="G1008" s="25"/>
     </row>
     <row r="1009" spans="7:7">
-      <c r="G1009" s="28"/>
+      <c r="G1009" s="25"/>
     </row>
     <row r="1010" spans="7:7">
-      <c r="G1010" s="28"/>
+      <c r="G1010" s="25"/>
     </row>
     <row r="1011" spans="7:7">
-      <c r="G1011" s="28"/>
+      <c r="G1011" s="25"/>
     </row>
     <row r="1012" spans="7:7">
-      <c r="G1012" s="28"/>
+      <c r="G1012" s="25"/>
     </row>
     <row r="1013" spans="7:7">
-      <c r="G1013" s="28"/>
+      <c r="G1013" s="25"/>
     </row>
     <row r="1014" spans="7:7">
-      <c r="G1014" s="28"/>
+      <c r="G1014" s="25"/>
     </row>
     <row r="1015" spans="7:7">
-      <c r="G1015" s="28"/>
+      <c r="G1015" s="25"/>
     </row>
     <row r="1016" spans="7:7">
-      <c r="G1016" s="28"/>
+      <c r="G1016" s="25"/>
     </row>
     <row r="1017" spans="7:7">
-      <c r="G1017" s="28"/>
+      <c r="G1017" s="25"/>
     </row>
     <row r="1018" spans="7:7">
-      <c r="G1018" s="28"/>
+      <c r="G1018" s="25"/>
     </row>
     <row r="1019" spans="7:7">
-      <c r="G1019" s="28"/>
+      <c r="G1019" s="25"/>
     </row>
     <row r="1020" spans="7:7">
-      <c r="G1020" s="28"/>
+      <c r="G1020" s="25"/>
     </row>
     <row r="1021" spans="7:7">
-      <c r="G1021" s="28"/>
+      <c r="G1021" s="25"/>
     </row>
     <row r="1022" spans="7:7">
-      <c r="G1022" s="28"/>
+      <c r="G1022" s="25"/>
     </row>
     <row r="1023" spans="7:7">
-      <c r="G1023" s="28"/>
+      <c r="G1023" s="25"/>
     </row>
     <row r="1024" spans="7:7">
-      <c r="G1024" s="28"/>
+      <c r="G1024" s="25"/>
     </row>
     <row r="1025" spans="7:7">
-      <c r="G1025" s="28"/>
+      <c r="G1025" s="25"/>
     </row>
     <row r="1026" spans="7:7">
-      <c r="G1026" s="28"/>
+      <c r="G1026" s="25"/>
     </row>
     <row r="1027" spans="7:7">
-      <c r="G1027" s="28"/>
+      <c r="G1027" s="25"/>
     </row>
     <row r="1028" spans="7:7">
-      <c r="G1028" s="28"/>
+      <c r="G1028" s="25"/>
     </row>
     <row r="1029" spans="7:7">
-      <c r="G1029" s="28"/>
+      <c r="G1029" s="25"/>
     </row>
     <row r="1030" spans="7:7">
-      <c r="G1030" s="28"/>
+      <c r="G1030" s="25"/>
     </row>
     <row r="1031" spans="7:7">
-      <c r="G1031" s="28"/>
+      <c r="G1031" s="25"/>
     </row>
     <row r="1032" spans="7:7">
-      <c r="G1032" s="28"/>
+      <c r="G1032" s="25"/>
     </row>
     <row r="1033" spans="7:7">
-      <c r="G1033" s="28"/>
+      <c r="G1033" s="25"/>
     </row>
     <row r="1034" spans="7:7">
-      <c r="G1034" s="28"/>
+      <c r="G1034" s="25"/>
     </row>
     <row r="1035" spans="7:7">
-      <c r="G1035" s="28"/>
+      <c r="G1035" s="25"/>
     </row>
     <row r="1036" spans="7:7">
-      <c r="G1036" s="28"/>
+      <c r="G1036" s="25"/>
     </row>
     <row r="1037" spans="7:7">
-      <c r="G1037" s="28"/>
+      <c r="G1037" s="25"/>
     </row>
     <row r="1038" spans="7:7">
-      <c r="G1038" s="28"/>
+      <c r="G1038" s="25"/>
     </row>
     <row r="1039" spans="7:7">
-      <c r="G1039" s="28"/>
+      <c r="G1039" s="25"/>
     </row>
     <row r="1040" spans="7:7">
-      <c r="G1040" s="28"/>
+      <c r="G1040" s="25"/>
     </row>
     <row r="1041" spans="7:7">
-      <c r="G1041" s="28"/>
+      <c r="G1041" s="25"/>
     </row>
     <row r="1042" spans="7:7">
-      <c r="G1042" s="28"/>
+      <c r="G1042" s="25"/>
     </row>
     <row r="1043" spans="7:7">
-      <c r="G1043" s="28"/>
+      <c r="G1043" s="25"/>
     </row>
     <row r="1044" spans="7:7">
-      <c r="G1044" s="28"/>
+      <c r="G1044" s="25"/>
     </row>
     <row r="1045" spans="7:7">
-      <c r="G1045" s="28"/>
+      <c r="G1045" s="25"/>
     </row>
     <row r="1046" spans="7:7">
-      <c r="G1046" s="28"/>
+      <c r="G1046" s="25"/>
     </row>
     <row r="1047" spans="7:7">
-      <c r="G1047" s="28"/>
+      <c r="G1047" s="25"/>
     </row>
     <row r="1048" spans="7:7">
-      <c r="G1048" s="28"/>
+      <c r="G1048" s="25"/>
     </row>
     <row r="1049" spans="7:7">
-      <c r="G1049" s="28"/>
+      <c r="G1049" s="25"/>
     </row>
     <row r="1050" spans="7:7">
-      <c r="G1050" s="28"/>
+      <c r="G1050" s="25"/>
     </row>
     <row r="1051" spans="7:7">
-      <c r="G1051" s="28"/>
+      <c r="G1051" s="25"/>
     </row>
     <row r="1052" spans="7:7">
-      <c r="G1052" s="28"/>
+      <c r="G1052" s="25"/>
     </row>
     <row r="1053" spans="7:7">
-      <c r="G1053" s="28"/>
+      <c r="G1053" s="25"/>
     </row>
     <row r="1054" spans="7:7">
-      <c r="G1054" s="28"/>
+      <c r="G1054" s="25"/>
     </row>
     <row r="1055" spans="7:7">
-      <c r="G1055" s="28"/>
+      <c r="G1055" s="25"/>
     </row>
     <row r="1056" spans="7:7">
-      <c r="G1056" s="28"/>
+      <c r="G1056" s="25"/>
     </row>
     <row r="1057" spans="7:7">
-      <c r="G1057" s="28"/>
+      <c r="G1057" s="25"/>
     </row>
     <row r="1058" spans="7:7">
-      <c r="G1058" s="28"/>
+      <c r="G1058" s="25"/>
     </row>
     <row r="1059" spans="7:7">
-      <c r="G1059" s="28"/>
+      <c r="G1059" s="25"/>
     </row>
     <row r="1060" spans="7:7">
-      <c r="G1060" s="28"/>
+      <c r="G1060" s="25"/>
     </row>
     <row r="1061" spans="7:7">
-      <c r="G1061" s="28"/>
+      <c r="G1061" s="25"/>
     </row>
     <row r="1062" spans="7:7">
-      <c r="G1062" s="28"/>
+      <c r="G1062" s="25"/>
     </row>
     <row r="1063" spans="7:7">
-      <c r="G1063" s="28"/>
+      <c r="G1063" s="25"/>
     </row>
     <row r="1064" spans="7:7">
-      <c r="G1064" s="28"/>
+      <c r="G1064" s="25"/>
     </row>
     <row r="1065" spans="7:7">
-      <c r="G1065" s="28"/>
+      <c r="G1065" s="25"/>
     </row>
     <row r="1066" spans="7:7">
-      <c r="G1066" s="28"/>
+      <c r="G1066" s="25"/>
     </row>
     <row r="1067" spans="7:7">
-      <c r="G1067" s="28"/>
+      <c r="G1067" s="25"/>
     </row>
     <row r="1068" spans="7:7">
-      <c r="G1068" s="28"/>
+      <c r="G1068" s="25"/>
     </row>
     <row r="1069" spans="7:7">
-      <c r="G1069" s="28"/>
+      <c r="G1069" s="25"/>
     </row>
     <row r="1070" spans="7:7">
-      <c r="G1070" s="28"/>
+      <c r="G1070" s="25"/>
     </row>
     <row r="1071" spans="7:7">
-      <c r="G1071" s="28"/>
+      <c r="G1071" s="25"/>
     </row>
     <row r="1072" spans="7:7">
-      <c r="G1072" s="28"/>
+      <c r="G1072" s="25"/>
     </row>
     <row r="1073" spans="7:7">
-      <c r="G1073" s="28"/>
+      <c r="G1073" s="25"/>
     </row>
     <row r="1074" spans="7:7">
-      <c r="G1074" s="28"/>
+      <c r="G1074" s="25"/>
     </row>
     <row r="1075" spans="7:7">
-      <c r="G1075" s="28"/>
+      <c r="G1075" s="25"/>
     </row>
     <row r="1076" spans="7:7">
-      <c r="G1076" s="28"/>
+      <c r="G1076" s="25"/>
     </row>
     <row r="1077" spans="7:7">
-      <c r="G1077" s="28"/>
+      <c r="G1077" s="25"/>
     </row>
     <row r="1078" spans="7:7">
-      <c r="G1078" s="28"/>
+      <c r="G1078" s="25"/>
     </row>
     <row r="1079" spans="7:7">
-      <c r="G1079" s="28"/>
+      <c r="G1079" s="25"/>
     </row>
     <row r="1080" spans="7:7">
-      <c r="G1080" s="28"/>
+      <c r="G1080" s="25"/>
     </row>
     <row r="1081" spans="7:7">
-      <c r="G1081" s="28"/>
+      <c r="G1081" s="25"/>
     </row>
     <row r="1082" spans="7:7">
-      <c r="G1082" s="28"/>
+      <c r="G1082" s="25"/>
     </row>
     <row r="1083" spans="7:7">
-      <c r="G1083" s="28"/>
+      <c r="G1083" s="25"/>
     </row>
     <row r="1084" spans="7:7">
-      <c r="G1084" s="28"/>
+      <c r="G1084" s="25"/>
     </row>
     <row r="1085" spans="7:7">
-      <c r="G1085" s="28"/>
+      <c r="G1085" s="25"/>
     </row>
     <row r="1086" spans="7:7">
-      <c r="G1086" s="28"/>
+      <c r="G1086" s="25"/>
     </row>
     <row r="1087" spans="7:7">
-      <c r="G1087" s="28"/>
+      <c r="G1087" s="25"/>
     </row>
     <row r="1088" spans="7:7">
-      <c r="G1088" s="28"/>
+      <c r="G1088" s="25"/>
     </row>
     <row r="1089" spans="7:7">
-      <c r="G1089" s="28"/>
+      <c r="G1089" s="25"/>
     </row>
     <row r="1090" spans="7:7">
-      <c r="G1090" s="28"/>
+      <c r="G1090" s="25"/>
     </row>
     <row r="1091" spans="7:7">
-      <c r="G1091" s="28"/>
+      <c r="G1091" s="25"/>
     </row>
     <row r="1092" spans="7:7">
-      <c r="G1092" s="28"/>
+      <c r="G1092" s="25"/>
     </row>
     <row r="1093" spans="7:7">
-      <c r="G1093" s="28"/>
+      <c r="G1093" s="25"/>
     </row>
     <row r="1094" spans="7:7">
-      <c r="G1094" s="28"/>
+      <c r="G1094" s="25"/>
     </row>
     <row r="1095" spans="7:7">
-      <c r="G1095" s="28"/>
+      <c r="G1095" s="25"/>
     </row>
     <row r="1096" spans="7:7">
-      <c r="G1096" s="28"/>
+      <c r="G1096" s="25"/>
     </row>
     <row r="1097" spans="7:7">
-      <c r="G1097" s="28"/>
+      <c r="G1097" s="25"/>
     </row>
     <row r="1098" spans="7:7">
-      <c r="G1098" s="28"/>
+      <c r="G1098" s="25"/>
     </row>
     <row r="1099" spans="7:7">
-      <c r="G1099" s="28"/>
+      <c r="G1099" s="25"/>
     </row>
     <row r="1100" spans="7:7">
-      <c r="G1100" s="28"/>
+      <c r="G1100" s="25"/>
     </row>
     <row r="1101" spans="7:7">
-      <c r="G1101" s="28"/>
+      <c r="G1101" s="25"/>
     </row>
     <row r="1102" spans="7:7">
-      <c r="G1102" s="28"/>
+      <c r="G1102" s="25"/>
     </row>
     <row r="1103" spans="7:7">
-      <c r="G1103" s="28"/>
+      <c r="G1103" s="25"/>
     </row>
     <row r="1104" spans="7:7">
-      <c r="G1104" s="28"/>
+      <c r="G1104" s="25"/>
     </row>
     <row r="1105" spans="7:7">
-      <c r="G1105" s="28"/>
+      <c r="G1105" s="25"/>
     </row>
     <row r="1106" spans="7:7">
-      <c r="G1106" s="28"/>
+      <c r="G1106" s="25"/>
     </row>
     <row r="1107" spans="7:7">
-      <c r="G1107" s="28"/>
+      <c r="G1107" s="25"/>
     </row>
     <row r="1108" spans="7:7">
-      <c r="G1108" s="28"/>
+      <c r="G1108" s="25"/>
     </row>
     <row r="1109" spans="7:7">
-      <c r="G1109" s="28"/>
+      <c r="G1109" s="25"/>
     </row>
     <row r="1110" spans="7:7">
-      <c r="G1110" s="28"/>
+      <c r="G1110" s="25"/>
     </row>
     <row r="1111" spans="7:7">
-      <c r="G1111" s="28"/>
+      <c r="G1111" s="25"/>
     </row>
     <row r="1112" spans="7:7">
-      <c r="G1112" s="28"/>
+      <c r="G1112" s="25"/>
     </row>
     <row r="1113" spans="7:7">
-      <c r="G1113" s="28"/>
+      <c r="G1113" s="25"/>
     </row>
     <row r="1114" spans="7:7">
-      <c r="G1114" s="28"/>
+      <c r="G1114" s="25"/>
     </row>
     <row r="1115" spans="7:7">
-      <c r="G1115" s="28"/>
+      <c r="G1115" s="25"/>
     </row>
     <row r="1116" spans="7:7">
-      <c r="G1116" s="28"/>
+      <c r="G1116" s="25"/>
     </row>
     <row r="1117" spans="7:7">
-      <c r="G1117" s="28"/>
+      <c r="G1117" s="25"/>
     </row>
     <row r="1118" spans="7:7">
-      <c r="G1118" s="28"/>
+      <c r="G1118" s="25"/>
     </row>
     <row r="1119" spans="7:7">
-      <c r="G1119" s="28"/>
+      <c r="G1119" s="25"/>
     </row>
     <row r="1120" spans="7:7">
-      <c r="G1120" s="28"/>
+      <c r="G1120" s="25"/>
     </row>
     <row r="1121" spans="7:7">
-      <c r="G1121" s="28"/>
+      <c r="G1121" s="25"/>
     </row>
     <row r="1122" spans="7:7">
-      <c r="G1122" s="28"/>
+      <c r="G1122" s="25"/>
     </row>
     <row r="1123" spans="7:7">
-      <c r="G1123" s="28"/>
+      <c r="G1123" s="25"/>
     </row>
     <row r="1124" spans="7:7">
-      <c r="G1124" s="28"/>
+      <c r="G1124" s="25"/>
     </row>
     <row r="1125" spans="7:7">
-      <c r="G1125" s="28"/>
+      <c r="G1125" s="25"/>
     </row>
     <row r="1126" spans="7:7">
-      <c r="G1126" s="28"/>
+      <c r="G1126" s="25"/>
     </row>
     <row r="1127" spans="7:7">
-      <c r="G1127" s="28"/>
+      <c r="G1127" s="25"/>
     </row>
     <row r="1128" spans="7:7">
-      <c r="G1128" s="28"/>
+      <c r="G1128" s="25"/>
     </row>
     <row r="1129" spans="7:7">
-      <c r="G1129" s="28"/>
+      <c r="G1129" s="25"/>
     </row>
     <row r="1130" spans="7:7">
-      <c r="G1130" s="28"/>
+      <c r="G1130" s="25"/>
     </row>
     <row r="1131" spans="7:7">
-      <c r="G1131" s="28"/>
+      <c r="G1131" s="25"/>
     </row>
     <row r="1132" spans="7:7">
-      <c r="G1132" s="28"/>
+      <c r="G1132" s="25"/>
     </row>
     <row r="1133" spans="7:7">
-      <c r="G1133" s="28"/>
+      <c r="G1133" s="25"/>
     </row>
     <row r="1134" spans="7:7">
-      <c r="G1134" s="28"/>
+      <c r="G1134" s="25"/>
     </row>
     <row r="1135" spans="7:7">
-      <c r="G1135" s="28"/>
+      <c r="G1135" s="25"/>
     </row>
     <row r="1136" spans="7:7">
-      <c r="G1136" s="28"/>
+      <c r="G1136" s="25"/>
     </row>
     <row r="1137" spans="7:7">
-      <c r="G1137" s="28"/>
+      <c r="G1137" s="25"/>
     </row>
     <row r="1138" spans="7:7">
-      <c r="G1138" s="28"/>
+      <c r="G1138" s="25"/>
     </row>
     <row r="1139" spans="7:7">
-      <c r="G1139" s="28"/>
+      <c r="G1139" s="25"/>
     </row>
     <row r="1140" spans="7:7">
-      <c r="G1140" s="28"/>
+      <c r="G1140" s="25"/>
     </row>
     <row r="1141" spans="7:7">
-      <c r="G1141" s="28"/>
+      <c r="G1141" s="25"/>
     </row>
     <row r="1142" spans="7:7">
-      <c r="G1142" s="28"/>
+      <c r="G1142" s="25"/>
     </row>
     <row r="1143" spans="7:7">
-      <c r="G1143" s="28"/>
+      <c r="G1143" s="25"/>
     </row>
     <row r="1144" spans="7:7">
-      <c r="G1144" s="28"/>
+      <c r="G1144" s="25"/>
     </row>
     <row r="1145" spans="7:7">
-      <c r="G1145" s="28"/>
+      <c r="G1145" s="25"/>
     </row>
     <row r="1146" spans="7:7">
-      <c r="G1146" s="28"/>
+      <c r="G1146" s="25"/>
     </row>
     <row r="1147" spans="7:7">
-      <c r="G1147" s="28"/>
+      <c r="G1147" s="25"/>
     </row>
     <row r="1148" spans="7:7">
-      <c r="G1148" s="28"/>
+      <c r="G1148" s="25"/>
     </row>
     <row r="1149" spans="7:7">
-      <c r="G1149" s="28"/>
+      <c r="G1149" s="25"/>
     </row>
     <row r="1150" spans="7:7">
-      <c r="G1150" s="28"/>
+      <c r="G1150" s="25"/>
     </row>
     <row r="1151" spans="7:7">
-      <c r="G1151" s="28"/>
+      <c r="G1151" s="25"/>
     </row>
     <row r="1152" spans="7:7">
-      <c r="G1152" s="28"/>
+      <c r="G1152" s="25"/>
     </row>
     <row r="1153" spans="7:7">
-      <c r="G1153" s="28"/>
+      <c r="G1153" s="25"/>
     </row>
     <row r="1154" spans="7:7">
-      <c r="G1154" s="28"/>
+      <c r="G1154" s="25"/>
     </row>
     <row r="1155" spans="7:7">
-      <c r="G1155" s="28"/>
+      <c r="G1155" s="25"/>
     </row>
     <row r="1156" spans="7:7">
-      <c r="G1156" s="28"/>
+      <c r="G1156" s="25"/>
     </row>
     <row r="1157" spans="7:7">
-      <c r="G1157" s="28"/>
+      <c r="G1157" s="25"/>
     </row>
     <row r="1158" spans="7:7">
-      <c r="G1158" s="28"/>
+      <c r="G1158" s="25"/>
     </row>
     <row r="1159" spans="7:7">
-      <c r="G1159" s="28"/>
+      <c r="G1159" s="25"/>
     </row>
     <row r="1160" spans="7:7">
-      <c r="G1160" s="28"/>
+      <c r="G1160" s="25"/>
     </row>
     <row r="1161" spans="7:7">
-      <c r="G1161" s="28"/>
+      <c r="G1161" s="25"/>
     </row>
     <row r="1162" spans="7:7">
-      <c r="G1162" s="28"/>
+      <c r="G1162" s="25"/>
     </row>
     <row r="1163" spans="7:7">
-      <c r="G1163" s="28"/>
+      <c r="G1163" s="25"/>
     </row>
     <row r="1164" spans="7:7">
-      <c r="G1164" s="28"/>
+      <c r="G1164" s="25"/>
     </row>
     <row r="1165" spans="7:7">
-      <c r="G1165" s="28"/>
+      <c r="G1165" s="25"/>
     </row>
     <row r="1166" spans="7:7">
-      <c r="G1166" s="28"/>
+      <c r="G1166" s="25"/>
     </row>
     <row r="1167" spans="7:7">
-      <c r="G1167" s="28"/>
+      <c r="G1167" s="25"/>
     </row>
     <row r="1168" spans="7:7">
-      <c r="G1168" s="28"/>
+      <c r="G1168" s="25"/>
     </row>
     <row r="1169" spans="7:7">
-      <c r="G1169" s="28"/>
+      <c r="G1169" s="25"/>
     </row>
     <row r="1170" spans="7:7">
-      <c r="G1170" s="28"/>
+      <c r="G1170" s="25"/>
     </row>
     <row r="1171" spans="7:7">
-      <c r="G1171" s="28"/>
+      <c r="G1171" s="25"/>
     </row>
     <row r="1172" spans="7:7">
-      <c r="G1172" s="28"/>
+      <c r="G1172" s="25"/>
     </row>
     <row r="1173" spans="7:7">
-      <c r="G1173" s="28"/>
+      <c r="G1173" s="25"/>
     </row>
     <row r="1174" spans="7:7">
-      <c r="G1174" s="28"/>
+      <c r="G1174" s="25"/>
     </row>
     <row r="1175" spans="7:7">
-      <c r="G1175" s="28"/>
+      <c r="G1175" s="25"/>
     </row>
     <row r="1176" spans="7:7">
-      <c r="G1176" s="28"/>
+      <c r="G1176" s="25"/>
     </row>
     <row r="1177" spans="7:7">
-      <c r="G1177" s="28"/>
+      <c r="G1177" s="25"/>
     </row>
     <row r="1178" spans="7:7">
-      <c r="G1178" s="28"/>
+      <c r="G1178" s="25"/>
     </row>
     <row r="1179" spans="7:7">
-      <c r="G1179" s="28"/>
+      <c r="G1179" s="25"/>
     </row>
     <row r="1180" spans="7:7">
-      <c r="G1180" s="28"/>
+      <c r="G1180" s="25"/>
     </row>
     <row r="1181" spans="7:7">
-      <c r="G1181" s="28"/>
+      <c r="G1181" s="25"/>
     </row>
     <row r="1182" spans="7:7">
-      <c r="G1182" s="28"/>
+      <c r="G1182" s="25"/>
     </row>
     <row r="1183" spans="7:7">
-      <c r="G1183" s="28"/>
+      <c r="G1183" s="25"/>
     </row>
     <row r="1184" spans="7:7">
-      <c r="G1184" s="28"/>
+      <c r="G1184" s="25"/>
     </row>
     <row r="1185" spans="7:7">
-      <c r="G1185" s="28"/>
+      <c r="G1185" s="25"/>
     </row>
     <row r="1186" spans="7:7">
-      <c r="G1186" s="28"/>
+      <c r="G1186" s="25"/>
     </row>
     <row r="1187" spans="7:7">
-      <c r="G1187" s="28"/>
+      <c r="G1187" s="25"/>
     </row>
     <row r="1188" spans="7:7">
-      <c r="G1188" s="28"/>
+      <c r="G1188" s="25"/>
     </row>
     <row r="1189" spans="7:7">
-      <c r="G1189" s="28"/>
+      <c r="G1189" s="25"/>
     </row>
     <row r="1190" spans="7:7">
-      <c r="G1190" s="28"/>
+      <c r="G1190" s="25"/>
     </row>
     <row r="1191" spans="7:7">
-      <c r="G1191" s="28"/>
+      <c r="G1191" s="25"/>
     </row>
     <row r="1192" spans="7:7">
-      <c r="G1192" s="28"/>
+      <c r="G1192" s="25"/>
     </row>
     <row r="1193" spans="7:7">
-      <c r="G1193" s="28"/>
+      <c r="G1193" s="25"/>
     </row>
     <row r="1194" spans="7:7">
-      <c r="G1194" s="28"/>
+      <c r="G1194" s="25"/>
     </row>
     <row r="1195" spans="7:7">
-      <c r="G1195" s="28"/>
+      <c r="G1195" s="25"/>
     </row>
     <row r="1196" spans="7:7">
-      <c r="G1196" s="28"/>
+      <c r="G1196" s="25"/>
     </row>
     <row r="1197" spans="7:7">
-      <c r="G1197" s="28"/>
+      <c r="G1197" s="25"/>
     </row>
     <row r="1198" spans="7:7">
-      <c r="G1198" s="28"/>
+      <c r="G1198" s="25"/>
     </row>
     <row r="1199" spans="7:7">
-      <c r="G1199" s="28"/>
+      <c r="G1199" s="25"/>
     </row>
     <row r="1200" spans="7:7">
-      <c r="G1200" s="28"/>
+      <c r="G1200" s="25"/>
     </row>
     <row r="1201" spans="7:7">
-      <c r="G1201" s="28"/>
+      <c r="G1201" s="25"/>
     </row>
     <row r="1202" spans="7:7">
-      <c r="G1202" s="28"/>
+      <c r="G1202" s="25"/>
     </row>
     <row r="1203" spans="7:7">
-      <c r="G1203" s="28"/>
+      <c r="G1203" s="25"/>
     </row>
     <row r="1204" spans="7:7">
-      <c r="G1204" s="28"/>
+      <c r="G1204" s="25"/>
     </row>
     <row r="1205" spans="7:7">
-      <c r="G1205" s="28"/>
+      <c r="G1205" s="25"/>
     </row>
     <row r="1206" spans="7:7">
-      <c r="G1206" s="28"/>
+      <c r="G1206" s="25"/>
     </row>
     <row r="1207" spans="7:7">
-      <c r="G1207" s="28"/>
+      <c r="G1207" s="25"/>
     </row>
     <row r="1208" spans="7:7">
-      <c r="G1208" s="28"/>
+      <c r="G1208" s="25"/>
     </row>
     <row r="1209" spans="7:7">
-      <c r="G1209" s="28"/>
+      <c r="G1209" s="25"/>
     </row>
     <row r="1210" spans="7:7">
-      <c r="G1210" s="28"/>
+      <c r="G1210" s="25"/>
     </row>
     <row r="1211" spans="7:7">
-      <c r="G1211" s="28"/>
+      <c r="G1211" s="25"/>
     </row>
     <row r="1212" spans="7:7">
-      <c r="G1212" s="28"/>
+      <c r="G1212" s="25"/>
     </row>
     <row r="1213" spans="7:7">
-      <c r="G1213" s="28"/>
+      <c r="G1213" s="25"/>
     </row>
     <row r="1214" spans="7:7">
-      <c r="G1214" s="28"/>
+      <c r="G1214" s="25"/>
     </row>
     <row r="1215" spans="7:7">
-      <c r="G1215" s="28"/>
+      <c r="G1215" s="25"/>
     </row>
     <row r="1216" spans="7:7">
-      <c r="G1216" s="28"/>
+      <c r="G1216" s="25"/>
     </row>
     <row r="1217" spans="7:7">
-      <c r="G1217" s="28"/>
+      <c r="G1217" s="25"/>
     </row>
     <row r="1218" spans="7:7">
-      <c r="G1218" s="28"/>
+      <c r="G1218" s="25"/>
     </row>
     <row r="1219" spans="7:7">
-      <c r="G1219" s="28"/>
+      <c r="G1219" s="25"/>
     </row>
     <row r="1220" spans="7:7">
-      <c r="G1220" s="28"/>
+      <c r="G1220" s="25"/>
     </row>
     <row r="1221" spans="7:7">
-      <c r="G1221" s="28"/>
+      <c r="G1221" s="25"/>
     </row>
     <row r="1222" spans="7:7">
-      <c r="G1222" s="28"/>
+      <c r="G1222" s="25"/>
     </row>
     <row r="1223" spans="7:7">
-      <c r="G1223" s="28"/>
+      <c r="G1223" s="25"/>
     </row>
     <row r="1224" spans="7:7">
-      <c r="G1224" s="28"/>
+      <c r="G1224" s="25"/>
     </row>
     <row r="1225" spans="7:7">
-      <c r="G1225" s="28"/>
+      <c r="G1225" s="25"/>
     </row>
     <row r="1226" spans="7:7">
-      <c r="G1226" s="28"/>
+      <c r="G1226" s="25"/>
     </row>
     <row r="1227" spans="7:7">
-      <c r="G1227" s="28"/>
+      <c r="G1227" s="25"/>
     </row>
     <row r="1228" spans="7:7">
-      <c r="G1228" s="28"/>
+      <c r="G1228" s="25"/>
     </row>
     <row r="1229" spans="7:7">
-      <c r="G1229" s="28"/>
+      <c r="G1229" s="25"/>
     </row>
     <row r="1230" spans="7:7">
-      <c r="G1230" s="28"/>
+      <c r="G1230" s="25"/>
     </row>
     <row r="1231" spans="7:7">
-      <c r="G1231" s="28"/>
+      <c r="G1231" s="25"/>
     </row>
     <row r="1232" spans="7:7">
-      <c r="G1232" s="28"/>
+      <c r="G1232" s="25"/>
     </row>
     <row r="1233" spans="7:7">
-      <c r="G1233" s="28"/>
+      <c r="G1233" s="25"/>
     </row>
     <row r="1234" spans="7:7">
-      <c r="G1234" s="28"/>
+      <c r="G1234" s="25"/>
     </row>
     <row r="1235" spans="7:7">
-      <c r="G1235" s="28"/>
+      <c r="G1235" s="25"/>
     </row>
     <row r="1236" spans="7:7">
-      <c r="G1236" s="28"/>
+      <c r="G1236" s="25"/>
     </row>
     <row r="1237" spans="7:7">
-      <c r="G1237" s="28"/>
+      <c r="G1237" s="25"/>
     </row>
     <row r="1238" spans="7:7">
-      <c r="G1238" s="28"/>
+      <c r="G1238" s="25"/>
     </row>
     <row r="1239" spans="7:7">
-      <c r="G1239" s="28"/>
+      <c r="G1239" s="25"/>
     </row>
     <row r="1240" spans="7:7">
-      <c r="G1240" s="28"/>
+      <c r="G1240" s="25"/>
     </row>
     <row r="1241" spans="7:7">
-      <c r="G1241" s="28"/>
+      <c r="G1241" s="25"/>
     </row>
     <row r="1242" spans="7:7">
-      <c r="G1242" s="28"/>
+      <c r="G1242" s="25"/>
     </row>
     <row r="1243" spans="7:7">
-      <c r="G1243" s="28"/>
+      <c r="G1243" s="25"/>
     </row>
     <row r="1244" spans="7:7">
-      <c r="G1244" s="28"/>
+      <c r="G1244" s="25"/>
     </row>
     <row r="1245" spans="7:7">
-      <c r="G1245" s="28"/>
+      <c r="G1245" s="25"/>
     </row>
     <row r="1246" spans="7:7">
-      <c r="G1246" s="28"/>
+      <c r="G1246" s="25"/>
     </row>
     <row r="1247" spans="7:7">
-      <c r="G1247" s="28"/>
+      <c r="G1247" s="25"/>
     </row>
     <row r="1248" spans="7:7">
-      <c r="G1248" s="28"/>
+      <c r="G1248" s="25"/>
     </row>
     <row r="1249" spans="7:7">
-      <c r="G1249" s="28"/>
+      <c r="G1249" s="25"/>
     </row>
     <row r="1250" spans="7:7">
-      <c r="G1250" s="28"/>
+      <c r="G1250" s="25"/>
     </row>
     <row r="1251" spans="7:7">
-      <c r="G1251" s="28"/>
+      <c r="G1251" s="25"/>
     </row>
     <row r="1252" spans="7:7">
-      <c r="G1252" s="28"/>
+      <c r="G1252" s="25"/>
     </row>
     <row r="1253" spans="7:7">
-      <c r="G1253" s="28"/>
+      <c r="G1253" s="25"/>
     </row>
     <row r="1254" spans="7:7">
-      <c r="G1254" s="28"/>
+      <c r="G1254" s="25"/>
     </row>
     <row r="1255" spans="7:7">
-      <c r="G1255" s="28"/>
+      <c r="G1255" s="25"/>
     </row>
     <row r="1256" spans="7:7">
-      <c r="G1256" s="28"/>
+      <c r="G1256" s="25"/>
     </row>
     <row r="1257" spans="7:7">
-      <c r="G1257" s="28"/>
+      <c r="G1257" s="25"/>
     </row>
     <row r="1258" spans="7:7">
-      <c r="G1258" s="28"/>
+      <c r="G1258" s="25"/>
     </row>
     <row r="1259" spans="7:7">
-      <c r="G1259" s="28"/>
+      <c r="G1259" s="25"/>
     </row>
     <row r="1260" spans="7:7">
-      <c r="G1260" s="28"/>
+      <c r="G1260" s="25"/>
     </row>
     <row r="1261" spans="7:7">
-      <c r="G1261" s="28"/>
+      <c r="G1261" s="25"/>
     </row>
     <row r="1262" spans="7:7">
-      <c r="G1262" s="28"/>
+      <c r="G1262" s="25"/>
     </row>
     <row r="1263" spans="7:7">
-      <c r="G1263" s="28"/>
+      <c r="G1263" s="25"/>
     </row>
     <row r="1264" spans="7:7">
-      <c r="G1264" s="28"/>
+      <c r="G1264" s="25"/>
     </row>
     <row r="1265" spans="7:7">
-      <c r="G1265" s="28"/>
+      <c r="G1265" s="25"/>
     </row>
     <row r="1266" spans="7:7">
-      <c r="G1266" s="28"/>
+      <c r="G1266" s="25"/>
     </row>
     <row r="1267" spans="7:7">
-      <c r="G1267" s="28"/>
+      <c r="G1267" s="25"/>
     </row>
     <row r="1268" spans="7:7">
-      <c r="G1268" s="28"/>
+      <c r="G1268" s="25"/>
     </row>
     <row r="1269" spans="7:7">
-      <c r="G1269" s="28"/>
+      <c r="G1269" s="25"/>
     </row>
     <row r="1270" spans="7:7">
-      <c r="G1270" s="28"/>
+      <c r="G1270" s="25"/>
     </row>
     <row r="1271" spans="7:7">
-      <c r="G1271" s="28"/>
+      <c r="G1271" s="25"/>
     </row>
     <row r="1272" spans="7:7">
-      <c r="G1272" s="28"/>
+      <c r="G1272" s="25"/>
     </row>
     <row r="1273" spans="7:7">
-      <c r="G1273" s="28"/>
+      <c r="G1273" s="25"/>
     </row>
     <row r="1274" spans="7:7">
-      <c r="G1274" s="28"/>
+      <c r="G1274" s="25"/>
     </row>
     <row r="1275" spans="7:7">
-      <c r="G1275" s="28"/>
+      <c r="G1275" s="25"/>
     </row>
     <row r="1276" spans="7:7">
-      <c r="G1276" s="28"/>
+      <c r="G1276" s="25"/>
     </row>
     <row r="1277" spans="7:7">
-      <c r="G1277" s="28"/>
+      <c r="G1277" s="25"/>
     </row>
     <row r="1278" spans="7:7">
-      <c r="G1278" s="28"/>
+      <c r="G1278" s="25"/>
     </row>
     <row r="1279" spans="7:7">
-      <c r="G1279" s="28"/>
+      <c r="G1279" s="25"/>
     </row>
     <row r="1280" spans="7:7">
-      <c r="G1280" s="28"/>
+      <c r="G1280" s="25"/>
     </row>
     <row r="1281" spans="7:7">
-      <c r="G1281" s="28"/>
+      <c r="G1281" s="25"/>
     </row>
     <row r="1282" spans="7:7">
-      <c r="G1282" s="28"/>
+      <c r="G1282" s="25"/>
     </row>
     <row r="1283" spans="7:7">
-      <c r="G1283" s="28"/>
+      <c r="G1283" s="25"/>
     </row>
     <row r="1284" spans="7:7">
-      <c r="G1284" s="28"/>
+      <c r="G1284" s="25"/>
     </row>
     <row r="1285" spans="7:7">
-      <c r="G1285" s="28"/>
+      <c r="G1285" s="25"/>
     </row>
     <row r="1286" spans="7:7">
-      <c r="G1286" s="28"/>
+      <c r="G1286" s="25"/>
     </row>
     <row r="1287" spans="7:7">
-      <c r="G1287" s="28"/>
+      <c r="G1287" s="25"/>
     </row>
     <row r="1288" spans="7:7">
-      <c r="G1288" s="28"/>
+      <c r="G1288" s="25"/>
     </row>
     <row r="1289" spans="7:7">
-      <c r="G1289" s="28"/>
+      <c r="G1289" s="25"/>
     </row>
     <row r="1290" spans="7:7">
-      <c r="G1290" s="28"/>
+      <c r="G1290" s="25"/>
     </row>
     <row r="1291" spans="7:7">
-      <c r="G1291" s="28"/>
+      <c r="G1291" s="25"/>
     </row>
     <row r="1292" spans="7:7">
-      <c r="G1292" s="28"/>
+      <c r="G1292" s="25"/>
     </row>
     <row r="1293" spans="7:7">
-      <c r="G1293" s="28"/>
+      <c r="G1293" s="25"/>
     </row>
     <row r="1294" spans="7:7">
-      <c r="G1294" s="28"/>
+      <c r="G1294" s="25"/>
     </row>
     <row r="1295" spans="7:7">
-      <c r="G1295" s="28"/>
+      <c r="G1295" s="25"/>
     </row>
     <row r="1296" spans="7:7">
-      <c r="G1296" s="28"/>
+      <c r="G1296" s="25"/>
     </row>
     <row r="1297" spans="7:7">
-      <c r="G1297" s="28"/>
+      <c r="G1297" s="25"/>
     </row>
     <row r="1298" spans="7:7">
-      <c r="G1298" s="28"/>
+      <c r="G1298" s="25"/>
     </row>
     <row r="1299" spans="7:7">
-      <c r="G1299" s="28"/>
+      <c r="G1299" s="25"/>
     </row>
     <row r="1300" spans="7:7">
-      <c r="G1300" s="28"/>
+      <c r="G1300" s="25"/>
     </row>
     <row r="1301" spans="7:7">
-      <c r="G1301" s="28"/>
+      <c r="G1301" s="25"/>
     </row>
     <row r="1302" spans="7:7">
-      <c r="G1302" s="28"/>
+      <c r="G1302" s="25"/>
     </row>
     <row r="1303" spans="7:7">
-      <c r="G1303" s="28"/>
+      <c r="G1303" s="25"/>
     </row>
     <row r="1304" spans="7:7">
-      <c r="G1304" s="28"/>
+      <c r="G1304" s="25"/>
     </row>
     <row r="1305" spans="7:7">
-      <c r="G1305" s="28"/>
+      <c r="G1305" s="25"/>
     </row>
     <row r="1306" spans="7:7">
-      <c r="G1306" s="28"/>
+      <c r="G1306" s="25"/>
     </row>
     <row r="1307" spans="7:7">
-      <c r="G1307" s="28"/>
+      <c r="G1307" s="25"/>
     </row>
     <row r="1308" spans="7:7">
-      <c r="G1308" s="28"/>
+      <c r="G1308" s="25"/>
     </row>
     <row r="1309" spans="7:7">
-      <c r="G1309" s="28"/>
+      <c r="G1309" s="25"/>
     </row>
     <row r="1310" spans="7:7">
-      <c r="G1310" s="28"/>
+      <c r="G1310" s="25"/>
     </row>
     <row r="1311" spans="7:7">
-      <c r="G1311" s="28"/>
+      <c r="G1311" s="25"/>
     </row>
     <row r="1312" spans="7:7">
-      <c r="G1312" s="28"/>
+      <c r="G1312" s="25"/>
     </row>
     <row r="1313" spans="7:7">
-      <c r="G1313" s="28"/>
+      <c r="G1313" s="25"/>
     </row>
     <row r="1314" spans="7:7">
-      <c r="G1314" s="28"/>
+      <c r="G1314" s="25"/>
     </row>
     <row r="1315" spans="7:7">
-      <c r="G1315" s="28"/>
+      <c r="G1315" s="25"/>
     </row>
     <row r="1316" spans="7:7">
-      <c r="G1316" s="28"/>
+      <c r="G1316" s="25"/>
     </row>
     <row r="1317" spans="7:7">
-      <c r="G1317" s="28"/>
+      <c r="G1317" s="25"/>
     </row>
     <row r="1318" spans="7:7">
-      <c r="G1318" s="28"/>
+      <c r="G1318" s="25"/>
     </row>
     <row r="1319" spans="7:7">
-      <c r="G1319" s="28"/>
+      <c r="G1319" s="25"/>
     </row>
     <row r="1320" spans="7:7">
-      <c r="G1320" s="28"/>
+      <c r="G1320" s="25"/>
     </row>
     <row r="1321" spans="7:7">
-      <c r="G1321" s="28"/>
+      <c r="G1321" s="25"/>
     </row>
     <row r="1322" spans="7:7">
-      <c r="G1322" s="28"/>
+      <c r="G1322" s="25"/>
     </row>
     <row r="1323" spans="7:7">
-      <c r="G1323" s="28"/>
+      <c r="G1323" s="25"/>
     </row>
     <row r="1324" spans="7:7">
-      <c r="G1324" s="28"/>
+      <c r="G1324" s="25"/>
     </row>
     <row r="1325" spans="7:7">
-      <c r="G1325" s="28"/>
+      <c r="G1325" s="25"/>
     </row>
     <row r="1326" spans="7:7">
-      <c r="G1326" s="28"/>
+      <c r="G1326" s="25"/>
     </row>
     <row r="1327" spans="7:7">
-      <c r="G1327" s="28"/>
+      <c r="G1327" s="25"/>
     </row>
     <row r="1328" spans="7:7">
-      <c r="G1328" s="28"/>
+      <c r="G1328" s="25"/>
     </row>
     <row r="1329" spans="7:7">
-      <c r="G1329" s="28"/>
+      <c r="G1329" s="25"/>
     </row>
     <row r="1330" spans="7:7">
-      <c r="G1330" s="28"/>
+      <c r="G1330" s="25"/>
     </row>
     <row r="1331" spans="7:7">
-      <c r="G1331" s="28"/>
+      <c r="G1331" s="25"/>
     </row>
     <row r="1332" spans="7:7">
-      <c r="G1332" s="28"/>
+      <c r="G1332" s="25"/>
     </row>
     <row r="1333" spans="7:7">
-      <c r="G1333" s="28"/>
+      <c r="G1333" s="25"/>
     </row>
     <row r="1334" spans="7:7">
-      <c r="G1334" s="28"/>
+      <c r="G1334" s="25"/>
     </row>
     <row r="1335" spans="7:7">
-      <c r="G1335" s="28"/>
+      <c r="G1335" s="25"/>
     </row>
     <row r="1336" spans="7:7">
-      <c r="G1336" s="28"/>
+      <c r="G1336" s="25"/>
     </row>
     <row r="1337" spans="7:7">
-      <c r="G1337" s="28"/>
+      <c r="G1337" s="25"/>
     </row>
     <row r="1338" spans="7:7">
-      <c r="G1338" s="28"/>
+      <c r="G1338" s="25"/>
     </row>
     <row r="1339" spans="7:7">
-      <c r="G1339" s="28"/>
+      <c r="G1339" s="25"/>
     </row>
     <row r="1340" spans="7:7">
-      <c r="G1340" s="28"/>
+      <c r="G1340" s="25"/>
     </row>
     <row r="1341" spans="7:7">
-      <c r="G1341" s="28"/>
+      <c r="G1341" s="25"/>
     </row>
     <row r="1342" spans="7:7">
-      <c r="G1342" s="28"/>
+      <c r="G1342" s="25"/>
     </row>
     <row r="1343" spans="7:7">
-      <c r="G1343" s="28"/>
+      <c r="G1343" s="25"/>
     </row>
     <row r="1344" spans="7:7">
-      <c r="G1344" s="28"/>
+      <c r="G1344" s="25"/>
     </row>
     <row r="1345" spans="7:7">
-      <c r="G1345" s="28"/>
+      <c r="G1345" s="25"/>
     </row>
     <row r="1346" spans="7:7">
-      <c r="G1346" s="28"/>
+      <c r="G1346" s="25"/>
     </row>
     <row r="1347" spans="7:7">
-      <c r="G1347" s="28"/>
+      <c r="G1347" s="25"/>
     </row>
     <row r="1348" spans="7:7">
-      <c r="G1348" s="28"/>
+      <c r="G1348" s="25"/>
     </row>
     <row r="1349" spans="7:7">
-      <c r="G1349" s="28"/>
+      <c r="G1349" s="25"/>
     </row>
     <row r="1350" spans="7:7">
-      <c r="G1350" s="28"/>
+      <c r="G1350" s="25"/>
     </row>
     <row r="1351" spans="7:7">
-      <c r="G1351" s="28"/>
+      <c r="G1351" s="25"/>
     </row>
     <row r="1352" spans="7:7">
-      <c r="G1352" s="28"/>
+      <c r="G1352" s="25"/>
     </row>
     <row r="1353" spans="7:7">
-      <c r="G1353" s="28"/>
+      <c r="G1353" s="25"/>
     </row>
     <row r="1354" spans="7:7">
-      <c r="G1354" s="28"/>
+      <c r="G1354" s="25"/>
     </row>
     <row r="1355" spans="7:7">
-      <c r="G1355" s="28"/>
+      <c r="G1355" s="25"/>
     </row>
     <row r="1356" spans="7:7">
-      <c r="G1356" s="28"/>
+      <c r="G1356" s="25"/>
     </row>
     <row r="1357" spans="7:7">
-      <c r="G1357" s="28"/>
+      <c r="G1357" s="25"/>
     </row>
     <row r="1358" spans="7:7">
-      <c r="G1358" s="28"/>
+      <c r="G1358" s="25"/>
     </row>
     <row r="1359" spans="7:7">
-      <c r="G1359" s="28"/>
+      <c r="G1359" s="25"/>
     </row>
     <row r="1360" spans="7:7">
-      <c r="G1360" s="28"/>
+      <c r="G1360" s="25"/>
     </row>
     <row r="1361" spans="7:7">
-      <c r="G1361" s="28"/>
+      <c r="G1361" s="25"/>
     </row>
     <row r="1362" spans="7:7">
-      <c r="G1362" s="28"/>
+      <c r="G1362" s="25"/>
     </row>
     <row r="1363" spans="7:7">
-      <c r="G1363" s="28"/>
+      <c r="G1363" s="25"/>
     </row>
     <row r="1364" spans="7:7">
-      <c r="G1364" s="28"/>
+      <c r="G1364" s="25"/>
     </row>
     <row r="1365" spans="7:7">
-      <c r="G1365" s="28"/>
+      <c r="G1365" s="25"/>
     </row>
     <row r="1366" spans="7:7">
-      <c r="G1366" s="28"/>
+      <c r="G1366" s="25"/>
     </row>
     <row r="1367" spans="7:7">
-      <c r="G1367" s="28"/>
+      <c r="G1367" s="25"/>
     </row>
     <row r="1368" spans="7:7">
-      <c r="G1368" s="28"/>
+      <c r="G1368" s="25"/>
     </row>
     <row r="1369" spans="7:7">
-      <c r="G1369" s="28"/>
+      <c r="G1369" s="25"/>
     </row>
     <row r="1370" spans="7:7">
-      <c r="G1370" s="28"/>
+      <c r="G1370" s="25"/>
     </row>
     <row r="1371" spans="7:7">
-      <c r="G1371" s="28"/>
+      <c r="G1371" s="25"/>
     </row>
     <row r="1372" spans="7:7">
-      <c r="G1372" s="28"/>
+      <c r="G1372" s="25"/>
     </row>
     <row r="1373" spans="7:7">
-      <c r="G1373" s="28"/>
+      <c r="G1373" s="25"/>
     </row>
     <row r="1374" spans="7:7">
-      <c r="G1374" s="28"/>
+      <c r="G1374" s="25"/>
     </row>
     <row r="1375" spans="7:7">
-      <c r="G1375" s="28"/>
+      <c r="G1375" s="25"/>
     </row>
     <row r="1376" spans="7:7">
-      <c r="G1376" s="28"/>
+      <c r="G1376" s="25"/>
     </row>
     <row r="1377" spans="7:7">
-      <c r="G1377" s="28"/>
+      <c r="G1377" s="25"/>
     </row>
     <row r="1378" spans="7:7">
-      <c r="G1378" s="28"/>
+      <c r="G1378" s="25"/>
     </row>
     <row r="1379" spans="7:7">
-      <c r="G1379" s="28"/>
+      <c r="G1379" s="25"/>
     </row>
     <row r="1380" spans="7:7">
-      <c r="G1380" s="28"/>
+      <c r="G1380" s="25"/>
     </row>
     <row r="1381" spans="7:7">
-      <c r="G1381" s="28"/>
+      <c r="G1381" s="25"/>
     </row>
     <row r="1382" spans="7:7">
-      <c r="G1382" s="28"/>
+      <c r="G1382" s="25"/>
     </row>
     <row r="1383" spans="7:7">
-      <c r="G1383" s="28"/>
+      <c r="G1383" s="25"/>
     </row>
     <row r="1384" spans="7:7">
-      <c r="G1384" s="28"/>
+      <c r="G1384" s="25"/>
     </row>
     <row r="1385" spans="7:7">
-      <c r="G1385" s="28"/>
+      <c r="G1385" s="25"/>
     </row>
     <row r="1386" spans="7:7">
-      <c r="G1386" s="28"/>
+      <c r="G1386" s="25"/>
     </row>
     <row r="1387" spans="7:7">
-      <c r="G1387" s="28"/>
+      <c r="G1387" s="25"/>
     </row>
     <row r="1388" spans="7:7">
-      <c r="G1388" s="28"/>
+      <c r="G1388" s="25"/>
     </row>
     <row r="1389" spans="7:7">
-      <c r="G1389" s="28"/>
+      <c r="G1389" s="25"/>
     </row>
     <row r="1390" spans="7:7">
-      <c r="G1390" s="28"/>
+      <c r="G1390" s="25"/>
     </row>
     <row r="1391" spans="7:7">
-      <c r="G1391" s="28"/>
+      <c r="G1391" s="25"/>
     </row>
     <row r="1392" spans="7:7">
-      <c r="G1392" s="28"/>
+      <c r="G1392" s="25"/>
     </row>
     <row r="1393" spans="7:7">
-      <c r="G1393" s="28"/>
+      <c r="G1393" s="25"/>
     </row>
     <row r="1394" spans="7:7">
-      <c r="G1394" s="28"/>
+      <c r="G1394" s="25"/>
     </row>
     <row r="1395" spans="7:7">
-      <c r="G1395" s="28"/>
+      <c r="G1395" s="25"/>
     </row>
     <row r="1396" spans="7:7">
-      <c r="G1396" s="28"/>
+      <c r="G1396" s="25"/>
     </row>
     <row r="1397" spans="7:7">
-      <c r="G1397" s="28"/>
+      <c r="G1397" s="25"/>
     </row>
     <row r="1398" spans="7:7">
-      <c r="G1398" s="28"/>
+      <c r="G1398" s="25"/>
     </row>
     <row r="1399" spans="7:7">
-      <c r="G1399" s="28"/>
+      <c r="G1399" s="25"/>
     </row>
     <row r="1400" spans="7:7">
-      <c r="G1400" s="28"/>
+      <c r="G1400" s="25"/>
     </row>
     <row r="1401" spans="7:7">
-      <c r="G1401" s="28"/>
+      <c r="G1401" s="25"/>
     </row>
     <row r="1402" spans="7:7">
-      <c r="G1402" s="28"/>
+      <c r="G1402" s="25"/>
     </row>
     <row r="1403" spans="7:7">
-      <c r="G1403" s="28"/>
+      <c r="G1403" s="25"/>
     </row>
     <row r="1404" spans="7:7">
-      <c r="G1404" s="28"/>
+      <c r="G1404" s="25"/>
     </row>
     <row r="1405" spans="7:7">
-      <c r="G1405" s="28"/>
+      <c r="G1405" s="25"/>
     </row>
     <row r="1406" spans="7:7">
-      <c r="G1406" s="28"/>
+      <c r="G1406" s="25"/>
     </row>
     <row r="1407" spans="7:7">
-      <c r="G1407" s="28"/>
+      <c r="G1407" s="25"/>
     </row>
     <row r="1408" spans="7:7">
-      <c r="G1408" s="28"/>
+      <c r="G1408" s="25"/>
     </row>
     <row r="1409" spans="7:7">
-      <c r="G1409" s="28"/>
+      <c r="G1409" s="25"/>
     </row>
     <row r="1410" spans="7:7">
-      <c r="G1410" s="28"/>
+      <c r="G1410" s="25"/>
     </row>
     <row r="1411" spans="7:7">
-      <c r="G1411" s="28"/>
+      <c r="G1411" s="25"/>
     </row>
     <row r="1412" spans="7:7">
-      <c r="G1412" s="28"/>
+      <c r="G1412" s="25"/>
     </row>
     <row r="1413" spans="7:7">
-      <c r="G1413" s="28"/>
+      <c r="G1413" s="25"/>
     </row>
     <row r="1414" spans="7:7">
-      <c r="G1414" s="28"/>
+      <c r="G1414" s="25"/>
     </row>
     <row r="1415" spans="7:7">
-      <c r="G1415" s="28"/>
+      <c r="G1415" s="25"/>
     </row>
     <row r="1416" spans="7:7">
-      <c r="G1416" s="28"/>
+      <c r="G1416" s="25"/>
     </row>
     <row r="1417" spans="7:7">
-      <c r="G1417" s="28"/>
+      <c r="G1417" s="25"/>
     </row>
     <row r="1418" spans="7:7">
-      <c r="G1418" s="28"/>
+      <c r="G1418" s="25"/>
     </row>
     <row r="1419" spans="7:7">
-      <c r="G1419" s="28"/>
+      <c r="G1419" s="25"/>
     </row>
     <row r="1420" spans="7:7">
-      <c r="G1420" s="28"/>
+      <c r="G1420" s="25"/>
     </row>
     <row r="1421" spans="7:7">
-      <c r="G1421" s="28"/>
+      <c r="G1421" s="25"/>
     </row>
     <row r="1422" spans="7:7">
-      <c r="G1422" s="28"/>
+      <c r="G1422" s="25"/>
     </row>
     <row r="1423" spans="7:7">
-      <c r="G1423" s="28"/>
+      <c r="G1423" s="25"/>
     </row>
     <row r="1424" spans="7:7">
-      <c r="G1424" s="28"/>
+      <c r="G1424" s="25"/>
     </row>
     <row r="1425" spans="7:7">
-      <c r="G1425" s="28"/>
+      <c r="G1425" s="25"/>
     </row>
     <row r="1426" spans="7:7">
-      <c r="G1426" s="28"/>
+      <c r="G1426" s="25"/>
     </row>
     <row r="1427" spans="7:7">
-      <c r="G1427" s="28"/>
+      <c r="G1427" s="25"/>
     </row>
     <row r="1428" spans="7:7">
-      <c r="G1428" s="28"/>
+      <c r="G1428" s="25"/>
     </row>
     <row r="1429" spans="7:7">
-      <c r="G1429" s="28"/>
+      <c r="G1429" s="25"/>
     </row>
     <row r="1430" spans="7:7">
-      <c r="G1430" s="28"/>
+      <c r="G1430" s="25"/>
     </row>
     <row r="1431" spans="7:7">
-      <c r="G1431" s="28"/>
+      <c r="G1431" s="25"/>
     </row>
     <row r="1432" spans="7:7">
-      <c r="G1432" s="28"/>
+      <c r="G1432" s="25"/>
     </row>
     <row r="1433" spans="7:7">
-      <c r="G1433" s="28"/>
+      <c r="G1433" s="25"/>
     </row>
     <row r="1434" spans="7:7">
-      <c r="G1434" s="28"/>
+      <c r="G1434" s="25"/>
     </row>
     <row r="1435" spans="7:7">
-      <c r="G1435" s="28"/>
+      <c r="G1435" s="25"/>
     </row>
     <row r="1436" spans="7:7">
-      <c r="G1436" s="28"/>
+      <c r="G1436" s="25"/>
     </row>
     <row r="1437" spans="7:7">
-      <c r="G1437" s="28"/>
+      <c r="G1437" s="25"/>
     </row>
     <row r="1438" spans="7:7">
-      <c r="G1438" s="28"/>
+      <c r="G1438" s="25"/>
     </row>
     <row r="1439" spans="7:7">
-      <c r="G1439" s="28"/>
+      <c r="G1439" s="25"/>
     </row>
     <row r="1440" spans="7:7">
-      <c r="G1440" s="28"/>
+      <c r="G1440" s="25"/>
     </row>
     <row r="1441" spans="7:7">
-      <c r="G1441" s="28"/>
+      <c r="G1441" s="25"/>
     </row>
     <row r="1442" spans="7:7">
-      <c r="G1442" s="28"/>
+      <c r="G1442" s="25"/>
     </row>
     <row r="1443" spans="7:7">
-      <c r="G1443" s="28"/>
+      <c r="G1443" s="25"/>
     </row>
     <row r="1444" spans="7:7">
-      <c r="G1444" s="28"/>
+      <c r="G1444" s="25"/>
     </row>
     <row r="1445" spans="7:7">
-      <c r="G1445" s="28"/>
+      <c r="G1445" s="25"/>
     </row>
     <row r="1446" spans="7:7">
-      <c r="G1446" s="28"/>
+      <c r="G1446" s="25"/>
     </row>
     <row r="1447" spans="7:7">
-      <c r="G1447" s="28"/>
+      <c r="G1447" s="25"/>
     </row>
     <row r="1448" spans="7:7">
-      <c r="G1448" s="28"/>
+      <c r="G1448" s="25"/>
     </row>
     <row r="1449" spans="7:7">
-      <c r="G1449" s="28"/>
+      <c r="G1449" s="25"/>
     </row>
     <row r="1450" spans="7:7">
-      <c r="G1450" s="28"/>
+      <c r="G1450" s="25"/>
     </row>
     <row r="1451" spans="7:7">
-      <c r="G1451" s="28"/>
+      <c r="G1451" s="25"/>
     </row>
     <row r="1452" spans="7:7">
-      <c r="G1452" s="28"/>
+      <c r="G1452" s="25"/>
     </row>
     <row r="1453" spans="7:7">
-      <c r="G1453" s="28"/>
+      <c r="G1453" s="25"/>
     </row>
     <row r="1454" spans="7:7">
-      <c r="G1454" s="28"/>
+      <c r="G1454" s="25"/>
     </row>
     <row r="1455" spans="7:7">
-      <c r="G1455" s="28"/>
+      <c r="G1455" s="25"/>
     </row>
     <row r="1456" spans="7:7">
-      <c r="G1456" s="28"/>
+      <c r="G1456" s="25"/>
     </row>
     <row r="1457" spans="7:7">
-      <c r="G1457" s="28"/>
+      <c r="G1457" s="25"/>
     </row>
     <row r="1458" spans="7:7">
-      <c r="G1458" s="28"/>
+      <c r="G1458" s="25"/>
     </row>
     <row r="1459" spans="7:7">
-      <c r="G1459" s="28"/>
+      <c r="G1459" s="25"/>
     </row>
     <row r="1460" spans="7:7">
-      <c r="G1460" s="28"/>
+      <c r="G1460" s="25"/>
     </row>
     <row r="1461" spans="7:7">
-      <c r="G1461" s="28"/>
+      <c r="G1461" s="25"/>
     </row>
     <row r="1462" spans="7:7">
-      <c r="G1462" s="28"/>
+      <c r="G1462" s="25"/>
     </row>
     <row r="1463" spans="7:7">
-      <c r="G1463" s="28"/>
+      <c r="G1463" s="25"/>
     </row>
     <row r="1464" spans="7:7">
-      <c r="G1464" s="28"/>
+      <c r="G1464" s="25"/>
     </row>
     <row r="1465" spans="7:7">
-      <c r="G1465" s="28"/>
+      <c r="G1465" s="25"/>
     </row>
     <row r="1466" spans="7:7">
-      <c r="G1466" s="28"/>
+      <c r="G1466" s="25"/>
     </row>
     <row r="1467" spans="7:7">
-      <c r="G1467" s="28"/>
+      <c r="G1467" s="25"/>
     </row>
     <row r="1468" spans="7:7">
-      <c r="G1468" s="28"/>
+      <c r="G1468" s="25"/>
     </row>
     <row r="1469" spans="7:7">
-      <c r="G1469" s="28"/>
+      <c r="G1469" s="25"/>
     </row>
     <row r="1470" spans="7:7">
-      <c r="G1470" s="28"/>
+      <c r="G1470" s="25"/>
     </row>
     <row r="1471" spans="7:7">
-      <c r="G1471" s="28"/>
+      <c r="G1471" s="25"/>
     </row>
     <row r="1472" spans="7:7">
-      <c r="G1472" s="28"/>
+      <c r="G1472" s="25"/>
     </row>
     <row r="1473" spans="7:7">
-      <c r="G1473" s="28"/>
+      <c r="G1473" s="25"/>
     </row>
     <row r="1474" spans="7:7">
-      <c r="G1474" s="28"/>
+      <c r="G1474" s="25"/>
     </row>
     <row r="1475" spans="7:7">
-      <c r="G1475" s="28"/>
+      <c r="G1475" s="25"/>
     </row>
     <row r="1476" spans="7:7">
-      <c r="G1476" s="28"/>
+      <c r="G1476" s="25"/>
     </row>
     <row r="1477" spans="7:7">
-      <c r="G1477" s="28"/>
+      <c r="G1477" s="25"/>
     </row>
     <row r="1478" spans="7:7">
-      <c r="G1478" s="28"/>
+      <c r="G1478" s="25"/>
     </row>
     <row r="1479" spans="7:7">
-      <c r="G1479" s="28"/>
+      <c r="G1479" s="25"/>
     </row>
     <row r="1480" spans="7:7">
-      <c r="G1480" s="28"/>
+      <c r="G1480" s="25"/>
     </row>
     <row r="1481" spans="7:7">
-      <c r="G1481" s="28"/>
+      <c r="G1481" s="25"/>
     </row>
     <row r="1482" spans="7:7">
-      <c r="G1482" s="28"/>
+      <c r="G1482" s="25"/>
     </row>
     <row r="1483" spans="7:7">
-      <c r="G1483" s="28"/>
+      <c r="G1483" s="25"/>
     </row>
     <row r="1484" spans="7:7">
-      <c r="G1484" s="28"/>
+      <c r="G1484" s="25"/>
     </row>
     <row r="1485" spans="7:7">
-      <c r="G1485" s="28"/>
+      <c r="G1485" s="25"/>
     </row>
     <row r="1486" spans="7:7">
-      <c r="G1486" s="28"/>
+      <c r="G1486" s="25"/>
     </row>
     <row r="1487" spans="7:7">
-      <c r="G1487" s="28"/>
+      <c r="G1487" s="25"/>
     </row>
     <row r="1488" spans="7:7">
-      <c r="G1488" s="28"/>
+      <c r="G1488" s="25"/>
     </row>
     <row r="1489" spans="7:7">
-      <c r="G1489" s="28"/>
+      <c r="G1489" s="25"/>
     </row>
     <row r="1490" spans="7:7">
-      <c r="G1490" s="28"/>
+      <c r="G1490" s="25"/>
     </row>
     <row r="1491" spans="7:7">
-      <c r="G1491" s="28"/>
+      <c r="G1491" s="25"/>
     </row>
     <row r="1492" spans="7:7">
-      <c r="G1492" s="28"/>
+      <c r="G1492" s="25"/>
     </row>
     <row r="1493" spans="7:7">
-      <c r="G1493" s="28"/>
+      <c r="G1493" s="25"/>
     </row>
     <row r="1494" spans="7:7">
-      <c r="G1494" s="28"/>
+      <c r="G1494" s="25"/>
     </row>
     <row r="1495" spans="7:7">
-      <c r="G1495" s="28"/>
+      <c r="G1495" s="25"/>
     </row>
     <row r="1496" spans="7:7">
-      <c r="G1496" s="28"/>
+      <c r="G1496" s="25"/>
     </row>
     <row r="1497" spans="7:7">
-      <c r="G1497" s="28"/>
+      <c r="G1497" s="25"/>
     </row>
     <row r="1498" spans="7:7">
-      <c r="G1498" s="28"/>
+      <c r="G1498" s="25"/>
     </row>
     <row r="1499" spans="7:7">
-      <c r="G1499" s="28"/>
+      <c r="G1499" s="25"/>
     </row>
     <row r="1500" spans="7:7">
-      <c r="G1500" s="28"/>
+      <c r="G1500" s="25"/>
     </row>
     <row r="1501" spans="7:7">
-      <c r="G1501" s="28"/>
+      <c r="G1501" s="25"/>
     </row>
     <row r="1502" spans="7:7">
-      <c r="G1502" s="28"/>
+      <c r="G1502" s="25"/>
     </row>
     <row r="1503" spans="7:7">
-      <c r="G1503" s="28"/>
+      <c r="G1503" s="25"/>
     </row>
     <row r="1504" spans="7:7">
-      <c r="G1504" s="28"/>
+      <c r="G1504" s="25"/>
     </row>
     <row r="1505" spans="7:7">
-      <c r="G1505" s="28"/>
+      <c r="G1505" s="25"/>
     </row>
     <row r="1506" spans="7:7">
-      <c r="G1506" s="28"/>
+      <c r="G1506" s="25"/>
     </row>
     <row r="1507" spans="7:7">
-      <c r="G1507" s="28"/>
+      <c r="G1507" s="25"/>
     </row>
     <row r="1508" spans="7:7">
-      <c r="G1508" s="28"/>
+      <c r="G1508" s="25"/>
     </row>
     <row r="1509" spans="7:7">
-      <c r="G1509" s="28"/>
+      <c r="G1509" s="25"/>
     </row>
     <row r="1510" spans="7:7">
-      <c r="G1510" s="28"/>
+      <c r="G1510" s="25"/>
     </row>
     <row r="1511" spans="7:7">
-      <c r="G1511" s="28"/>
+      <c r="G1511" s="25"/>
     </row>
     <row r="1512" spans="7:7">
-      <c r="G1512" s="28"/>
+      <c r="G1512" s="25"/>
     </row>
     <row r="1513" spans="7:7">
-      <c r="G1513" s="28"/>
+      <c r="G1513" s="25"/>
     </row>
     <row r="1514" spans="7:7">
-      <c r="G1514" s="28"/>
+      <c r="G1514" s="25"/>
     </row>
     <row r="1515" spans="7:7">
-      <c r="G1515" s="28"/>
+      <c r="G1515" s="25"/>
     </row>
     <row r="1516" spans="7:7">
-      <c r="G1516" s="28"/>
+      <c r="G1516" s="25"/>
     </row>
     <row r="1517" spans="7:7">
-      <c r="G1517" s="28"/>
+      <c r="G1517" s="25"/>
     </row>
     <row r="1518" spans="7:7">
-      <c r="G1518" s="28"/>
+      <c r="G1518" s="25"/>
     </row>
     <row r="1519" spans="7:7">
-      <c r="G1519" s="28"/>
+      <c r="G1519" s="25"/>
     </row>
     <row r="1520" spans="7:7">
-      <c r="G1520" s="28"/>
+      <c r="G1520" s="25"/>
     </row>
     <row r="1521" spans="7:7">
-      <c r="G1521" s="28"/>
+      <c r="G1521" s="25"/>
     </row>
     <row r="1522" spans="7:7">
-      <c r="G1522" s="28"/>
+      <c r="G1522" s="25"/>
     </row>
     <row r="1523" spans="7:7">
-      <c r="G1523" s="28"/>
+      <c r="G1523" s="25"/>
     </row>
     <row r="1524" spans="7:7">
-      <c r="G1524" s="28"/>
+      <c r="G1524" s="25"/>
     </row>
     <row r="1525" spans="7:7">
-      <c r="G1525" s="28"/>
+      <c r="G1525" s="25"/>
     </row>
     <row r="1526" spans="7:7">
-      <c r="G1526" s="28"/>
+      <c r="G1526" s="25"/>
     </row>
     <row r="1527" spans="7:7">
-      <c r="G1527" s="28"/>
+      <c r="G1527" s="25"/>
     </row>
     <row r="1528" spans="7:7">
-      <c r="G1528" s="28"/>
+      <c r="G1528" s="25"/>
     </row>
     <row r="1529" spans="7:7">
-      <c r="G1529" s="28"/>
+      <c r="G1529" s="25"/>
     </row>
     <row r="1530" spans="7:7">
-      <c r="G1530" s="28"/>
+      <c r="G1530" s="25"/>
     </row>
     <row r="1531" spans="7:7">
-      <c r="G1531" s="28"/>
+      <c r="G1531" s="25"/>
     </row>
     <row r="1532" spans="7:7">
-      <c r="G1532" s="28"/>
+      <c r="G1532" s="25"/>
     </row>
     <row r="1533" spans="7:7">
-      <c r="G1533" s="28"/>
+      <c r="G1533" s="25"/>
     </row>
     <row r="1534" spans="7:7">
-      <c r="G1534" s="28"/>
+      <c r="G1534" s="25"/>
     </row>
     <row r="1535" spans="7:7">
-      <c r="G1535" s="28"/>
+      <c r="G1535" s="25"/>
     </row>
     <row r="1536" spans="7:7">
-      <c r="G1536" s="28"/>
+      <c r="G1536" s="25"/>
     </row>
     <row r="1537" spans="7:7">
-      <c r="G1537" s="28"/>
+      <c r="G1537" s="25"/>
     </row>
     <row r="1538" spans="7:7">
-      <c r="G1538" s="28"/>
+      <c r="G1538" s="25"/>
     </row>
     <row r="1539" spans="7:7">
-      <c r="G1539" s="28"/>
+      <c r="G1539" s="25"/>
     </row>
     <row r="1540" spans="7:7">
-      <c r="G1540" s="28"/>
+      <c r="G1540" s="25"/>
     </row>
     <row r="1541" spans="7:7">
-      <c r="G1541" s="28"/>
+      <c r="G1541" s="25"/>
     </row>
     <row r="1542" spans="7:7">
-      <c r="G1542" s="28"/>
+      <c r="G1542" s="25"/>
     </row>
     <row r="1543" spans="7:7">
-      <c r="G1543" s="28"/>
+      <c r="G1543" s="25"/>
     </row>
     <row r="1544" spans="7:7">
-      <c r="G1544" s="28"/>
+      <c r="G1544" s="25"/>
     </row>
     <row r="1545" spans="7:7">
-      <c r="G1545" s="28"/>
+      <c r="G1545" s="25"/>
     </row>
     <row r="1546" spans="7:7">
-      <c r="G1546" s="28"/>
+      <c r="G1546" s="25"/>
     </row>
     <row r="1547" spans="7:7">
-      <c r="G1547" s="28"/>
+      <c r="G1547" s="25"/>
     </row>
     <row r="1548" spans="7:7">
-      <c r="G1548" s="28"/>
+      <c r="G1548" s="25"/>
     </row>
     <row r="1549" spans="7:7">
-      <c r="G1549" s="28"/>
+      <c r="G1549" s="25"/>
     </row>
     <row r="1550" spans="7:7">
-      <c r="G1550" s="28"/>
+      <c r="G1550" s="25"/>
     </row>
     <row r="1551" spans="7:7">
-      <c r="G1551" s="28"/>
+      <c r="G1551" s="25"/>
     </row>
     <row r="1552" spans="7:7">
-      <c r="G1552" s="28"/>
+      <c r="G1552" s="25"/>
     </row>
     <row r="1553" spans="7:7">
-      <c r="G1553" s="28"/>
+      <c r="G1553" s="25"/>
     </row>
     <row r="1554" spans="7:7">
-      <c r="G1554" s="28"/>
+      <c r="G1554" s="25"/>
     </row>
     <row r="1555" spans="7:7">
-      <c r="G1555" s="28"/>
+      <c r="G1555" s="25"/>
     </row>
     <row r="1556" spans="7:7">
-      <c r="G1556" s="28"/>
+      <c r="G1556" s="25"/>
     </row>
     <row r="1557" spans="7:7">
-      <c r="G1557" s="28"/>
+      <c r="G1557" s="25"/>
     </row>
     <row r="1558" spans="7:7">
-      <c r="G1558" s="28"/>
+      <c r="G1558" s="25"/>
     </row>
     <row r="1559" spans="7:7">
-      <c r="G1559" s="28"/>
+      <c r="G1559" s="25"/>
     </row>
     <row r="1560" spans="7:7">
-      <c r="G1560" s="28"/>
+      <c r="G1560" s="25"/>
     </row>
     <row r="1561" spans="7:7">
-      <c r="G1561" s="28"/>
+      <c r="G1561" s="25"/>
     </row>
     <row r="1562" spans="7:7">
-      <c r="G1562" s="28"/>
+      <c r="G1562" s="25"/>
     </row>
     <row r="1563" spans="7:7">
-      <c r="G1563" s="28"/>
+      <c r="G1563" s="25"/>
     </row>
     <row r="1564" spans="7:7">
-      <c r="G1564" s="28"/>
+      <c r="G1564" s="25"/>
     </row>
     <row r="1565" spans="7:7">
-      <c r="G1565" s="28"/>
+      <c r="G1565" s="25"/>
     </row>
     <row r="1566" spans="7:7">
-      <c r="G1566" s="28"/>
+      <c r="G1566" s="25"/>
     </row>
     <row r="1567" spans="7:7">
-      <c r="G1567" s="28"/>
+      <c r="G1567" s="25"/>
     </row>
     <row r="1568" spans="7:7">
-      <c r="G1568" s="28"/>
+      <c r="G1568" s="25"/>
     </row>
     <row r="1569" spans="7:7">
-      <c r="G1569" s="28"/>
+      <c r="G1569" s="25"/>
     </row>
     <row r="1570" spans="7:7">
-      <c r="G1570" s="28"/>
+      <c r="G1570" s="25"/>
     </row>
     <row r="1571" spans="7:7">
-      <c r="G1571" s="28"/>
+      <c r="G1571" s="25"/>
     </row>
     <row r="1572" spans="7:7">
-      <c r="G1572" s="28"/>
+      <c r="G1572" s="25"/>
     </row>
     <row r="1573" spans="7:7">
-      <c r="G1573" s="28"/>
+      <c r="G1573" s="25"/>
     </row>
     <row r="1574" spans="7:7">
-      <c r="G1574" s="28"/>
+      <c r="G1574" s="25"/>
     </row>
     <row r="1575" spans="7:7">
-      <c r="G1575" s="28"/>
+      <c r="G1575" s="25"/>
     </row>
     <row r="1576" spans="7:7">
-      <c r="G1576" s="28"/>
+      <c r="G1576" s="25"/>
     </row>
     <row r="1577" spans="7:7">
-      <c r="G1577" s="28"/>
+      <c r="G1577" s="25"/>
     </row>
     <row r="1578" spans="7:7">
-      <c r="G1578" s="28"/>
+      <c r="G1578" s="25"/>
     </row>
     <row r="1579" spans="7:7">
-      <c r="G1579" s="28"/>
+      <c r="G1579" s="25"/>
     </row>
     <row r="1580" spans="7:7">
-      <c r="G1580" s="28"/>
+      <c r="G1580" s="25"/>
     </row>
     <row r="1581" spans="7:7">
-      <c r="G1581" s="28"/>
+      <c r="G1581" s="25"/>
     </row>
     <row r="1582" spans="7:7">
-      <c r="G1582" s="28"/>
+      <c r="G1582" s="25"/>
     </row>
     <row r="1583" spans="7:7">
-      <c r="G1583" s="28"/>
+      <c r="G1583" s="25"/>
     </row>
     <row r="1584" spans="7:7">
-      <c r="G1584" s="28"/>
+      <c r="G1584" s="25"/>
     </row>
     <row r="1585" spans="7:7">
-      <c r="G1585" s="28"/>
+      <c r="G1585" s="25"/>
     </row>
     <row r="1586" spans="7:7">
-      <c r="G1586" s="28"/>
+      <c r="G1586" s="25"/>
     </row>
     <row r="1587" spans="7:7">
-      <c r="G1587" s="28"/>
+      <c r="G1587" s="25"/>
     </row>
     <row r="1588" spans="7:7">
-      <c r="G1588" s="28"/>
+      <c r="G1588" s="25"/>
     </row>
     <row r="1589" spans="7:7">
-      <c r="G1589" s="28"/>
+      <c r="G1589" s="25"/>
     </row>
     <row r="1590" spans="7:7">
-      <c r="G1590" s="28"/>
+      <c r="G1590" s="25"/>
     </row>
     <row r="1591" spans="7:7">
-      <c r="G1591" s="28"/>
+      <c r="G1591" s="25"/>
     </row>
     <row r="1592" spans="7:7">
-      <c r="G1592" s="28"/>
+      <c r="G1592" s="25"/>
     </row>
     <row r="1593" spans="7:7">
-      <c r="G1593" s="28"/>
+      <c r="G1593" s="25"/>
     </row>
     <row r="1594" spans="7:7">
-      <c r="G1594" s="28"/>
+      <c r="G1594" s="25"/>
     </row>
     <row r="1595" spans="7:7">
-      <c r="G1595" s="28"/>
+      <c r="G1595" s="25"/>
     </row>
     <row r="1596" spans="7:7">
-      <c r="G1596" s="28"/>
+      <c r="G1596" s="25"/>
     </row>
     <row r="1597" spans="7:7">
-      <c r="G1597" s="28"/>
+      <c r="G1597" s="25"/>
     </row>
     <row r="1598" spans="7:7">
-      <c r="G1598" s="28"/>
+      <c r="G1598" s="25"/>
     </row>
     <row r="1599" spans="7:7">
-      <c r="G1599" s="28"/>
+      <c r="G1599" s="25"/>
     </row>
     <row r="1600" spans="7:7">
-      <c r="G1600" s="28"/>
+      <c r="G1600" s="25"/>
     </row>
     <row r="1601" spans="7:7">
-      <c r="G1601" s="28"/>
+      <c r="G1601" s="25"/>
     </row>
     <row r="1602" spans="7:7">
-      <c r="G1602" s="28"/>
+      <c r="G1602" s="25"/>
     </row>
     <row r="1603" spans="7:7">
-      <c r="G1603" s="28"/>
+      <c r="G1603" s="25"/>
     </row>
     <row r="1604" spans="7:7">
-      <c r="G1604" s="28"/>
+      <c r="G1604" s="25"/>
     </row>
     <row r="1605" spans="7:7">
-      <c r="G1605" s="28"/>
+      <c r="G1605" s="25"/>
     </row>
     <row r="1606" spans="7:7">
-      <c r="G1606" s="28"/>
+      <c r="G1606" s="25"/>
     </row>
     <row r="1607" spans="7:7">
-      <c r="G1607" s="28"/>
+      <c r="G1607" s="25"/>
     </row>
     <row r="1608" spans="7:7">
-      <c r="G1608" s="28"/>
+      <c r="G1608" s="25"/>
     </row>
     <row r="1609" spans="7:7">
-      <c r="G1609" s="28"/>
+      <c r="G1609" s="25"/>
     </row>
     <row r="1610" spans="7:7">
-      <c r="G1610" s="28"/>
+      <c r="G1610" s="25"/>
     </row>
     <row r="1611" spans="7:7">
-      <c r="G1611" s="28"/>
+      <c r="G1611" s="25"/>
     </row>
     <row r="1612" spans="7:7">
-      <c r="G1612" s="28"/>
+      <c r="G1612" s="25"/>
     </row>
     <row r="1613" spans="7:7">
-      <c r="G1613" s="28"/>
+      <c r="G1613" s="25"/>
     </row>
     <row r="1614" spans="7:7">
-      <c r="G1614" s="28"/>
+      <c r="G1614" s="25"/>
     </row>
     <row r="1615" spans="7:7">
-      <c r="G1615" s="28"/>
+      <c r="G1615" s="25"/>
     </row>
     <row r="1616" spans="7:7">
-      <c r="G1616" s="28"/>
+      <c r="G1616" s="25"/>
     </row>
     <row r="1617" spans="7:7">
-      <c r="G1617" s="28"/>
+      <c r="G1617" s="25"/>
     </row>
     <row r="1618" spans="7:7">
-      <c r="G1618" s="28"/>
+      <c r="G1618" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14950,221 +15130,221 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:26" ht="15">
-      <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
-      <c r="X2" s="8"/>
-      <c r="Y2" s="8"/>
-      <c r="Z2" s="9"/>
+      <c r="B2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="6"/>
     </row>
     <row r="3" spans="2:26" ht="15">
-      <c r="B3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="14"/>
+      <c r="B3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="Y3" s="10"/>
+      <c r="Z3" s="11"/>
     </row>
     <row r="4" spans="2:26" ht="15">
-      <c r="B4" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="18"/>
-      <c r="Q4" s="18"/>
-      <c r="R4" s="18"/>
-      <c r="S4" s="18"/>
-      <c r="T4" s="18"/>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-      <c r="X4" s="18"/>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="19"/>
+      <c r="B4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+      <c r="R4" s="15"/>
+      <c r="S4" s="15"/>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="16"/>
     </row>
     <row r="5" spans="2:26" ht="15">
-      <c r="B5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="20"/>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="21"/>
+      <c r="B5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+      <c r="Z5" s="18"/>
     </row>
     <row r="6" spans="2:26" ht="15">
-      <c r="B6" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="18"/>
-      <c r="O6" s="18"/>
-      <c r="P6" s="18"/>
-      <c r="Q6" s="18"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="18"/>
-      <c r="T6" s="18"/>
-      <c r="U6" s="18"/>
-      <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-      <c r="X6" s="18"/>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="19"/>
+      <c r="B6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="15"/>
+      <c r="S6" s="15"/>
+      <c r="T6" s="15"/>
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15"/>
+      <c r="Z6" s="16"/>
     </row>
     <row r="7" spans="2:26" ht="15">
-      <c r="B7" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="20"/>
-      <c r="Y7" s="20"/>
-      <c r="Z7" s="21"/>
+      <c r="B7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="18"/>
     </row>
     <row r="8" spans="2:26" ht="15">
-      <c r="B8" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-      <c r="O8" s="25"/>
-      <c r="P8" s="25"/>
-      <c r="Q8" s="25"/>
-      <c r="R8" s="25"/>
-      <c r="S8" s="25"/>
-      <c r="T8" s="25"/>
-      <c r="U8" s="25"/>
-      <c r="V8" s="25"/>
-      <c r="W8" s="25"/>
-      <c r="X8" s="25"/>
-      <c r="Y8" s="25"/>
-      <c r="Z8" s="26"/>
+      <c r="B8" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="22"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="22"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
